--- a/output/Total_time_range_data/江西省/抚州市_学习考察.xlsx
+++ b/output/Total_time_range_data/江西省/抚州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5566 +436,6090 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>127</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>陈文带队赴省林科院考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-08-17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F8%2F17%2Fart_3826_3863932.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3863932</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['了省林科院重点工作城郊小微湿地群省级示范点基地建设进展情况，详细察看了该院小微湿地示范点基地一期（竹园湿地）的修复成效以及小微湿地群示范点二期和三期的建设内容', '要以此次参观考察为契机，学习先进找差距，立足实际，对标对表，将参观学习变为实际行动']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>127</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市人大常委会考察组赴上饶学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F3%2F4%2Fart_11_3964407.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3964407</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为更好地推动《抚州市农村村民住房建设管理条例》实施，3月1日至2日，市人大常委会党组副书记、副主任韦萍率考察组赴上饶市学习考察，副市长江志坚参加。', '座谈会上，考察组听取了上饶市政府及相关部门、县区经验介绍，详细了解《上饶市农村居民住房建设管理条例》贯彻执行情况、工作成效，以及下一步工作打算。考察组围绕条例实施过程中的重点难点、宣传方式、执法监管等问题，与上饶相关代表进行了深入交流，听取意见建议。', '随后，考察组实地察看了上饶市横峰县姚家乡、莲荷乡，铅山县鹅湖镇、永平镇、葛仙山镇等地农民建房政策宣传、行政审批、监督执法等情况。考察组一行对条例宣传贯彻情况有了清晰的认识，考察组表示，将认真学习借鉴上饶市的好经验、好做法，结合实际推动《抚州市农村村民住房建设管理条例》更好贯彻实施。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>127</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>孙鑫率队赴景德镇学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F3%2F27%2Fart_11_3972349.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3972349</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['3月26日，市委常委、市委宣传部部长孙鑫率队赴景德镇市学习考察版权工作。市民间文艺版权保护与促进试点工作领导小组部分成员单位负责同志参加。', '孙鑫一行先后参观了景德镇市陶博城、景浮宫、陶溪川文创街区等地，详细了解陶瓷版权服务站运行机制和相关版权企业情况，并深入学习考察景德镇市版权工作中的好经验、好做法。', '座谈会上，双方就全链条的版权保护体系和版权交易中心平台建设进行了深入交流。孙鑫表示，近年来景德镇市持续推进版权保护体系建设，实施“版权兴业、版权立市”工程，成功创建了全国版权示范城市，版权工作走在全国前列。我们将认真学习借鉴景德镇市版权工作的成功经验，进一步开阔思路、改革创新，大力推进民间文艺版权引领、创造、保护、促进“四大工程”，推动全国试点工作走深走实，激发文化创新创造活力。希望双方进一步深化交流合作，积极开展互访活动，拓展合作空间，携手推动两地宣传思想文化工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>127</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>龙岩市政协考察团来抚学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F7%2F8%2Fart_11_3851018.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3851018</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['7月5日至6日，福建省龙岩市政协副主席温永率考察团来抚，就生态产品价值实现机制进行学习考察，并召开座谈会。市政协副主席唐永文陪同。', '温永一行赴资溪县先后考察了竹科技创新中心、面包食品产业城、“两山”转化中心、大觉溪乡村旅游综合示范区、南源民宿、大觉山等地，对我市依托生态优势和资源禀赋实现生态产品价值做法给予肯定。温永表示，抚州的生态产品价值实现机制试点工作开展得有声有色，为龙岩市有关工作开展拓展了思路。将以此次学习考察为契机，认真学习借鉴抚州经验，以点带面形成示范效应，让龙岩市的绿水青山更好地转化为经济效益、社会效益、生态效益。', '唐永文对温永一行的到来表示热烈欢迎，详细介绍了我市生态产品价值实现机制的经验做法。希望两地以此次工作交流为起点，进一步加强沟通、优势互补、共同进步、增进友谊，促进各项工作提升，共同开创生态产品价值实现工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>127</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市关工委赴婺源学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F1%2F7%2Fart_11_3780061.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3780061</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['1月4日至5日，市关工委主任谢发明率学习考察组一行，赴上饶市婺源县学习考察关心下一代工作。上饶市关工委主任刘卫华、专职副主任叶飞陪同；市关工委第一副主任许四星、副主任李国华参加。', '在婺源县中云镇，学习考察组仔细了解该镇关工委在抓“五好”基层关工委组织建设、“五老”结对帮扶困难青少年的经验做法。在熹园和江湾镇汪口村，学习考察组参观了青少年传统文化教育基地和家风家训教育基地。', '谢发明在考察时指出，上饶市对关心下一代工作高度重视，工作亮点多、效果好。抚州各县（区）要善于挖掘适合青少年品德教育的文化精品，打造家风家训教育基地，推进家风家训“十百千万”系列活动开展。要把“树家风、育新人”主题教育扎实开展好，切实担负起关工委立德树人的光荣使命。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>127</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市领导率队赴上饶南昌学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-04-12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2021%2F4%2F12%2Fart_11_3671437.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3671437</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['为制订好《抚州市农村居民住房建设管理条例》，提升立法质量，4月7日至9日，市人大常委会副主任陶雪华率考察组赴上饶、南昌两地开展专题考察。', '考察组先后召开多场次座谈会，听取两地人大、政府及相关部门经验介绍，实地察看上饶市横峰县、南昌市安义县村容村貌，围绕农村居民住房建设管理地方性法规的立法思路、重点难点、部门职责界定、地方特色、实施路径和工作流程，以及执法监管等问题，与市、县、乡、村干部进行广泛而深入交流，听取他们的宝贵意见和建议，并收集相关资料。', '上饶市率先在2017年出台条例，把农村居民住房建设纳入法治化管理，南昌市也于去年制订了相关条例。通过学习考察，考察组受益匪浅，收获了经验和信心，将结合我市实际，形成考察报告，为尽快制订好我市农村居民住房建设管理条例提供参考。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>127</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>池州市政协调研组来抚学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020-11-04</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F11%2F4%2Fart_11_3576213.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3576213</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['11月2日，安徽省池州市政协副主席赵恩来率调研组来抚，就我市开发区转型发展工作进行学习考察。市政协副主席帅歌柳陪同考察。', '赵恩来一行先后考察了卓朗数字科技、创世纪科技、铜博科技等企业，每到一处，都认真听取企业发展情况介绍，详细了解我市在推进开发区转型发展中的好经验和好做法。', '考察中，赵恩来表示，抚州市委、市政府以新发展理念为引领，高位推动开发区转型发展，着重推进以数字经济为龙头的战略性新兴产业“裂变”式蓬勃发展，取得了令人瞩目的成绩，值得我们学习借鉴。希望今后两地进一步加强沟通、交流与合作，共同推动开发区转型发展工作再上新台阶，不断促进两地经济社会发展。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>127</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>顾胜和赴江苏考察学习招商引智</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-08-16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F8%2F16%2Fart_3826_3087610.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3087610</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['8月6-9日，市科技局局长、抚州高新区党工委副书记顾胜和到赴中科院南京分院、常州武进国家高新区、昆山国家高新区等地考察学习、交流经验、招商引智。', '中国科学院南京分院是中国科学院的派出机构。1978年11月，经批准建立中国科学院南京分院。经过多年的努力，已在20多个学科领域、30多个专业形成了综合研究开发优势，在多个研究领域取得突出成绩。近年来，南京分院进一步深化院地合作工作，与我省共建了“中国科学院江西产业技术创新与育成中心”。顾胜和这次到访，与分院科技处长尹睿就创建“中国科学院江西产业技术创新与育成中心抚州分中心”作了协调沟通。', '在武进国家高新区考察，顾胜和会见了武进国家高新区科技局副局长缪爱国、德速数控公司总经理彭子平等。武进高新技术产业开发区地处常州南翼，紧邻风景秀丽的西太湖和全市创新之核的常州科教城，1996年3月由江苏省人民政府批准设立，2012年8月，经国务院批准升级为国家高新区，规划控制面积182平方公里，下辖19个社区、14个行政村。截止2015年底，园区已成功引进20多个国家和地区的6000多家企业，拥有世界500强投资的项目19个、上市企业12家，成为长三角地区最具吸引力和创新活力的开发区之一。', '顾胜和先后考察了园区德速数控公司、德赫博精密机械公司、思特博恩公司等先进机械制造企业。常州市德速机械有限公司成立于2009年，旗下有江苏德速数控科技有限公司、江苏德赫博精密机械有限公司等子公司、思特博恩（常州）新材料科技有限公司。公司总部坐落于江苏省常州市武进区湖塘科技产业园，分部坐落于武进国家高新区创新产业园，是一家集科研、生产和销售综合切削加工中心刀库、主轴、转台、矿物质铸件的国家高新技术企业。公司高度重视科技合作，与东南大学、南京理工大学保持长期合作关系，并设立了江苏理工大学博士后工作站，不断提升技术和工艺。顾胜和向缪爱国、彭子平等介绍了抚州投资发展环境，欢迎他们前来考察或投资发展。', '昆山国家高新区的前身是1994年国家科委批准设立的昆山国家级星火技术密集区，2006年经省政府批准，命名为江苏昆山高新技术产业园区。2010年9月，经国务院批复，昆山高新技术产业园区成功升级为高新区。多年来，昆山高新区坚持开放带动与创新驱动相结合，大力培育具有竞争优势和发展前景的高新技术产业，昆山国家高新区以不足全市八分之一的土地面积，创造贡献了全市五分之一的GDP和五分之一的财政收入，吸引汇聚了全市三分之一的工商企业和三分之一的发明专利，已经成为昆山科技创新的重要载体。', '在昆山国家高新区，顾胜和考察了昆山工研院智能机器人研究所、意尔普斯（苏州）智能科技有限公司、众创空间麦垛工坊，并与意尔普斯（苏州）智能科技有限公司董事长周旋、总经理唐建林，机器人专家、昆山工业研究院智能机器人研究所所长程胜博士、众创空间麦垛工坊副总经理袁丹等会谈交流。', '顾胜和对意尔普斯研发和在科技成果转化方面的努力表示赞赏。他说，意尔普斯公司响应市委、市政府“双返双创”号召，回乡创办意尔普斯（抚州）智能科技公司，以人工智能研究及推广为切入点，带动人工智能人才培育和产业的发展。他希望意尔普斯公司在条件成熟时，将机器人相关产业引回抚州，为家乡的经济产业发展尽一份力量，同时带动更多的在外抚州学子回乡创新创业。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>127</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>吉安市人大考察团来抚学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-04-04</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F4%2F4%2Fart_11_1899711.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_1899711</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['4月2日至3日，吉安市人大常委会副主任徐明率考察团来抚，就我市在制定《抚州市住宅区物业管理条例》中的经验和做法进行学习考察。市人大常委会副主任余建平陪同并出席座谈会。', '座谈会上，考察团详细听取了我市关于物业管理立法工作的情况介绍，双方就物业管理立法过程中遇到的重点、难点问题，以及立法后在实际工作中存在的问题和应注意的事项等进行了深入探讨、交流。余建平对考察团一行的到来表示热烈欢迎，希望双方今后多交流经验、相互学习，不断提升物业管理水平，共同推进物业管理工作。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>127</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>桂林人大考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2020-11-12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F11%2F12%2Fart_11_3582084.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3582084</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['11月9日至10日，桂林市人大常委会副主任徐锋率考察组一行来抚考察学习。市人大常委会副主任宋东方陪同。', '考察组一行先后深入三翁花园、抚州数字街区、汤显祖纪念馆、文昌里历史文化街区，以及东乡区孝岗镇人大代表联络工作站、舒同博物馆、邓家乡花果山生态园考察学习，对我市优美的生态环境、深厚的文化底蕴和经济社会发展所取得的成绩赞叹不已。同时，考察组还就人大制度和新闻宣传等工作，与我市人大进行了交流和探讨。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>127</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>上饶市考察团来抚学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-07-23</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F7%2F23%2Fart_11_95472.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_95472</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['7月20日，上饶市委常委、统战部长陈洪生率考察团一行，深入我市学习考察统一战线助力脱贫及统战品牌建设工作。市委常委、统战部长韦萍陪同。', '在抚期间，考察组先后到广昌、南城两县参观考察。在广昌县，考察组参观了驿前镇敬老院、高虎脑“同心·振兴”示范点，对该县以“同心·振兴”示范点和社会服务工作为抓手，助推当地经济社会发展，决战脱贫攻坚工作的新模式给予高度评价。在南城县，考察组对天井源乡尧坊船型古屋、洪门史学研究会展馆进行了实地考察，详细了解洪门起源南城的学说，与洪门史学研究工作者进行了交流，充分肯定了该县历史遗存保护工作。', '韦萍对陈洪生一行的到来表示热烈欢迎，希望两地以此次调研为契机，进一步深化统战文化交流、加强合作、整合资源，携手推动两地统战工作全面迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>127</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>赣州市考察团来我市学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2018-07-12</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F7%2F12%2Fart_11_100380.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_100380</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['7月10日至11日，赣州市委常委、统战部长彭业明率考察团一行来我市学习考察文旅项目。市委常委、统战部长韦萍陪同。', '考察团一行先后来到玉隆万寿宫、文昌里历史文化街区等地参观，详细了解文昌里历史文化街区改造项目进展、规划建设、组织机构、投资运营模式、新业态打造、文物保护等方面情况。彭业明表示，抚州近年来加快转型升级步伐，经济持续快速增长，城乡建设大力推进，生态文化保护成效显著，群众生活持续改善，各项工作有特色、有成效，许多做法和经验值得赣州学习借鉴，此次考察收获良多，不虚此行。', '韦萍指出，赣州和抚州历来交流密切，希望今后两市能够进一步加强经济文化等多领域的交流与合作，不断推进两市各项工作快速健康发展。', '考察期间，彭业明一行还先后深入广昌县驿前镇、头陂镇和资溪县大觉溪乡村旅游综合示范区、乌石“真相乡村”等地考察。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>127</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>王武辉率队赴福建省泉州市学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F12%2F21%2Fart_13_4123332.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4123332</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为贯彻落实《国务院关于新时代支持革命老区振兴发展的意见》，深化落实泉州市与抚州市全面对接协作，推动两地退役军人工作高质量发展，', '市退役军人事务局党组成员、副局长黎全生及方水根，临川区政府副区长吴俊龙，抚州市关爱退役军人促进会副会长邹永忠等人陪同学习考察。', '在惠安县解放军某部，王武辉一行详细了解部队机关政治文化建设，观看部队宣传片，并实地参观部队飞机装备，与部队领导展开座谈，并送上代表抚州文化特色的书籍', '—《临川四梦》。在解放军某部红色尖刀连，王武辉一行在解说人员的带领下，参观红色尖刀连连史馆，详细了解红色尖刀连的光辉历史、部队建设、战备训练、业余文化生活等情况，并深切慰问抚州籍官兵。王武辉表示，军人是民族的脊梁、国家安全的保障，要深入贯彻习近平总书记“让军人成为全社会尊崇的职业”指示批示，做好拥军支前和退役军人服务保障工作，为军人解决后顾之忧，让军人安心服役建功。', '在安溪县湖头镇，王武辉一行参观了安溪县退役军人思想政治教育基地（阆湖博物馆），随后来到湖头镇退役军人服务站、湖头镇山都村退役军人服务站，通过实地察看、听取介绍等方式，详细了解服务站设施建设、人员配备以及退役军人服务保障等情况。王武辉表示，基层退役军人服务站是退役军人工作的最前沿、第一线，也是做好退役军人服务保障的基础，要深入学习安溪县退役军人服务保障建设的好经验、好做法，在为退役军人提供暖心、贴心服务上多出亮点、多做文章，不断提升抚州市退役军人服务保障能力和水平。', '“最美退役军人”温文溪，了解其创业历程和带动退役军人就业情况；随后又来到安溪县茶乡退役军人志愿者大队，详细了解其队伍建设、队员招募、活动开展等情况。在和平百茶供应链管理有限公司，王武辉详细了解公司企业文化、业务经营及带动退役军人就业等情况；在保利酒业，王武辉详细了解企业产品研发、企业运营等情况。王武辉表示，退役军人就业创业工作直接影响退役军人的获得感，要充分发挥退役军人创业典型的示范带动作用，形成选树一批、带动一篇、致富一群的良好局面。', '在晋江市解放军某部，王武辉一行参观了部队历史长廊，了解部队政治文化建设，并来到该部', '“军嫂军娃之家”（四点钟学校），详细了解当地双拥举措和创新做法。在晋江市爱国拥军促进会，王武辉与促进会领导开展座谈，详细了解该会会员发展、资金募集、双拥活动开展等情况，随后参观晋江市爱国拥军一条街，了解当地拥军优属联盟单位为现役军人、退役军人及其他优抚对象提供优待优惠情况。王武辉表示，晋江双拥工作素有优良传统，双拥工作基础牢、氛围浓、做法新、效果好，要深入学习借鉴，不断提升抚州市双拥工作水平。', '在泉州市退役军人事务局，王武辉一行参观了泉州市退役军人服务中心，了解其机关政治文化建设，随后开展座谈，双方签订战略协作框架协议。', '“九连冠”城市，有着光荣的双拥传统和优良的红色基因。近年来，泉州市退役军人事务局围绕让军人成为全社会尊崇的职业、让退役军人成为全社会尊重的人，持续推进退役军人工作高质量发展，服务保障体系建设、双拥创建、优待服务等多项工作走在全国前列，创造了一个又一个退役军人事务工作“泉州样板”“泉州经验”。', '王武辉强调，抚州和泉州同属赣闽粤原中央苏区，地缘相近、文脉相通、往来密切，两地退役军人事务部门签订合作框架协议，将为推动泉州和抚州两地退役军人工作高质量发展搭建良好平台，在更广范围、更深层次、更宽领域进行交流合作，推动两地交流经验、优势互补、携手共进。', '王武辉希望，泉州、抚州两地以此次签订合作框架协议为契机，通过常态化互访交流、定期沟通联系、日常会商合作等方式，加强互联互通，凝聚团结协作共识，共同谋划退役军人事务工作，解决退役军人工作中的难题，推动沿海地区与红色老区退役军人高质量发展，形成泉州抚州一家亲的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>127</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>晋城市政协考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-06-05</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F6%2F5%2Fart_11_4183292.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4183292</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['6月2日至4日，山西省晋城市政协副主席王学琦率考察组来抚学习考察，深入了解我市政协提案办理、提案双向评议和监督性提案推动当地经济社会发展等工作情况。市政协副主席伍旭鸿、刘胜分别陪同。', '考察组一行先后赴临川区政协“书香政协·文润临川”品牌建设图书馆站点、东乡区政协经济界别和工商联界别“连心桥”建设点、崇仁县政协中医院中共党员委员工作站、宜黄县政协文史驿站及市政协文昌里中共党员委员工作站、抚州开放大学中共党员委员工作站等处，考察我市政协中共党员委员工作站、“一县一品牌”、“一委一特色”等工作，详细了解市政协“模拟政协提案”工作情况，对取得的成绩表示充分肯定，并深入交流提案工作经验。', '在抚考察期间，考察组还深入有关企业和文昌里历史文化街区考察，高度赞誉我市以“文化抚州、梦想之舟”为引领，加速推进经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>127</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>高世文率团赴赣州学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F4%2F2%2Fart_11_4159106.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4159106</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['3月30日至31日，市委副书记、市长高世文率团赴赣州市，学习考察文化产业、科技创新、化工园区建设等工作。赣州市委副书记、市长李克坚，市委常委、常务副市长胡剑飞，市委常委、副市长何琦分别陪同。', '考察团先后深入汉仙温泉项目、会昌戏剧小镇、和君教育小镇、七鲤古镇国际旅游度假区、赣州方特东方欲晓主题公园实地参观，观看了大型红色文旅史诗《长征第一渡》。高世文指出，抚州要学习借鉴赣州经验做法，用好历史文化资源，创作更多群众喜闻乐见的文艺作品，推动文旅产业高质量发展。', '走进重大疾病新药靶发现及新药创制全国重点实验室、江西驴充充充电技术有限公司，考察团一边参观，一边详细了解实验室和企业在运营过程中的先进经验做法。高世文强调，抚州要高度重视科技创新工作，大力推广“一链一院一基金”模式，强力推动各类产业研究院建设，依托高端科研平台引进优质企业、优秀人才，以科技招商赋能产业升级，推动产业链、创新链、人才链、政策链、资金链融合发展。要科学规划建设电瓶车集中充电桩，安全合理解决群众电瓶车充电问题。', '考察团还参观了江西氟盐新材料产业基地数字大脑、赣县稀金新材料产业园化工集中区智慧平台、赣州腾远钴业新材料股份有限公司。高世文强调，要认真学习借鉴赣州化工园区建设经验，更好统筹发展和安全、发展和环保，坚持问题导向，依托数智技术，强化数字化服务管理，促进产业数字化升级，科学高效安全推进化工园区建设管理。', '通过一天半的学习参观，考察团成员切身感受到赣州上下一心拼经济拼发展的拼劲、干劲和闯劲。高世文强调，抚州要深入学习贯彻习近平总书记考察江西重要讲话精神，学习借鉴好赣州的先进经验做法，奋力推动高质量发展。同时希望两市加强协同发展、联动发展，深化产业发展、文化旅游、科技创新等领域交流合作，携手谱写共赢发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>127</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>我委赴新余市考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2008-09-08</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2008%2F9%2F8%2Fart_3826_843935.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_843935</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['为学习借鉴新余市主攻工业的经验，促进我市工业经济发展，9月5日，在市政府副秘书长周国旺带领下，市经贸委班子成员和部分科室负责人到新余市经贸委考察学习。期间，重点考察学习了新余市决战工业从500亿到1500亿的战略决策部署和工作落实，重点突出工业实施项目带动的经验，高起点、高速度和高效率发展经济开发的经验，经贸委当好市政府参谋助手的经验以及不断加强自身建设的做法。考察学习组受到了热烈欢迎，得到了毫无保留的经验介绍，虽然时间只有一天，但效果很好，收获很大，大家表示要将新余经验创造性地运用到我市工作中。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>127</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>宝山区政协考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F5%2F25%2Fart_11_4180022.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4180022</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['5月22日至23日，上海市宝山区政协副主席沈天柱率考察组就“加强和改进提案工作，全面提升质效”“助力村级集体经济发展”等课题来抚学习考察。市政协副主席刘胜陪同。', '考察组一行先后深入临川区政协临汝书院中共党员委员工作站和金溪县竹桥、陆坊“‘心’事有约”政协委员协商议事厅，考察我市政协中共党员委员工作站、“一县一品牌”等工作，并深入交流政协工作特别是提案工作情况。随后，考察组还深入乐安县流坑古村，临川区江西态何源农业发展有限公司、江西村农现代科技有限公司等处，考察我市农村经济及农旅融合发展等工作。考察组对我市实施文化旺市战略及政协工作所取得的成绩给予高度评价，认为抚州各地充分发挥文化底蕴深厚、自然资源丰富的优势，积极推进优秀传统文化传承与创新，促进经济不断发展壮大，经验值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>127</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>泉州市人大调研组来抚学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F9%2F16%2Fart_11_4080656.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4080656</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['9月13日至15日，泉州市人大常委会副主任吴友才率调研组来抚学习考察，并出席抚州市人大常委会与泉州市人大常委会对口合作框架协议签约仪式。市人大常委会主任王宏安，副主任韦萍、赵荣贵及秘书长尧宇斌分别陪同或出席签约仪式。', '签约仪式上，韦萍对吴友才一行来抚表示欢迎。她指出，此次签约标志着双方携手加强和改进新时代地方人大工作，更好地发挥人大制度优势助力现代化建设的探索实践有了更坚实的基础、更明确的计划和更广阔的前景，必将为增强两地发展合力、增进人民福祉更好地贡献人大智慧和力量。抚州市人大将以此为契机，围绕合作框架协议重点任务，与泉州市人大建立常态化沟通联动机制，全方位、宽领域、多层次开展交流合作，共同推动人大事业创新发展。', '吴友才表示，此次签约是双方合作的新起点，将进一步加强双方学习交流借鉴、工作成果共享、区域协同协作。泉州市人大将以此为契机，为提升扩大两地经济社会发展空间和韧性，促进区域间要素合理流动，发挥两地比较优势，实现优势互补、合作发展，推动两地经济社会高质量发展提供人大路径、凝聚人大智慧、贡献人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>127</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>嘉兴市政协考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F8%2F31%2Fart_11_4074950.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4074950</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['考察组一行先后深入我市政协提案委、学习文史委、临川区政协中共党员委员工作站考察了我市政协中共党员委员工作站建设、“一委一特色”及“一县一品牌”等工作，对我市加大协商平台建设、打造“一委一特色”、推动“一县一品牌”创建等工作表示了充分肯定。特别是对市政协提案委员会以中共党员委员工作为依托，创新打造“模拟政协提案”工作，建立“五环节”“十步骤”工作闭环，形成可复制可推广工作经验，获评团中央“十大创新案例”，给予了高度赞誉，纷纷表示要结合本地实际予以学习借鉴推广。', '在抚期间，考察组还深入文昌里历史文化街区等地实地考察了我市唱响“文化抚州 梦想之舟”品牌、推动文化产业发展等工作情况。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>127</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>市人大常委会考察组赴泉州学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F6%2F22%2Fart_11_4003886.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4003886</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['6月19日至20日，市人大常委会副主任赵荣贵率考察组到泉州市，学习借鉴泉州市人大推进重大民生事项票决制，加强民主民意表达平台载体建设，深入践行全过程人民民主的先进经验做法。', '考察组一行先后深入晋江经验馆、梅岭街道民生项目人大代表票决制、梅青社区“党建+”邻里中心人大代表工作室、五店市传统街区、丰泽区全过程人民民主实践基地等实地考察。每到一处，考察组都认真听取相关工作情况介绍，详细了解重大民生事项票决制、人大代表工作室等工作情况，并就泉州市探索全过程人民民主的经验做法进行交流探讨。', '赵荣贵表示，此次学习考察开阔了视野、启发了思路，泉州人大许多经验做法值得抚州学习借鉴。希望以此次学习考察为起点，推进两地人大工作交流合作常态化，在交往交流中实现共同进步，推动两地人大各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>127</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>赣州市政协考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F6%2F9%2Fart_11_3999970.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3999970</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['6月7日至8日，赣州市政协副主席、民盟赣州市委会主委陈秀华率队来我市，就“充分发挥中医药产业联盟作用，做大做强中医药产业”开展调研。市政协副主席、民建市委会主委刘胜，市政协原副主席、民盟市委会主委章克敏分别陪同。', '陈秀华一行实地考察了江西百神昌诺药业有限公司、江西同善堂药业有限公司、建昌帮药业有限公司等地，详细了解我市中药材种植生产、产业聚集、文化传承、科技赋能等情况。陈秀华表示，希望两地今后密切沟通联系，加强合作交流，不断筑牢基层中医药服务阵地，抓好人才队伍建设，持续优化中医药诊疗服务，发挥中医药在维护和促进人民健康方面的独特作用，提升中医药服务能力，推动中医药产业链全面融合创新发展。', '刘胜表示，赣州市政协考察组的到来，是相互学习、共同借鉴、增进友谊的一次难得的交流机会，将以此次考察交流为契机，深化合作，优势互补，助推两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>127</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>许昌市政协考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F5%2F22%2Fart_11_3993922.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3993922</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['5月20日，河南省许昌市政协副主席刘瑞红率队来到我市，就“高质量建设城乡融合”和政协工作进行学习考察。市政协副主席谭小平陪同。', '调研组一行实地考察了江西村农现代科技有限公司、东临新区抚州大健康食品产业示范园和高教园区赣东职业技术学院，详细了解我市人口变化对经济社会发展影响、高质量建设城乡融合等方面的基本情况、经验做法。', '刘瑞红一行还实地考察了三翁花园、文昌里历史文化街区和市政协社法委青创空间中共党员委员工作站，认真了解市政协在打造中共党员委员工作站，创建“一委一特色”等方面的好经验好做法，对我市政协创新履职方式延伸履职触角、服务基层群众给予高度评价，并表示将深化考察成果的转化运用，推动政协工作迈上新台阶。', '谭小平对刘瑞红一行的到来表示欢迎，希望两地政协以此次工作交流为起点，进一步加强沟通联系、相互学习借鉴、增进友谊，促进各项工作提升。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>127</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>池州市政协调研组来抚学习考察</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F4%2F28%2Fart_11_3985661.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3985661</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['4月27日，安徽省池州市政协党组书记、主席张夏林，副主席刘会秋一行来抚学习考察竹产业发展情况和政协工作。市政协党组书记、主席贺喜灿，副主席王彬陪同。', '张夏林一行先后考察了资溪县中国（资溪）竹科技创新中心及竺尚（大庄）竹业有限公司、江西未家竹文化科技有限公司等企业，详细了解我市竹产业发展现状、企业生产经营情况，并对我市充分发挥竹资源优势，做强延伸竹产业链的做法表示赞赏。张夏林一行还实地考察了汤显祖纪念馆、文昌里历史文化街区和文昌里中共党员委员工作站，认真了解市政协在打造中共党员委员工作站，创建“一县一品牌”“一委一特色”等方面的好经验好做法，对我市政协创新履职方式延伸履职触角、服务基层群众给予高度评价，并表示将深化考察成果的转化运用，推动政协工作迈上新台阶。', '在陪同考察时，贺喜灿对池州市政协调研组一行的到来表示欢迎，希望双方以此次学习考察为契机，围绕政协履职、服务助推地方经济社会发展和加强政协自身建设等方面，进一步加强沟通交流，不断推动政协工作守正创新、提质增效、走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>127</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>苏州市人大来我市学习考察</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2018-05-14</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F5%2F14%2Fart_11_100073.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_100073</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['5月9日至11日，苏州市人大常委会副主任顾月华一行11人，来我市学习考察文化遗产和非遗保护传承及人大专题询问工作的经验和做法。市人大常委会副主任段院龙陪同考察。', '顾月华一行实地考察了市博物馆、城市展览馆、拟岘台、文昌里历史文化街区、汤显祖纪念馆、王安石纪念馆、名人雕塑园、三翁花园和金溪县竹桥古村等地，并与我市就人大有关工作进行了深入交流。', '顾月华表示，抚州近年来转型升级步伐加快，经济持续快速增长，城乡建设大力推进，生态文化保护成效显著，群众生活持续改善，各项工作有特色、有成效，许多做法和经验值得苏州学习借鉴。此次考察收获良多，不虚此行。', '段院龙指出，苏州和抚州历来交流密切，其中在戏曲方面更是有着深厚渊源，当年汤显祖的《牡丹亭》就曾以苏州昆山昆曲的形式进行表演传唱，是昆曲的著名曲目之一，昆曲也为此得到更为广泛的流传。希望今后两市以戏曲为媒，进一步加强经济文化等多领域的交流与合作，不断推进两市各项工作快速健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>127</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>关于赴浙江学习考察旅游工作的通知</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2017-12-19</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F12%2F19%2Fart_7_558126.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_7_558126</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['各县（区）人民政府、市直有关单位： 为贯彻落实市第四次党代会、市四届人大会和全市旅游产业发展大会精神，借鉴外地发展乡村旅游、民宿旅游、全域旅游等成功经验，经市政府主要领导同意，我委将于近期组织各县（区）及市直有关单位相关人员赴浙江学习考察，现将有关事项通知如下： 一、考察时间：2017年2月15－19日。 二、考察地点：浙江省杭州、宁波、嘉兴、湖州市等地。 三、主要内容 （一）宁波南塘老街：考察城市历史文化街区规划建设和运营管理。 （二）嘉兴乌镇：考察古镇及精品民宿建设和运营。 （三）湖州莫干山：考察裸心谷等精品乡村旅游项目。 （四）桐庐金牛寨、荻浦村、泸茨村：考察特色乡村旅游运营项目。 （五）桐庐全域旅游服务中心：考察全域旅游服务方案设计及运行情况。 （六）杭州法云安缦度假酒店：考察禅宗主题度假酒店规划设计。 （七）举行一场浙江乡村旅游发展经验座谈会。 （八）举行一至二场浙江客商、旅行社负责人座谈会。 四、参加人员 （一）市人大分管旅游领导及工委负责同志，市政府分管副秘书长。 （二）市旅发委、市委农工部、市扶贫移民局、市文广新局、市财政局、市规划局、市文旅投公司等单位负责人。 （三）各县（区）分管领导及旅发委负责人。 （四）文昌里管委会、临川温泉景区管委会、乐安流坑景区管委会、南丰桔文化集聚区管委会等景区负责人。 五、其它事项：往返交通及住宿费由派员单位负责，其它费用由市旅发委承担。请各县（区）及市直有关单位于 2月10日下班前将考察人员名单报至市旅发委邮箱：jxfzlyj8212568@163.com。联系人：张芹琴，联系方式：8212568。', '为贯彻落实市第四次党代会、市四届人大会和全市旅游产业发展大会精神，借鉴外地发展乡村旅游、民宿旅游、全域旅游等成功经验，经市政府主要领导同意，我委将于近期组织各县（区）及市直有关单位相关人员赴浙江学习考察，现将有关事项通知如下：', '（二）市旅发委、市委农工部、市扶贫移民局、市文广新局、市财政局、市规划局、市文旅投公司等单位负责人。', '（四）文昌里管委会、临川温泉景区管委会、乐安流坑景区管委会、南丰桔文化集聚区管委会等景区负责人。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>127</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>关于赴浙江学习考察旅游工作的通知</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2017-12-25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F12%2F25%2Fart_3826_880294.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_880294</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为贯彻落实市第四次党代会、市四届人大会和全市旅游产业发展大会精神，借鉴外地发展乡村旅游、民宿旅游、全域旅游等成功经验，经市政府主要领导同意，我委将于近期组织各县（区）及市直有关单位相关人员赴浙江学习考察，现将有关事项通知如下：', '（二）市旅发委、市委农工部、市扶贫移民局、市文广新局、市财政局、市规划局、市文旅投公司等单位负责人。', '（四）文昌里管委会、临川温泉景区管委会、乐安流坑景区管委会、南丰桔文化集聚区管委会等景区负责人。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>127</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>抚州市园林绿化局赴南昌考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2017-05-18</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F5%2F18%2Fart_3826_3788645.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3788645</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['2017年5月10日，在局长胡会华同志的带领下，市局班子成员、各科室、中心负责人一行17人赴南昌市园林绿化局考察学习。', '考察团抵达南昌后，参观了在建的九龙湖绿化改造工程及象湖湿地公园，对其使用的海绵城市建造理念和技术实地体验学习；随后在象湖风景区管理处二楼会议室与南昌市园林绿化局局长徐静等领导就城市园林规划、建设、施工、养护等方面进行座谈；首先南昌市园林局领导做了精彩发言，考察团对发言中将城市绿化区域分为严控区（城市主要道路）、控制区（一般道路）、一般区（城市周边区域）并采用分级养护、考核标准；对社区进行编号管理，不打招呼随机抽查；严控养护标准；精品样板公园打造，树立标杆等方面表示赞同；同时听取了南昌市在绿化养护外包，向社会购买服务等方面的成功经验；詹副局长关于城市绿化“树有高度、林有厚度、绿有浓度”、“一路一品，一园一景”、“绿化节点各有风格，特点鲜明”等精彩发言赢得考察团成员的阵阵掌声。', '考察团抵达南昌后，参观了在建的九龙湖绿化改造工程及象湖湿地公园，对其使用的海绵城市建造理念和技术实地体验学习；随后在象湖风景区管理处二楼会议室与南昌市园林绿化局局长徐静等领导就城市园林规划、建设、施工、养护等方面进行座谈；首先南昌市园林局领导做了精彩发言，考察团对发言中将城市绿化区域分为严控区（城市主要道路）、控制区（一般道路）、一般区（城市周边区域）并采用分级养护、考核标准；对社区进行编号管理，不打招呼随机抽查；严控养护标准；精品样板公园打造，树立标杆等方面表示赞同；同时听取了南昌市在绿化养护外包，向社会购买服务等方面的成功经验；詹副局长关于城市绿化', '发言结束后，两地园林局各科室根据自身职责划分，捉对组成讨论小组，从城市绿化管理、公园管理、特色节点打造、劳动纪律、城市绿化近期规划、中长期计划以及绿化工程项目中的一些困惑、所面临的困境和未来突破困境的方向等方面进行了热烈的经验交流。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>127</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>鹰潭仲裁委员会来我市考察交流学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2018-01-12</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F1%2F12%2Fart_3826_843229.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_843229</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['1月10日上午，鹰潭市司法局副局长、鹰潭仲裁委员会秘书长吴泉友一行到我市交流学习。抚州市司法局副调研员、抚州仲裁委员会秘书长王敏妍', '详细。她认为抚州仲裁委现在才刚刚起步，但是趋势良好，前景光明。听完介绍后，双方就仲裁宣传推行、仲裁业务的拓展、机构建设、案件程序管理等方面进行了深入的交流。', '表示此次来抚州仲裁委学习交流仲裁工作，学到了兄弟仲裁委的工作亮点和成功经验，开拓了视野、收益颇丰。此次考察交流活动，为鹰潭仲裁和抚州仲裁的交流提供了一个良好的平台，希望今后两单位能够建立长期的合作交流机制，实现优势互补，共同促进仲裁事业发展。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>127</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>抚州市司法局领导赴奉新县学习考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2014-04-16</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F4%2F16%2Fart_3826_851663.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_851663</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['4月14日，抚州市司法局党组书记、局长蔡菁带队，赴奉新县学习考察该县推行法律顾问制度的先进经验。在奉新县，宜春市司法局党组书记、局长彭坤明首先简要介绍了宜春市目前推行法律顾问制度的情况；接着，奉新县司法局局长金元生详细介绍了该县推行法律顾问制度情况，重点谈了法律顾问人员充实、规范管理的做法。之后，到赤田镇参观了该镇法律顾问工作室，听取他们开展法律顾问工作的情况介绍，并进行交流。蔡菁局长表示，这次来到奉新县学习考察确实不虚此行，通过经验介绍、实地考察，感到奉新县推行法律顾问制度的做法有创意、有亮点、有实效，深受启发，值得我们学习借鉴。', '市司法局党组成员、调研员吴明辉，市司法局律师工作科科长郑大远，黎川县司法局局长苏福根等人参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>127</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>我市组织人员到浙江衢州学习考察</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2016-12-06</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2016%2F12%2F6%2Fart_3826_846070.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_846070</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['12月1-2日，为学习浙江衢州在“五水共治”及河流生态综合治理工作的好经验、好做法，抚州市委副书记于秀明同志率领“河长制”有关责任单位的领导到衢州市进行学习考察，市人大常委会副主任谢祖鹏、副市长徐国义一同参加学习考察。', '学习考察组一行先后参观了衢州市省级海绵城市示范工程（柯城区鹿鸣公园）、柯城区庙源溪、石梁溪生态河道治理现场，并与衢州市相关领导和单位进行了座谈。', '非常值得抚州学习借鉴，并要求参加学习考察的单位，要结合我市生态文明建设和“河长制”工作实际，认真借鉴']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>127</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>市人大考察组赴九江学习考察</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2012-10-13</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F10%2F13%2Fart_11_90648.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_90648</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['10月11日至12日，市人大常委会主任王晓媛率市人大常委会考察组一行赶赴九江，学习考察该市经济社会发展情况和人大工作经验。省政协副主席、九江市委书记钟利贵会见了考察组一行。市人大常委会副主任陈克、江玉兰、余建平参加考察。九江市人大常委会主任华金国，九江市人大常委会副主任祝先进、柳国发及秘书长张延芳陪同考察。', '钟利贵对我市人大常委会考察组前来学习考察表示热烈欢迎，并介绍了九江市近年来经济社会发展情况。钟利贵说，近年来，九江市以“两区互动、强工兴城，科学发展、奋起赶超”为工作重点，坚定不移推进工业化、城镇化，狠抓项目建设，保障和改善民生，经济社会呈现出良好的发展势头。九江市人大常委会始终围绕中心、服务大局、关注民生，依法认真行使职权，为九江赶超发展做出了积极贡献。他希望考察组成员有空多来九江走走，为九江的发展多提宝贵意见和建议。', '王晓媛表示，这次来九江学习考察，看到九江经济快速发展和发生的巨大变化，倍感振奋；对九江市人大常委会围绕中心、服务大局，推动人大工作创新发展的先进经验和好的做法，深受启发，收获颇丰。市人大常委会将充分学习借鉴九江市人大常委会依法履行职责的成功经验，坚定不移地维护核心，把握正确方向；不遗余力地服务中心，助推“三大战役”；一如既往地突出重心，履行法定职责；持之以恒地关注民心，抓好代表工作，为建设殷实文明和谐的幸福抚州做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>127</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市教育局赴南昌市学习考察</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2012-02-16</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F2%2F16%2Fart_13_110262.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_110262</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['2月14日，市教育局局长李晶，党委书记顾胜和，副局长、副书记吴开珍带领临川教育集团三所学校的校长和有关科室负责人等十一人，到南昌市学习考察推进义务教育均衡发展、解决“择校热”难题和深化教育人事改革三方面工作的好经验、好做法。 魏国华介绍经验 上午，考察团来到南昌市教育局听取经验介绍。南昌市教育局局长魏国华、副局长邵梅珍等人在介绍经验时谈到，随着城市化进程的加快，义务教育城乡不均衡、新旧城区不均衡、校间不均衡的问题日益突出。在新形势下如何推进义务教育均衡发展，促进和保障教育公平，南昌市主要是着力做好以下三个方面的工作：一是合理调整现有学校网点布局，做到人人可以按学区就近入学；二是科学规划新城区建设，在居民密集的大型楼盘附近预留教育用地；三是以优质学校为核心，通过集团办学、联合办学，或者办分校等形式不断扩大优质教育资源覆盖面，缩小校间差距。面对“择校热”难题，南昌市采取疏堵相济的办法逐步解决：一方面不断扩大优质教育资源覆盖面，让学生安心就近入学；另一方面按照教育规律，严格控制优质学校的招生规模和班额，禁止班额过大。这些好经验、好做法，考察团一行纷纷表示赞同。 参观师大附中校园 参观师大附中教室 下午，考察团在邵梅珍的陪同下，先后来到师大附中和南昌二中2所义务教育阶段学校，参观了校史陈列馆、教学楼、学生宿舍、校园书屋等。 参观南昌二中校园沙盘 参观南昌二中教学楼 参观新华书店设在南昌二中校内的书屋 随从考察的有抚州一中校长罗习奇、临川二中校长华小明、临川一中副校长徐武平和市教育局办公室主任钱平、人事科科长刘彩娃、基教科科长盛东泉、中招办副主任王莉等。', '2月14日，市教育局局长李晶，党委书记顾胜和，副局长、副书记吴开珍带领临川教育集团三所学校的校长和有关科室负责人等十一人，到南昌市学习考察推进义务教育均衡发展、解决“择校热”难题和深化教育人事改革三方面工作的好经验、好做法。', '上午，考察团来到南昌市教育局听取经验介绍。南昌市教育局局长魏国华、副局长邵梅珍等人在介绍经验时谈到，随着城市化进程的加快，义务教育城乡不均衡、新旧城区不均衡、校间不均衡的问题日益突出。在新形势下如何推进义务教育均衡发展，促进和保障教育公平，南昌市主要是着力做好以下三个方面的工作：一是合理调整现有学校网点布局，做到人人可以按学区就近入学；二是科学规划新城区建设，在居民密集的大型楼盘附近预留教育用地；三是以优质学校为核心，通过集团办学、联合办学，或者办分校等形式不断扩大优质教育资源覆盖面，缩小校间差距。面对“择校热”难题，南昌市采取疏堵相济的办法逐步解决：一方面不断扩大优质教育资源覆盖面，让学生安心就近入学；另一方面按照教育规律，严格控制优质学校的招生规模和班额，禁止班额过大。这些好经验、好做法，考察团一行纷纷表示赞同。', '上午，考察团来到南昌市教育局听取经验介绍。南昌市教育局局长魏国华、副局长邵梅珍等人在介绍经验时谈到，随着城市化进程的加快，义务教育城乡不均衡、新旧城区不均衡、校间不均衡的问题日益突出。在新形势下如何推进义务教育均衡发展，促进和保障教育公平，南昌市主要是着力做好以下三个方面的工作：', '以优质学校为核心，通过集团办学、联合办学，或者办分校等形式不断扩大优质教育资源覆盖面，缩小校间差距。面对“择校热”难题，南昌市采取疏堵相济的办法逐步解决：', '按照教育规律，严格控制优质学校的招生规模和班额，禁止班额过大。这些好经验、好做法，考察团一行纷纷表示赞同。', '下午，考察团在邵梅珍的陪同下，先后来到师大附中和南昌二中2所义务教育阶段学校，参观了校史陈列馆、教学楼、学生宿舍、校园书屋等。', '随从考察的有抚州一中校长罗习奇、临川二中校长华小明、临川一中副校长徐武平和市教育局办公室主任钱平、人事科科长刘彩娃、基教科科长盛东泉、中招办副主任王莉等。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>127</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>抚州市公证考察团赴云南省学习考察</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2011-06-07</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2011%2F6%2F7%2Fart_3826_847732.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_847732</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['5月28日，抚州市公证协会组织全市各公证处主任，由市公证协会秘书长王敏妍带队，一行十三人赴云南省建立最早、规模最大并多次被评为全国文明公证处和省级文明公证处的云南省昆明市明信公证处进行考察学习。 考察团成员在明信公证处杨科长的带领下参观了其各个科室、办证大厅、历年典型公证案件展示墙、公证员荣誉墙等。宽敞的楼房大厅、先进的基础设施、精美的指示图片、丰富的文化场景、规范的办证流程、繁忙的工作场面均给考察团成员留下了深刻的印象。在随后的座谈会上，王海宁副主任介绍了明信公证处的基本情况及业务开展情况，该处以专业化、功能化、便民化的思路积极探索新经济形势下的发展模式，在云南省率先引入了质量保证体系管理模式，通过了ISO9000质量管理体系认证，并开辟了二手房交易公证、代办产权证件、代办抵押贷款、抵押登记、代为保管各种证件等各种特色业务。最后，考察团成员互相就此次学习的收获、感想及下一步工作打算进行了座谈讨论。 这次考察学习时间虽短，但收获很大，通过实地考察，座谈交流，开阔了眼界，增长了知识。昆明市明信公证处理念之新、发展之快也使考察团成员感受到了强烈的震撼与启发，大家表示要积极借鉴其先进的管理模式和执业理念，以达到取人之长，补己之短的目的，为公证处今后的发展探索出新的途径。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>127</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>我市组团赴宜春学习考察造林绿化</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2010-08-25</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2010%2F8%2F25%2Fart_11_106481.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_106481</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['8月23日上午，我市组织各县（区）分管副县长、林业局长前往宜春市奉新县、靖安县学习考察造林绿化“一大四小”工程建设工作。晚上，在市林业局召开座谈会，市委常委、农工部长熊云鹏，副市长黄赛荣出席并讲话。市长助理赵元泰参加学习考察。 考察团重点考察了奉新县和靖安县的通道绿化苗林一体化以及林木管护等工作。考察期间，考察团成员认真听取了当地林业部门的情况介绍，参观了奉新县百瑞苗木基地、罗市花卉苗木基地以及靖安县多个乡镇的公路绿化工程，详细了解了当地造林绿化工作的组织形式、工作机制、投入渠道、经营管护等方面的情况。 座谈会上，考察团成员纷纷表示，此次赴奉新县和靖安县学习考察，增长了见识，开阔了视野，坚定了信心，理清了思路，要认真学习奉新县和靖安县造林绿化“一大四小”的苗林一体化、林木管护等方面的经验。 会议强调，“一大四小”管护工作已经进入非常重要时期，各县（区）一定要认真抓好该项工作，把切实林木管护作为当前一项重要工作来抓，特别是做好施肥、杀虫、拔死树、浇水、刷白、除杂草等各项工作，迎接省里9月份的检查。要提前谋划好今冬明春的造林绿化工作，科学配置树种，做到适地适树，密度、色彩合理搭配。要统筹安排好农口的多项主要工作，认认真真、扎扎实实搞好造林绿化“一大四小”工程建设。 （记者 邓美容）', '考察团重点考察了奉新县和靖安县的通道绿化苗林一体化以及林木管护等工作。考察期间，考察团成员认真听取了当地林业部门的情况介绍，参观了奉新县百瑞苗木基地、罗市花卉苗木基地以及靖安县多个乡镇的公路绿化工程，详细了解了当地造林绿化工作的组织形式、工作机制、投入渠道、经营管护等方面的情况。', '座谈会上，考察团成员纷纷表示，此次赴奉新县和靖安县学习考察，增长了见识，开阔了视野，坚定了信心，理清了思路，要认真学习奉新县和靖安县造林绿化“一大四小”的苗林一体化、林木管护等方面的经验。', '会议强调，“一大四小”管护工作已经进入非常重要时期，各县（区）一定要认真抓好该项工作，把切实林木管护作为当前一项重要工作来抓，特别是做好施肥、杀虫、拔死树、浇水、刷白、除杂草等各项工作，迎接省里9月份的检查。要提前谋划好今冬明春的造林绿化工作，科学配置树种，做到适地适树，密度、色彩合理搭配。要统筹安排好农口的多项主要工作，认认真真、扎扎实实搞好造林绿化“一大四小”工程建设。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>127</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>我市公证考察组赴山东青岛学习考察</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2010-06-03</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2010%2F6%2F3%2Fart_3826_851234.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_851234</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['为开拓视野、创新理念，更好地与沿海发达地区公证处进行交流与学习，全面提高我市公证队伍业务水平， 5月15日至5月21日，市公证协会组织全市各县（区）公证处主任，由市司法局副局长吴明辉、公证工作科科长王敏妍带队，一行十四人赴山东省青岛市对获得“全国法律服务行业文明窗口”和“部级文明公证处”等多项荣誉的青岛市市中公证处进行了学习考察。 考察交流采取了以下四种形式：一是相互介绍各市公证处情况；二是公证员之间互动交流；三是现场查看案卷；四是现场观摩办证流程。 此次学习考察之行，不仅使考察组成员全面了解了青岛市市中公证处定位高、发展快、效益显的公证工作情况，而且学习了该处与时俱进、大胆创新为当地经济社会发展服务的新理念、新举措。考察组成员一行通过现场看、听、问、学，都认为开了眼界、长了见识、不虚此行，对今后做好公证工作大有帮助。青岛市市中公证处紧密结合沿海的实际，创造性地开展各项工作，给我市公证工作一个明确的启示：要贴近实际情况，适应市场需求，公证工作才会有旺盛的生命力，才能更好的做到可持续发展。', '市公证协会组织全市各县（区）公证处主任，由市司法局副局长吴明辉、公证工作科科长王敏妍带队，一行十四人赴山东省青岛市对获得“全国法律服务行业文明窗口”和“部级文明公证处”等多项荣誉的青岛市市中公证处进行了学习考察。', '考察交流采取了以下四种形式：一是相互介绍各市公证处情况；二是公证员之间互动交流；三是现场查看案卷；四是现场观摩办证流程。', '此次学习考察之行，不仅使考察组成员全面了解了青岛市市中公证处定位高、发展快、效益显的公证工作情况，而且学习了该处与时俱进、大胆创新为当地经济社会发展服务的新理念、新举措。考察组成员一行通过现场看、听、问、学，都认为开了眼界、长了见识、不虚此行，对今后做好公证工作大有帮助。青岛市市中公证处紧密结合沿海的实际，创造性地开展各项工作，给我市公证工作一个明确的启示：要贴近实际情况，适应市场需求，公证工作才会有旺盛的生命力，才能更好的做到可持续发展。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>127</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>青岛市人大常委会考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F7%2F11%2Fart_11_4195067.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4195067</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['7月8日至9日，山东省青岛市人大常委会副主任韩守信率考察组一行来我市学习考察文旅融合与旅游秩序工作。市人大常委会副主任赵立陪同。', '考察组一行先后深入文昌里历史文化街区、乐安县金竹瀑布景区和流坑古村等地，详细了解我市旅游品牌打造、景区运行、旅游夜经济发展、文旅深度融合等情况。', '考察组对我市文旅融合与旅游秩序工作给予了充分肯定，对我市在推动旅游业高质量发展等方面工作给予高度评价。考察组表示，抚州素有“才子之乡、文化之邦”的美誉，文化底蕴深厚，绿色资源丰富。近年来，抚州充分发挥红色、古色、绿色“三色”资源优势，积极构建具有抚州特色和竞争力的旅游产品体系，大力唱响“文化抚州、梦想之舟”品牌，值得学习借鉴。希望今后两地进一步加强交流合作，共同推动双方文旅产业发展，为经济社会高质量发展“添砖加瓦”。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>127</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>高世文率市政府代表团赴鹰潭学习考察</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-07-13</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F7%2F13%2Fart_11_4195936.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4195936</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['7月11日至12日，市委副书记、市长高世文率市政府代表团赴鹰潭市学习考察，学习借鉴鹰潭在工业发展、招商引资、项目建设、数字化转型等领域的先进经验做法，进一步解放思想、开拓进取，扬长补短、固本兴新，全力加快抚州经济社会高质量发展。', '鹰潭市委副书记、市长张子建，市领导黄金龙、李小平、陈敏，鹰潭高新区管委会主任肖霖陪同。副市长汪华辉参加学习考察活动。', '在鹰期间，代表团一行先后深入余江区、鹰潭高新区、贵溪市等地，实地考察耐乐铜业、江铜华东电工新材料科技、鑫铂瑞科技、康成特导新材、沃德尔科技、力博控股等企业。每到一处，代表团都详细了解企业生产规模、技术创新等情况，认真学习鹰潭在推进新型工业化、产业创新、培育新质生产力等方面的经验做法。', '高世文表示，近年来，鹰潭锚定高质量发展首要任务，聚焦重点、抓住关键，坚定不移推进新型工业化，经济社会发展取得明显成效，值得学习借鉴。抚州与鹰潭地缘相近、人缘相亲，有着许多共同之处，又各有优势、各具特色，产业发展互补性强。我们将以此次考察为契机，进一步深化两地交流合作、互通有无，充分发挥各自在产业基础、区位条件、资源禀赋等方面的优势和特色，不断创新合作机制、提升合作层次、拓展合作空间，携手谱写两地高质量发展新篇章。', '张子建表示，鹰潭与抚州交往密切、感情深厚，两地具有良好的合作基础和广阔的合作前景。近年来，抚州坚持以经济建设为中心，围绕唱响“一大品牌”、实施“六大战略”、推进“三大建设”，积极构建体现抚州特色和优势的现代化产业体系，全市经济社会发展取得新成效。希望两地进一步深化战略协同，抢抓战略机遇，围绕发展新质生产力、打造国家级先进铜功能材料及高端应用集群等方面加强交流协作，推动两地合作向更宽范围、更广领域、更高层次迈进，续写更多两地合作佳话。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>127</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>抚州市科技局组织防震减灾考察学习</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2009-04-07</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2009%2F4%2F7%2Fart_3826_877910.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_877910</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['3月11日-14日，抚州市科技局邹郁纪检组长率市地震办、广昌县科技局等单位负责地震工作的同志赴赣州、瑞金、会昌、寻乌等县（市）考察学习防震减灾工作。 考察期间，我市地震工作考察组一行与瑞金、会昌、寻乌地震部门进行座谈交流，听取了他们关于农村民居保安，地震科普宣传，“三网一员”建设和管理，防震减灾法制建设以及地震执法等方面的经验介绍。通过这次考察学习，考察组普遍感觉，开阔了眼界，拓宽了工作思路。市地震办、广昌县科技局决定今年在广昌我市率先开展农村民居保安工程的工作。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>127</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市领导率团赴南昌学习考察绿化工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2010-01-13</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2010%2F1%2F13%2Fart_11_101614.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_101614</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['昨日下午，市委常委熊云鹏，副市长陈日武、黄赛荣率领建设、房管、规划、园林绿化、林业等市直有关部门负责人及各县（区）分管城建、林业的副县（区）长，赴南昌学习考察城市园林绿化、“一大四小”通道绿化工作。南昌市副市长刘建洋出席座谈会。', '在南昌，学习考察团一行先后参观考察了红谷滩新区绿化建设工程、昌樟高速绿化改造工程、昌南大道绿化景观提升改造工程、高新大道三期绿化工程、京东大道绿化景观工程，详细了解了该市造林绿化“一大四小”工程建设的组织领导、运作模式、投入机制等情况。近年来，南昌市深入学习实践科学发展观，提出“森林城乡、花园南昌”的口号，扎实推进点、线、面、体结合的城乡森林绿化工程，取得了明显成效。', '在随后召开的座谈会上，刘建洋对学习考察团的到来表示热烈欢迎，并介绍了南昌市城市园林绿化、“一大四小”通道绿化情况。熊云鹏说，此次学习考察时间虽短，但受益匪浅，大家要把好的经验和做法带回去，结合自身实际制订切实可行的工作方案，狠抓落实，全面推进我市造林绿化“一大四小”工程建设。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>127</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>南平市人大常委会考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F6%2F7%2Fart_11_4184226.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4184226</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['6月5日，福建省南平市人大常委会副主任陈超率考察组一行，深入我市资溪县学习考察竹产业发展经验。市人大常委会副主任温勤陪同。', '考察组一行先后来到资溪县“两山”转换中心、江西双枪竹木有限公司、江西竺尚竹业有限公司、江西未家竹文化科技有限公司、竹科技博物馆、灵芝小镇等处，通过实地察看、听取介绍、与企业负责人交流等方式，详细了解竹产业发展现状、产业链延伸、科技创新、品牌建设等情况。', '考察组表示，抚州市在加强生态保护修复的基础上积极探索，扎实推进国家生态产品价值实现机制试点工作，合理规划、科学开发竹资源，提升竹资源的利用效率和附加值，真正把绿水青山转化为实实在在的金山银山，打造了可复制、可借鉴、可推广的“抚州样板”。今后将加强交流、密切合作，共同探索竹产业发展的新模式、新途径，推动竹产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>127</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>海口市人大常委会考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024-05-01</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F5%2F1%2Fart_11_4170558.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4170558</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['4月28日至30日，海口市人大常委会副主任揭晓强率考察组来抚学习考察。市人大常委会领导宋东方陪同。', '考察组一行先后深入抚州市人大代表12345民声通道、市中心城区、金溪县等地，实地考察人大代表12345民声通道运行、民生实事项目人大代表票决制、人大代表联络工作站及“人大代表联络工作站（室）+‘时光益站’”的建设和运行情况，听取相关部门的情况介绍，并就有关经验和做法进行了交流。', '考察组对我市人大特色工作取得的成绩给予充分肯定，表示充分感受到抚州经济社会发展的巨大变化，赞赏抚州人大在代表工作和监督工作中的创新举措。希望两地继续强化沟通交流，共同做好新时代地方人大工作。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>127</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>扬州市人大常委会考察组来抚学习考察</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F5%2F11%2Fart_11_4175299.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4175299</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['5月8日至10日，扬州市人大常委会副主任蒋爱祥率考察组来抚学习考察历史文化名镇、名村保护利用情况。市人大常委会主任王宏安、副主任赵立先后陪同。', '考察组一行先后深入汤显祖纪念馆、王安石纪念馆、文昌里历史文化街区、抚州玉隆万寿宫，以及乐安县金竹畲族乡吓通村、湖坪乡湖坪村和流坑古村等地学习考察。考察组一行边走边看，不时驻足交流，并就历史文化名镇、名村保护利用有关经验和做法进行了探讨交流。', '考察组对我市挖掘名镇、名村历史和人文内涵，将历史文化名镇、名村保护利用工作融入经济社会发展、生态文明建设和人居环境改善中所取得的成绩给予充分肯定，一致认为通过此次学习考察，充分感受到了抚州经济社会的高质量发展。希望两地继续强化沟通交流、互学互进，为推动两地经济社会高质量发展提供人大路径、凝聚人大智慧、贡献人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>127</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>魏晓奎率我市党政代表团赴宜春学习考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-11-18</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F18%2Fart_11_4104725.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4104725</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['11月16日至17日，为深入学习贯彻习近平总书记考察江西重要讲话精神，认真落实省委书记尹弘在抚州考察调研时的讲话精神，市委书记魏晓奎率我市党政代表团赴宜春市学习考察，学习借鉴宜春在县域经济发展方面的先进经验做法，进一步解放思想、开拓进取，扬长补短、固本兴新，全力加快抚州高质量发展，奋力谱写中国式现代化抚州篇章。', '宜春市委书记严允，市委副书记、市长谭赣明，市委常委、市委组织部部长徐云涌，市人大常委会副主任、市委秘书长吴依群，宜春经开区党工委书记解鸳，宜春经开区党工委副书记、管委会主任何敏，市政府秘书长徐勇军陪同考察。市领导王宏安、漆海云、彭银贵、吴宜文、薛强、汪华辉和市直有关单位、有关县（区）主要负责人参加考察。', '考察团一行先后深入宜春市樟树市、经开区、高安市，考察了江西晶昊盐化有限公司、仁和（集团）发展有限公司、仁和经典名方、宜春时代新能源科技有限公司、江西金辉锂业有限公司（二期）、高安数字物流产业园大数据中心、江西通瑞新能源科技发展有限公司等企业。进车间、看现场、听介绍……每到一处，考察团都详细了解企业生产规模、技术创新、市场销售等情况，对宜春在招大引强、项目建设、科技创新等方面取得的突出成绩表示赞赏。大家深刻感受到宜春产业发展的加速度和干事创业的大手笔，纷纷表示要把宜春产业发展的先进理念和成功经验学习好、借鉴好、运用好，全力推动我市经济社会各项事业再上新台阶。', '家深刻感受到宜春产业发展的加速度和干事创业的大手笔，纷纷表示要把宜春产业发展的先进理念和成功经验学习好、借鉴好、运用好，全力推动我市经济社会各项事业再上新台阶。', '中医药产业是宜春市的传统优势产业和战略性新兴产业，正朝着打造中医药振兴发展宜春样板和具有全国影响力的产业集群加速迈进。走进仁和（集团）发展有限公司、仁和经典名方，考察团一行认真学习了解宜春在弘扬中医药文化、发展中医药产业、做强做优品牌等方面的好经验好做法，表示抚州中医药文化底蕴深厚、源远流长，通过此次学习考察开阔了眼界、提升了认识，收获颇丰，进一步坚定了发展中医药产业的信心和决心。', '不仅是占地1800亩、拥有全球最先进的自动化智能化生产线、实现全产业链生产的宜春时代新能源科技有限公司，还是集矿山开采、选矿、冶炼、生产、尾渣综合利用、研发为一体的江西金辉锂业有限公司，都令考察团一行赞不绝口。大家纷纷表示，宜春积极抢抓产业“风口期”，举全市之力打造锂电新能源首位产业，着力招大引强、扶优扶强，推动宜春迅速成为全球行业头部企业集聚地，尤其是宜春坚持科学合理的资源配置、规划布局，在培育创新主体、集聚创新要素、优化创新环境及加快推动项目落地投产等方面的好经验、好做法，对我市发展新能源新材料产业具有很大的借鉴意义。', '考察期间，考察团一行马不停蹄、争分夺秒，一路看、一路议、一路思、一路悟，问做法、比不足，在学习中寻找发展的答案，在考察中探讨发展的路径。大家纷纷表示，通过学习考察感到了压力、开阔了视野、解放了思想、增强了责任，回去后一定认真总结、学习借鉴宜春的好做法好经验，真正把学习考察的成果转化为推动工作的具体举措，全力推动抚州高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>127</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>山东省东营市人大调研组来抚学习考察</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-06-17</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F6%2F17%2Fart_11_4002457.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4002457</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['6月15日至16日，山东省东营市人大常委会副主任、秘书长郭顺先率调研组来抚，学习考察生态产品价值转换工作。市人大常委会党组副书记、副主任韦萍及秘书长尧宇斌分别陪同。', '郭顺先一行先后深入资溪面包食品产业城、资溪县“两山”转化中心、大觉溪等地，通过实地查看、听取讲解等方式，详细了解资溪县生态产品价值转换工作情况。', '郭顺先对资溪县在生态产品价值转换工作中取得的成绩给予了高度赞扬。他指出，深入贯彻落实习近平生态文明思想，建立国家生态产品价值实现机制，是践行“绿水青山就是金山银山”理念的关键路径。抚州市树牢“两山”理念，在保护修复基础上，因地制宜稳步开展推进工作，在难点问题上进行重点突破，把绿水青山转化为实实在在的金山银山，打造了可复制、可借鉴、可推广的“抚州样板”，值得学习借鉴。调研组表示将加强交流、互相学习、密切合作，深化考察结果的转化运用，以抚州的良好经验促进东营相关工作取得新突破。', '在抚期间，郭顺先一行还赴市城市展示馆、汤显祖纪念馆等地实地调研，了解我市城市规划建设情况和历史文化保护发展情况。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>127</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>书记市长率我市党政代表团在泉州学习考察</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F6%2F7%2Fart_11_3999304.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_22122_3999305</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['赣水苍茫闽山碧，山海携手向未来。6月6日，市委书记魏晓奎，市委副书记、市长高世文率我市党政代表团，来到福建省泉州市学习考察，开启泉抚对口合作新征程，携手谱写共赢发展新篇章。市领导谭赣明、彭银贵、薛强、汪华辉和省发改委苏区处有关领导、市政府秘书长李慷参加。', '一路看一路学一路思，魏晓奎、高世文一行入企业、进展馆、看平台，深入学习泉州成功经验，扎实推动两地合作走深走实。', '近年来，泉州大力推进智能化改造、数字化转型，不断巩固传统优势产业领先地位，创造新的竞争优势，全社会形成了推进“智能制造”的浓厚氛围。福建省铁拓机械股份有限公司，大力推进生产线智能装备网络化、数字化改造，持续推动传统优势产业转型升级。魏晓奎、高世文一行详细了解企业生产经营、产业布局、产品研发、技术创新等情况，认为铁拓机械坚持以科技创新为动力，全面提升企业核心竞争力，为传统产业转型升级作出了良好的示范。', '泉州天娇妇幼卫生用品有限公司，是一家集研发、生产和销售为一体的妇幼卫生用品的大型制造企业，积极探索智能化转型之路，打造了卫生用品行业首个5G全连接标杆工厂。一条生产线可以提升多少产能、节省多少用工？魏晓奎、高世文一行一路看得格外仔细，问得特别具体，还不时与企业负责人现场交流、探讨。大家认为，数字化、智能化改造不仅可以增加产能，还能降低生产成本，更能增强企业竞争力。要充分吸收泉州的经验和做法，大力推动我市工业经济高质量发展。', '信和新材料股份有限公司坚定走高端化、绿色化、专精特新的创新之路，致力打造领先的民族工业涂料品牌。魏晓奎、高世文一行听企业介绍、看产品展示，认真了解信和在核电涂料、石墨烯系列产品等新兴产业领域的发展情况，对信和在自主研发道路上的不懈坚持以及研究成果赞不绝口，认为企业只有坚持把走科技自主创新之路作为企业发展的追求，才能不断实现新的突破。', '魏晓奎、高世文一行还深入世界遗产点洛阳桥、泉州“活态古城”，实地考察“非遗”文化传承工作，对泉州活态化保护传承优秀传统文化给予赞赏，特别是在业态打造上为抚州提供了好的路径和模式，同时表示泉州和抚州同为国家历史文化名城，文旅合作空间巨大，希望进一步加大两地文旅合作力度，实现合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>127</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>省农发局组织人员赴国家级台创园考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F9%2F11%2Fart_3826_865829.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_865829</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['9月4日—8日，由省农村社会事业发展局副局长吴植修带领的考察团，赴福建省漳浦、漳平、清流等国家级台湾农民创业园考察、交流学习。', '吴副局长一行深入漳浦县台创园，详细地了解园区的申报、创建以及园区的规划、产业布局、未来的发展方向等。', '在清流台创园，考察团冒着酷暑参观了清龙生态兰花有限公司，该公司培育的兰花多次在全国花展会上获奖，连续两届荣获福建花王称号。今年以来，该公司新增投资5000万元，完善园区内休闲栈道、观赏亭、农事体验中心、亲子采摘园等休闲娱乐基础设施，打造四季有花的“兰花王国”，实现传统农业向休闲农业、观光农业转型升级。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>127</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市慈善总会赴上海浙江学习考察慈善工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F6%2F8%2Fart_3826_879213.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_879213</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['近日，市慈善总会学习考察组一行赴上海、浙江学习考察。每到一个地方，学习考察组与当地慈善组织、爱心企业和家乡成功人士广泛接触，感谢他们对我市慈善工作的大力支持，学习先进经验，拓展慈善资源，共叙友情，共谋发展。', '12月7日，学习考察组一行应邀赴上海市慈善基金会学习考察，该会副理事长兼秘书长方国平、常务副秘书长马仲器、办公室主任庄严、救助部部长刘淑英接见了学习考察组成员。', '上海市慈善基金会成立于1994年，始终秉持“安老、扶幼、助学、济困”宗旨和“依靠社会办慈善，办好慈善为社会”方针，广泛开展慈善救助活动。十多年来，该会累计筹募慈善款物50多亿元，累计支出30多亿元，资助各类困难群众200万人次。现在的上海市慈善基金会是一个规范有序、公信度很高的社会组织，推动了上海乃至全国慈善事业的蓬勃发展。', '“海纳百川”慈善助学基金，是上海市慈善基金会设立资助外地在沪就读有困难大学生完成学业的助学项目。该基金资助外地在沪就读有困难的大学生每人每年2500元，同时资助外地在沪就读有困难大学生回家路费每人每次500元，对在沪就读有困难大学新生还增加困难补助1000元。凡符合条件的在沪就读有困难的大学生，由本人提出申请，经户口所在地慈善组织证明和就读学校审核，报上海市慈善基金会审批并实施。', '“共享阳光”——来沪务工人员子女教育就业援助行动，是上海市慈善基金会和汇丰银行慈善基金等单位共同发起的，上海市慈善教育培训中心具体组织实施。培训对象是具有初中学历，年龄17至22周岁，有积极求学和就业愿望，在上海工作满一年且家庭生活困难，身体健康，并办理了上海市居住证件，无业及失业来沪务工人员的子女。“共享阳光”项目每年培训学员400名，所学专业主要有机电一体化，旅游服务与管理，物流管理，会展实务与管理等。毕业后，由上海市教委颁发成人中专学历文凭，并获得职业资格证书，有关部门推荐就业。', '马仲器说：他曾经作为上海知青在赣南工作过5年，对江西有着特别感情。他还是上海振兴江西促进会副会长兼秘书长，为江西经济发展和慈善事业作出了很大贡献。他答应一定到抚州看看，并要以慈善作平台，为抚州争资金、争项目尽力，促进抚州慈善事业快速发展。', '12月8日，学习考察组一行拜访了衣恋时装（上海）有限公司，韩国衣恋集团中国区社会事业部总代表高宽卓、经理袁飞热情地接待考察组成员。衣恋集团于1980年在韩国创立，1994年进驻中国，该企业在快速发展的同时，没有忘记回馈社会，每年拿出10%的利润做慈善事业，我市临川二中“衣恋慈善阳光班”就是衣恋集团资助的项目之一。学习考察组向衣恋集团介绍了慈善阳光班学生的学习生活情况，感谢衣恋集团对我市慈善事业的支持。高宽卓先生说：我已经两次到江西抚州才子之乡，亲身感受抚州各级领导对教育事业和慈善事业的高度重视，这次学习考察组一行又亲临衣恋并带来这么多资料，你们做法让我们很感动。衣恋集团在中国资助100个慈善阳光班，今后衣恋集团还要加大慈善助学力度，我们期待有更多的合作机会。', '12月9日，学习考察组来到浙江宁波。江西省政府驻宁波办事处主任陈盛华（崇仁人）、江西甬赣经济促进会常务副秘书长肖书辉（乐安人）等与考察组一行就在甬抚州企业家为家乡慈善事业作贡献进行热烈讨论。学习考察组会见了宁波部分老乡，并介绍了家乡的有关情况，邀请他们常回家看看。', '12月10日，学习考察组赴浙江东阳市宗苏食品有限公司，向宗苏公司赠送了荣誉证书和奖怀。', '近几年，我市慈善事业发展很快，但与上海、浙江相比仍有较大差距，因此，建议要在以下几方面继续努力。', '一是积极筹募，不断扩大慈善基金规格。上海市慈善基金会有各种慈善基金20多亿元，每年增值率几亿元。前不久，我市建立了1000万元的银圣王留本付息冠名慈善基金，是一个很好的开始。我们要继续采取“冠名”、“留本付息”等筹募办法，吸引更多的企业和企业家建立慈善基金，以扩大慈善基金规模。', '二是创新品牌，全力推进慈善项目建设。近两年，我市积极实施慈善项目，如“慈善爱心超市”、“慈善阳光班”、“慈善夏令营”等，这些慈善项目深受群众欢迎。我们还要在助残、助老、助困、助学、助医等慈善项目上不断创新，树立品牌。要加强与上海慈善基金会的合作，认真做好“海纳百川”慈善助学和“共享阳光”慈善援助项目，让更多困难群众得到资助。', '三是广泛宣传，努力营造慈善氛围。为了扩大慈善影响，我们不仅要在本地加大宣传力度，还要走出抚州，争取在全省乃至全国树立抚州慈善新形象。要经常到中华慈善总会和省慈善总会去汇报，争取支持。继续采取走出去，请进来的办法，加强与经济发达和慈善工作先进地区的联络，学习先进经验，拓展慈善资源。', '四是规范管理，切实提升慈善公信力。近年来，慈善组织的公信力越来越受到社会关注，我们要把打造透明慈善作为重要任务，在组织筹募、资金使用、项目实施等方面，及时主动披露信息，自觉接受群众查询和社会监督。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>127</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>辽宁盘锦市公安局来抚考察学习警务改革工作</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017-09-21</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F9%2F21%2Fart_3826_849570.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_849570</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['2017年9月19日，辽宁省盘锦市公安局反恐支队政委杨磊率考察组一行3人到抚州考察学习公安“大部制”改革工作，并就警务改革工作进行了交流座谈。', '考察组一行实地参观了行政服务部“一站式”服务，治安防控部的立体化巡逻防控工作，详细听取了综合管理部绩效考核、侦查实战部合成作战、情报指挥部“情指一体”、执法规范部全流程监督和科技信息化等工作情况介绍。并就深化公安“大部制”改革，提升公安机关核心战斗力进行了座谈交流。', '座谈会上，市公安局党委副书记、常务副局长、改革办主任罗会明介绍了抚州公安“大部制”警务改革工作情况和改革成效。双方就改革过程中“如何设立组织架构、如何解决职级待遇、如何发挥信息化支撑作用”等问题进行了积极探讨与交流。', '考察组表示，我们通过各种载体了解到抚州正在推进公安“大部制”改革，而且取得了很好的成效，所以慕名而来。在实地参观了抚州的改革情况后，切实感受到抚州公安“大部制”警务改革力度大、进展快，效果非常好，走在了全国的先列，抚州“大部制”警务改革经验具有很强的前瞻性和可操作性，改革整合了警务资源、压缩了指挥层级，实现了警力无增长改善，解决了制约公安工作发展的一系列难题，充分说明“大部制”警务改革符合当前公安工作的要求和方向，让我们深受启发，非常值得我们学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>127</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>广西崇左市公安局来抚考察学习警务改革工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F6%2F16%2Fart_3826_848578.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_848578</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['6月14日、15日，广西壮族自治区崇左市副市长、市公安局长朱中卫率该市县级所有公安局长和市局主要业务部门负责同志一行16人，到抚州市考察警务改革工作。通过两天的实地学习考察，一致认为，抚州市公安局党委率先在全国开展市县两级“大部制”体制机制改革，定位高、勇气大、魄力强，起步早、动作快、效果好，公安上下齐心协力，队伍作风整齐有序，全警改革热情高涨，改革氛围浓厚，警务改革深度、力度、高度空前，领先于全国水平，走在了公安改革前沿。特别是通过改革取得了党委政府满意、人民群众满意、公安民警满意的良好效果，充分说明抚州公安警务改革符合当前公安工作的要求和方向，非常值得崇左市公安局学习、借鉴。回去后，将认真总结借鉴好抚州警务改革的先进理念和宝贵经验，加强两地警务合作交流，以公安改革为抓手推动崇左公安工作跨越发展。', '崇左市公安局考察团先后到临川分局、金溪县公安局和市公安局各部参观考察。考察团边看边听边记，不时提问进行交流，全面系统了解抚州公安警务改革背景、改革做法、工作目标、运行机制和改革成效。考察团表示抚州市公安局通过机构、人员、资源、职能的深度整合，实现横向集成、纵向贯通、一体运行的改革模式令人印象深刻、深受启发。', '在抚州崇左两地警务交流座谈会上，市公安局党委副书记、常务副局长、改革办主任罗会明代表市公安局党委详细介绍了抚州市公安局“大部制”警务改革理念、模式、方法和改革成效。两地公安机关就改革过程中遇到的问题进行了积极的探讨，崇左市公安局详细了解了抚州公安警务改革过程中“职级待遇如何解决、民警工作积极性如何提高、如何更好的将考核为改革抓手”等工作，并希望双方进一步加强警务改革、外籍人员管理、缉枪治爆、打击犯罪、查缉毒品等工作中交流合作。', '罗会明代表市局党委对崇左市公安局考察团一行表示欢迎，强调崇左市公安局近年创造的多项工作机制在全国全区推广，有许多值得抚州学习的地方。这次崇左市公安局考察团一行远道而来，传递崇左市公安局先进经验做法，就警务改革工作进行研讨交流，提出很多宝贵意见，必将对抚州完善警务改革工作带来帮助。两地公安将以此交流为契机，继续加强两地公安机关的警务交流，推动开展深层次、多领域的警务交流协作，更好地促进两地公安工作。市公安局党委班子成员，各县区公安局（分局）局长，市公安局各部副主任参加交流座谈。', '崇左市位于广西壮族自治区西南部，辖区人口248万，其中壮族人口占89.4%，是中国口岸最多的边境城市，也是有名的“白头叶猴之乡”和“木棉之乡”。崇左市公安局成立于2003年，下辖7个县（市、区）公安局（分局），有173个基层所队，全市共有在职民警1913人。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>127</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>市邮政管理局组织企业赴新余和吉安考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017-05-27</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F5%2F27%2Fart_13_106439.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_106439</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['5月25日-26日，市邮政管理局组织市本级主要品牌快递企业和邮政企业负责人一行16人赴新余、吉安考察学习。', '市邮政管理局一行实地考察了新余市快递产业园、新余学院快递服务中心、吉安市快递产业园和吉安县天河镇农村电商快递综合服务中心，并与两地的邮政管理部门、快递企业进行了座谈。市邮政管理局一行认真听取新余市邮政管理局“蓄势而为、借力使力”推进产业集聚、建设快递产业园区和吉安市邮政管理局“政府搭台、企业唱戏”快递企业抱团发展，凝聚合力打造快递产业园的经验介绍，学习了两地在推进寄递安全主体责任落实、实名寄递试点、末端网点建设和快邮合作方面的先进做法和宝贵经验，并带领企业负责人到新余市罗坊会议旧址进行党史教育。', '市邮政管理局表示，将认真总结学习两地的好做法、好经验，充分结合抚州的实际，学以致用，发挥优势，推动我市邮政监管工作取得新进展，不断提升行业监管服务能力和水平。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>127</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>抚州市统计局一行赴安义县进贤县考察学习</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017-04-28</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F4%2F28%2Fart_3826_842574.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_842574</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['，抚州市统计局局长陶雪华带队，组织部分局班子成员、科室负责人及县（区）统计局局长，赴安义县、进贤县考察学习。', '考察学习组分别与两县统计局的同志进行座谈交流，重点围绕着农业普查、统计执法、新增“四上”企业入库工作、工业、投资、贸易统计数据质量管理、化解统计任务增加与统计工作人员不足矛盾等方面进行了交流探讨。在进贤县，考察组还赴文港镇参观考察了特色小镇和城市建设等。', '两县政府高度重视考察交流活动，精心安排，使得考察交流充实有效。政府分管领导均参加座谈会并致辞。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>127</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>关于赴山东省学习考察现代农业工作的通知</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2017-04-11</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F4%2F11%2Fart_80_892972.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_80_892972</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['为加快现代农业发展，大力推进农业供给侧结构性改革，切实提高我市农业现代化水平，经请示市政府领导同意，市农业局决定于4月下旬组织有关人员赴山东省寿光市学习考察现代农业典型经验,推进设施农业招商工作。有关事项通知如下：', '各县（区）农业局和高新区农村工作局局长，邀请各县（区）政府和高新区管委会分管领导。', '2、请各县（区）农业局、高新区农村工作局于4月14日前将参加学习考察人员姓名、单位、职务、身份证号和手机号码一并发电子文档至市农业局经作站电子邮箱：']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>127</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>新余市国资委赴我委学习考察国资监管工作</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-03-22</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F3%2F22%2Fart_3826_842163.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_842163</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['3月20日，新余市国资委主任易勇一行5人赴我委学习借鉴在国有资产监督管理和国资国企改革等方面的工作经验、做法。', '座谈会上，抚州市国资委主任黄有盛同志介绍了抚州市国资国企改革发展的基本情况，重点介绍了在推进国资国企改革、企业领导人员管理、央企对接合作等三个方面的工作情况。', '双方还就进一步深化国企改革、加强党对国有企业领导等方面进行了深入探讨，交流了各自经验做法和工作体会。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>127</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>市农科所召开智慧农业考察学习交流座谈会</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2016-10-11</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2016%2F10%2F11%2Fart_3826_855014.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_855014</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['9月19日上午，市农科所召开智慧农业考察学习交流座谈会，对9月14日到省红壤所考察学习活动进行总结。考察学习人员通过交流座谈，分享心得体会，共同探讨促进农科所智慧农业发展的思路与方向。', '19日上午，市农科所召开智慧农业考察学习交流座谈会，对9月14日到省红壤所考察学习活动进行总结。考察学习人员通过交流座谈，分享心得体会，共同探讨促进农科所智慧农业发展的思路与方向。', '座谈会上，与会人员围绕功能定位、智慧农业建设，结合各自工作实际以及下一步工作建议意见分别做了交流发言，畅谈各自的认识、体会和感受，凝聚了共识，增强了信心。', '会议认为，当前农科所正处于转型发展的重要时期，要秉承“科研立所、人才兴所、开放活所、经济强所”的发展理念，进一步解放思想，抢抓机遇主动出击，突出精品亮点，不断实现科研创新。进一步建立健全开放的管理机制，向各生产要素要活力，构建全所管理工作保障体系。进一步找准科研发展突破口，明确工作的重点，为全市农业工作和经济发展提供强有力的科研支撑。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>127</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市农科所赴省红壤所考察学习智慧农业</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2016-10-11</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2016%2F10%2F11%2Fart_3826_854944.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_854944</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['为了适应新形势下经济社会发展的要求，强化多种形式的学习，并不断加强与兄弟院所的沟通交流，通过学习借鉴好经验和好做法，更好地提升我所干部职工的创新创业能力，进一步推动我所科技研发上水平。根据所部安排部署，9月14日下午，孙刚所长一行10人赴省红壤所就农业博览园设施、布局、管理体制和运行机制，物联网、科普教育基地、大棚蔬菜及花卉建设等方面进行考察学习。', '9月14日下午，孙刚所长一行10人赴省红壤所就农业博览园设施、布局、管理体制和运行机制，物联网、科普教育基地、大棚蔬菜及花卉建设等方面进行考察学习。', '考察学习人员详细了解了省红壤所整体发展和智慧农业建设情况，以及下一阶段工作思路。双方就智能温室等设施农业，以及人才培养、平台基地建设等方面进行了座谈交流。座谈会后，在红壤所叶川所长等陪同下，参观了阳台蔬菜、红壤农田耕地质量监测、水肥一体化智能化蔬菜种植、柑橘提升工程等现场，考察学习人员仔细询问了智慧农业相关技术要领、装备投入和产出效益等。', '“智慧农业”是集互联网、云计算和物联网技术为一体的农业生产方式，将是农业生产的发展方向。通过此次考察学习，既开阔了视野、认识了差距，又受到了启迪、增强了信心。下一步将认真总结此次考察成果，结合市农科所的实际情况，应用到市农科所建设和发展中，不断提升农科所转型升级发展与经营的能力。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>127</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>关于赴福建省三明市龙岩市学习考察的通知</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2015-12-28</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2015%2F12%2F28%2Fart_80_895956.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_80_895956</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['为学习福建省国有林场经营管理等方面先进经验，经研究，我局定于4月21-23日组织各县（区）林业局负责人及部分林场场长，赴福建省三明市和龙岩市二地考察学习，']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>127</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>吴强一行赴鹰潭景德镇市学习考察人防工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F8%2F8%2Fart_3826_3860907.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3860907</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['8月3日、4日，市人防办党组成员、副主任吴强一行4人赴鹰潭、景德镇市进行实地学习考察，实地考察了鹰潭市0313人防工程、人防工程避暑纳凉点、人民防空防灾宣传教育馆，并与两地人防办通过座谈方式了解人防建设审批、机关作风建设等先进工作做法。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>127</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>高世文率队赴山东省考察学习招商引资</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F6%2F10%2Fart_11_3841325.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3841325</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['为学习先进地区发展现代农业产业经验，对接重点企业，加快我市农业现代化、产业化发展，6月5日至8日，市委副书记、市长高世文率队赴山东省潍坊市、临沂市考察学习、招商引资。副市长江志坚及市政府秘书长李慷分别参加。', '为期四天的行程，紧锣密鼓、重点突出、务实高效。高世文在潍坊市先后考察了寿光市稻田镇崔岭西村、丹河设施蔬菜标准化生产示范园、现代农业高新技术试验示范基地、全国蔬菜质量标准中心、蔬菜高科技示范园、智慧农业装备交易中心、地利农产品物流园、永盛农业，诸城市得利斯食品股份有限公司、惠发食品股份有限公司，以及潍坊市谷德广场、泰华新天地等商贸综合体项目；在临沂市先后考察了君泽精密机械（山东）有限公司、金丰公社、山东临工集团。每到一处，高世文都认真察看现场，与相关负责人深入交流，询问经验做法，求取真经，了解重点企业发展计划，希望他们来抚投资兴业。', '考察中，高世文强调，要认真学习借鉴兄弟市的先进经验，大力推进蔬菜生产标准化、蔬菜产品品牌化、农业园区化、乡村宜居化、农民职业化、公共服务均等化“六化”模式，以产业振兴助推乡村全面振兴，以农业突破助力“三农”工作全面突破。要围绕蔬菜产业转型升级，谋划建设我市蔬菜质量标准中心，为生产标准化提供技术支撑。要以科技创新为引领，加强与科研院所合作，统筹种业研发力量，加快构建育繁推一体化种业体系。要强化农业产业化招商，大力推进农业园区化、生产标准化、产业规模化，探索“合作总社+标准社+农户”的发展模式，实现小农户“抱团闯市场”。要加快建设高品质农业产业园区，打造高端蔬菜产品品牌，做大做强蔬菜产业，推动我市农业现代化、产业化发展。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>127</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>赣州市退役军人事务局来我局考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-03-03</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2021%2F3%2F3%2Fart_13_3654647.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_3654647</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['2月24日至25日，赣州市退役军人事务局及兴国、瑞金、于都等县（市、区）退役军人事务局分管领导一行7人就我市烈士纪念设施保护管理先进理念和经验做法来我市学习考察并进行座谈。', '座谈会上，市局及东乡区、金溪等县（区）分管领导分别就我市、县（区）2020年烈士纪念设施的分级评定、成立保护单位、落实机构编制经费等方面进行了经验介绍；考察团成员对赣州烈士纪念设施基本情况及下步褒扬纪念工作的重点进行了介绍。', '随后，考察组一行还参观了抚州市烈士陵园和全国精品型退役军人服务站——金溪县陆坊乡退役军人服务站。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>127</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>王宏安一行到赣州学习考察创国卫工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F10%2F14%2Fart_11_3215396.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3215396</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['9月底，赣州市顺利接受了国家爱卫会的暗访检查，为了学习借鉴其先进经验和做法，10月12日，市委副书记王宏安率领市爱卫办相关同志，赴赣州市学习考察创建国家卫生城市工作。', '考察组一行先后来到赣州市赞贤路垃圾中转站、市民中心公厕、稼轩路农贸市场，章贡区姚府里巷（背街 小巷改造）、三康庙小区（老旧小区改造）、渔湾里美食街（“三小”行业健康示范一条街）、赣州城市中央 公园（健康主题公园）等地进行了实地考察，详细了解该市创国卫工作的特色亮点和具体经验做法，深刻感受创国卫工作取得的实际成果。', '考察组认为，赣州是一座充满魅力的城市，浓郁的历史文化气息和干净整洁有序的美丽城市环境给人留下了深刻的印象，尤其是开展创建国家卫生城市工作以来，赣州的城市面貌和整体形象发生了较大变化 。考察组表示，赣州市在创建国家卫生城市中有许多好的经验和做法，非常值得学习借鉴，我们要把这些好的经验做法带回去，取长补短，通过上下努力，全力做好抚州市国家卫生城市的创建工作。', '其间，双方还就市容环境卫生常态化长效化管理、城中村及城乡结合部改造和宣传等方面的经验做法进行了交流。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>127</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>市政协学习考察组赴吉安赣州学习考察</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2022-03-06</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F3%2F6%2Fart_11_3801563.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3801563</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['3月2日至4日，市政协主席、党组书记贺喜灿率市政协班子成员、办公室及专委会负责同志、县（区）政协主席，赴吉安市、赣州市学习考察。市政协副主席谭小平、刘忠华、戴晓文、曾月兴、伍旭鸿、唐永文、刘胜、王彬参加。吉安市政协主席刘兰芳、赣州市政协主席徐兵分别在当地陪同。', '在吉安市，考察组先后参观了高铁新区、神岗山公园等城市建设重点项目和南亚新材料科技有限公司、吉安生益电子有限公司等工业企业，以及井冈山市神山村。考察组怀着无比崇敬的心情，向井冈山革命烈士陵园敬献花圈，深切缅怀革命先烈，重温入党誓词，坚定理想信念。在赣州市，考察组先后参观了苏区干部好作风陈列馆、中央红军长征出发地纪念园、二苏大革命旧址等。同时，考察组还与吉安市、赣州市政协领导交流探讨了创新新时代政协工作的经验与做法。', '4日晚上，考察组召开学习考察总结会，畅谈考察所见、所得、所思，谈下步工作思路和打算。考察组成员纷纷表示，要弘扬苏区干部好作风，扎实推动“八扬八治”深化作风建设活动，加大履职工作创新力度，提高履职水平，奋进突破年，走好新的长征路，努力争创新时代政协“第一等的工作”。', '在总结会上，贺喜灿强调，当前，全省政协系统涌动着创新的激情、干事的热情，呈现千帆竞发，不进则退的奋进态势。全市各级政协组织必须突破固有的思维惯性，敢想敢干，大胆创新，自我加压，主动作为，在工作谋划上有高度、工作推进上有力度、工作落实上有精度、具体操作上有温度，增强协作意识和共赢意识，扎实做好“一县一品牌”“一委一特色”、中共党员委员工作站规范化建设等履职工作，推动全市政协工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>127</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>关于进一步规范外出调研学习考察活动的通知</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2018-06-25</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F6%2F25%2Fart_80_884839.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_80_884839</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['为严格贯彻执行中央八项规定，深化干部作风建设，提高工作效能，本着统筹安排、业务对口、注重成效、厉行节约的原则，现就进一步规范全市住房公积金管理机构外出调研学习考察培训工作作如下通知：', '外出调研学习考察培训，是指我市住房公积金管理机构工作人员因公组织或参加到抚州市以外的地方（出国、出境严格执行上级及其他相关制度）进行调研学习考察培训等活动。', '统筹安排。外出调研学习考察培训等活动，一律经市中心党组批准同意后方可开展。2.业务对口。原则上只能参加国家住建部、省住建厅和市委、市政府以及市中心等组织的外出调研学习考察培训活动，其他社会组织、中介组织等组织的调研学习考察培训活动原则上不参加。', '3.注重成效。外出调研学习考察培训是以增强业务水平、学习先进经验、提高综合能力、破解工作难题为目的，严禁借学习、考察、培训名义变相公款旅游或探亲探友，严格控制外出学习培训考察人数、次数、行程和时间。', '4.厉行节约。外出参加调研学习培训考察活动，提倡使用简便交通工具，交通不便、目的地偏远的经市中心党组批准后方可乘坐飞行工具。食宿标准严格按照有关财务规定执行。', '每次外出调研学习考察培训的时间原则上不超过7天，调研学习考察的城市不超过3个。如确实需要延长时间或增加地点的，应及时报经市中心主要领导同意。', '1.调研学习考察培训人员由市中心领导和相关科室或办事处干部组成，因工作需要，也可以请其他相关市直单位或县（区）相关人员参加。', '3.外出调研学习考察应有一名业务工作课题负责人（分管领导）带队。如果业务工作课题负责人因故不能参加，则由市中心主要领导安排其他负责人带队。', '1.市中心各科室、各县（区）办事处因工作需要，组织外出调研考察活动，应严格执行报批制度。相关科室和办事处应制定详尽的调研学习考察培训方案，按程序向人秘科书面申请，并提交党组会议研究审定。市中心组织的调研学习考察培训活动，由市中心会议研究决定。', '2.调研学习考察培训方案要明确调研学习考察培训的目的、主题（课题）、时间、地点（行程）、带队领导、参加人员、参与部门和经费预算等情况。', '3.调研学习考察培训方案经市中心党组会议审定批准后，要分送分管人秘科的市中心领导和人秘科备案。', '调研学习考察经费的使用必须严格执行中央八项规定和有关财务制度，严禁以调研学习考察之名行旅游之实，严禁用调研经费变相发放福利，一经发现，对相关人员以违纪论处。', '1.形成报告。调研学习考察培训结束后，考察组要及时将调研学习考察情况、内容、取得成效形成报告，在市中心行政会或党组会上进行汇报，人秘科要认真做好汇报记录并将调研报告存档备查。', '2.成果共享。按照以点带面、相互交流、共同提高的原则，建立外出学习培训考察成果共享机制，充分发挥和放大学习培训考察效果。因公外出调研学习培训考察任务结束后，要在3个工作日内分别向分管领导和主要领导提交调研学习考察报告或培训小结。根据具体情况，对调研学习考察培训成果需要在全市交流的，由分管领导报主要领导同意后，由人秘科组织召开相关会议，并就调研学习考察掌握的先进经验、作法，结合我市实际，形成办法或规定，以此推动学习成果共享，达到共同提高的目的。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>127</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>抚州市林科所赴浙江姥山林场考察学习</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018-04-28</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F4%2F28%2Fart_3826_858234.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_858234</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['4月25日，抚州市林科所所长陈文带领所科研科同志，赴浙江姥山林场进行了为期两天的考察学习。姥山林场与林科所同为国家级马尾松林木良种基地。陈文一行在中国林科院亚林所金国庆博士和林场负责人陪同下，考察了姥山林场马尾松良种基地的建设及经营情况，详细了解了生产、技术方面的先进经验和作法，并在姥山林场采集了62个优良马尾松无性系穗条，以进行后续嫁接培育，增加本所马尾松基地优质种质资源数量。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>127</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>宜春市林业局来抚考察学习全省旅发大会经验</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2018-06-19</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F6%2F19%2Fart_3826_867543.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_867543</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['2019年全省旅发大会在宜春市举办。为了筹备好这次会议，6月13日，宜春市林业局及明月山林业局、袁州区林业局、明月山温汤镇考察组一行来抚州考察学习全省旅发大会经验。 宜春考察组一行来到抚金高速彩化示范点、金溪县香谷小镇、金溪县竹桥村和三翁花园实地考察，并听取了2018年全省旅发大会抚州林业部门的经验介绍，认为抚州市林业局在全省旅发大会有所作为的经验值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>127</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>市政协学习考察组赴吉安赣州学习考察</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-06-17</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F6%2F17%2Fart_11_2250261.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_2250261</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['6月12日至14日，市政协主席黄晓波率市政协学习考察组赴吉安、赣州，围绕“加强党性锻炼，不忘初心使命，推进政协工作提质增效”的主题，在吉安井冈山和赣州于都接受革命传统教育，并实地考察两地政协的创新特色工作和经济高质量发展情况。市委常委、统战部长、市政协党组副书记韦萍参加于都考察活动；市政协副主席黄耀波、郑友清、徐建辉、柏林、戴晓文及秘书长徐容宁，各县（区）政协主席参加考察。吉安市委副书记、市长王少玄，市委副书记杨丹，市政协主席刘贤清；赣州市委副书记刘文华，市政协主席刘建平等分别在当地陪同。', '在吉安，学习考察组先后来到市城市展示馆、市博物馆、井冈山革命博物馆、井冈山革命烈士陵园参观学习。黄晓波表示，吉安是创造井冈山精神的红色摇篮，来到井冈山向革命先烈敬献花圈、重温入党誓词，表达了市政协党组和全体党员干部学习弘扬井冈山精神、奋力推进新时代人民政协新发展的坚定决心。吉安市政协积极探索创新，坚持在建言资政和凝聚共识上双向发力，各项工作成效明显、亮点突出，对提升抚州政协工作科学化水平很有借鉴意义，希望两地政协继续加强交流互动，共同促进、共同提高。', '政协工作科学化水平很有借鉴意义，希望两地政协继续加强交流互动，共同促进、共同提高。', '在赣州，学习考察组先后参观考察了江西金力永磁科技股份有限公司、于都中央红军长征出发纪念园等地。黄晓波表示，赣州于都是中央红军长征出发集结地。我们要深入学习贯彻习近平总书记视察江西时的重要讲话精神，提高政治站位，传承红色基因，不忘初心使命，认真履职尽责，以坚守信念、忠诚于党的崇高精神激发前行动力，走好自己的长征路。赣州市政协坚持党的全面领导，紧紧围绕党委、政府中心工作履职尽责，助推赣州经济高质量发展，特别是在着力发挥人民政协协商民主重要渠道的作用等方面，积累了不少好经验、做法，值得学习借鉴，希望进一步加强工作交流，共同推动新时代政协工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>127</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>抚州市司法鉴定考察团赴赣州考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2017-12-19</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F12%2F19%2Fart_3826_843268.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_843268</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['为科学配置全市司法鉴定资源，保障和推动司法鉴定 工作科学发展，11月24日-25日，抚州市司法局、抚州市司法鉴定协会司法鉴定考察团一行25人在党组成员、调研员吴明辉的带领下到赣州市司法局就司法鉴定机构优化整合、规范化管理等方面的先进理念和成功经验进行考察学习。', '日下午，考察团在赣州市司法局调研员钟亚平的陪同下实地参观了江西赣州司法鉴定中心的场所建设、服务设施、实验室、仪器设备、档案管理、内部制度等规范化建设成果，听取了中心主任如何全方位、全过程有效控制影响鉴定质量因素的经验介绍。', '日上午，在召开的座谈会上，钟亚平向考察团详细介绍了司法鉴定工作规范化管理的基本情况，并指出“优化整合、转型升级、人才培养”是鉴定机构科学发展的未来出路。会上还听取了赣州市司法局鉴定管理科科长王金平介绍赣州司法鉴定机构优化整合转型升级工作情况，赣州康泰司法鉴定中心主任曹立柱就鉴定机构整合后运行的情况，碰到的困难进行了经验介绍，原全南信立司法鉴定中心负责人刘会生谈了经历优化整合的体会感想。吴明辉对赣州司法鉴定机构整合转型升级的创新举措和先进做法表示钦佩，表示要以赣州的成功经验、结合我市实际，探索出我市司法鉴定机构优化发展模式。最后，两市司法鉴定机构负责人互相讨论交流。', '通过考察学习，考察团成员纷纷表示，要学习借鉴赣州市在加强司法鉴定机构监管及优化升级方面的先进做法和成功经验，鼓励想发展有条件的鉴定机构做大做强，引导鉴定机构科学规范发展，不断推进我市司法鉴定事业健康有序发展。(抚州市司法鉴定科 胡津)']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>127</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>徐州市自然资源登记中心一行莅临抚州考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2024-06-19</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F6%2F19%2Fart_3826_4187366.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4187366</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['2024年5月16日，徐州市自然资源登记中心党总支书记、主任孙吉军一行十余人来到抚州市不动产登记中心，考察学习我市林权登记、优化营商环境建设等工作的经验做法。市不动产登记中心主任江娟，副主任曾珉、章忠云，市自然资源局确权登记科科长吴武辉等同志陪同考察。', '本次考察采取实地调研和座谈交流相结合的方式。徐州市考察学习组一行先参观了不动产登记办事大厅，了解窗口布局及“综合受理、并行联办”“一件事一次办”“线上自助办理”“自助查询打印”等工作开展情况。', '随后，江娟同志在市政务服务中心306会议室主持召开交流讨论座谈会，就抚州市不动产登记集成服务平台建设过程及功能、“带押过户”开展情况进行详细介绍；吴武辉同志就抚州市林权登记工作的开展背景进行了介绍，并PPT演示抚州市清理规范林权确权登记历史遗留问题的工作流程、清理规范步骤；技术单位工作人员详细介绍林权登记系统建设情况，现场进行林权登记流程模拟演示；曾珉同志对抚州市不动产登记营商环境建设的亮点和特色工作进行汇报。最后，双方参会人员就林权登记、登记档案数字化建设、地籍调查开展与测绘成果应用、存量房“带押过户”等工作中存在的问题展开了深入交流。', '双方将以此次考察学习为契机，持续优化营商环境，继续加强协作联动，彼此取长补短，进一步推进两市自然资源不动产登记管理工作再上新台阶！']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>127</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>四川眉山市来抚学习考察国家历史文化名城申报工作</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F2%2F26%2Fart_3826_4146657.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4146657</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['2月23日，四川眉山市住建局局长胡徐一行6人来抚学习考察国家历史文化名城申报工作。市住建局副局长肖复星、文昌里管委会副主任徐驰陪同考察。', '上午考察组一行先后深入汤家山、汝东园、州学岭、荆公路历史文化街区、千金陂等地进行了实地考察。尔后召开座谈会，观看了抚州市国家历史文化名城宣传片，与会人员就健全体制机制、完善保护管理规定、街区保护提升、文物古建保护修缮活化利用、审查报批流程等方面进行了深入讨论交流。下午考察组一行实地考察了汤显祖、王安石纪念馆，参观了城市规划展示馆和博物馆。', '考察组一行纷纷表示，抚州文化底蕴深厚，在城乡历史文化保护传承方面做了大量的工作，有许多值得学习借鉴的经验做法，此行收获颇多。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>127</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>肖乐阳率队赴梅州市住房公积金管理中心考察学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F4%2F22%2Fart_22070_4166926.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_22070_4166926</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['4月19日，市住房公积金管理中心党组书记、主任肖乐阳率队赴梅州市住房公积金管理中心考察学习。考察组一行与梅州市住房公积金管理中心党组书记、主任谢崇杰，党组成员、副主任钟志强、张国金，副主任洪勇及相关部门负责人进行了座谈交流。', '梅州中心领导对考察组的到来表示热烈欢迎，向考察组介绍了梅州市住房公积金基本情况，并着重从项目背景、建设目标、规划成效、规划建设内容及需域内配合完成的事项五个方面介绍了', '肖乐阳也向梅州中心介绍了抚州中心的机构基本情况、业务发展和资金运营管理等方面的情况，衷心感谢梅州中心对考察组的热情接待及对考察学习活动的精心安排，对梅州中心各项工作取得的成就感到钦佩，尤其是梅州中心深入贯彻习近平总书记关于革命老区振兴发展的重要论述精神，积极创建苏湾区域住房公积金一体化服务平台，为全国住房公积金行业探索破解城市中心间业务跨域办理和资金跨域使用，推动建立行业间深度融合发展机制先行先试的担当精神表示赞赏，同时表达了愿与梅州中心合作，主动融入苏湾区一体平台的积极意见。', '会后，双方签订了《原中央苏区梅州、抚州住房公积金区域合作框架协议》，从推进业务跨省跨域办理、推进住房公积金互认互贷、共同防范资金风险和建立沟通研判机制等方面明确合作方向。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>127</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>抚州市民宗局专题传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F6%2Fart_3826_4099128.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4099128</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市民宗局专题传达学习习近平总书记考察江西重要讲话精神', '10月23日，抚州市民宗局召开会议专题传达学习习近平总书记考察江西重要讲话精神，研究贯彻落实意见。市委统战部副部长、市民宗局局长龚雪华主持会议并讲话。', '会议指出，习近平总书记考察江西重要讲话精神，为全面开启中国式现代化建设江西实践指明了前进方向、提供了根本遵循。要深入开展“民族宗教大讲堂”活动，全方位、多层次做好宣传宣讲工作，引导全市民宗系统党员干部切实把思想和行动统一到习近平总书记系列重要讲话精神上来。', '会议强调，着力聚焦“走在前、勇争先、善作为”的目标要求，不断推动全市民族宗教工作迈上新台阶。要在铸牢中华民族共同体意识上“走在前”。深入推进民族团结进步创建工作升级版，扎实开展“六+N进”工作。坚持“管肚子”和“管脑袋”并重，扎实推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接。要在推进我国生教中国化方向抚州实践上“勇争先”。坚持用社会主义核心价值观引领，用中华优秀传统文化浸润各生教。开展“五好”宗教活动场所和“五好”宗教团体建设，提升全市宗教活动场所规范化管理水平和宗教界自我管理水平，推动我国宗教中国化抚州实践不断取得丰硕成果。要在提升民族宗教事务治理能力上“善作为”。防范化解风险隐患，维护全市民族宗教和谐稳定，为奋力谱写中国式现代化抚州篇章作出民宗贡献。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>127</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>抚州市司法局赴天津苏州考察学习行政执法监督先进工作经验</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F6%2F1%2Fart_3826_3997528.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3997528</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市司法局赴天津、苏州考察学习行政执法监督先进工作经验', '为推进我市行政执法规范化建设，提升行政执法监督工作效能，5月23日至27日，市司法局党组成员、副局长余兵才带领东乡区、南城县、乐安县司法局分管负责同志、行政执法监督科负责同志一行6人先后到天津市滨海新区、苏州市张家港市司法局进行考察学习。', '考察组一行通过座谈交流、实地考察、观看宣传片、观摩现场演示、查阅资料等方式开展深入研讨和经验交流。在天津市滨海新区，现场观摩了天津市滨海新区行政执法监督平台，听取了其在行政执法和执法监督信息化建设方面的先进做法，并就如何发挥智慧赋能优势，加强行政执法监督与“12345”热线建立合作机制工作进行了深入交流探讨；在苏州市张家港市，重点学习了市县乡三级行政执法协调监督工作体系建设、对企业开展合规行政指导、一体推进行政执法全过程制约监督体系建设、法治宣传教育等方面的经验做法，并就乡镇综合行政执法体制改革等先进做法进行了深入交流学习。', '下一步，全市行政执法监督工作将结合执法工作实际，坚持以学提能、以学促干，将考察学习成果转化为推进我市行政执法监督提质增效的生动实践，进一步健全行政裁量权基准，创新执法监管方式，规范行政执法程序，不断提高行政执法质量，为全市经济社会高质量发展提供坚实法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>127</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>南宁市来抚考察学习申报国家历史文化名城工作</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F8%2F23%2Fart_3826_4072306.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4072306</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['8月22日，南宁市委常委、宣传部部长赵勇富一行17人来抚考察学习申报国家历史文化名城工作。市委常委、宣传部部长孙鑫、副市长薛强、', '上午考察组一行先后深入抚州市城市规划馆、汤家山、汝东园历史文化街区等地进行了实地考察。而后召开座谈会，', '观看了抚州市国家历史文化名城宣传片，与会人员就历史文化名城组织机构、任务分工和统筹运行机制、申报的程序、历史建筑和文物保护利用等方面进行了深入讨论交流。', '下午考察组一行实地考察了中国历史文化名镇浒湾镇、中国传统村落竹桥村，考察组一行对一座座古建筑被修缮，既保存了村庄原有风貌，又发展了新兴业态表示肯定，认为我市在做好历史文化遗存保护方面，做了大量的工作，将传统村落保护利用与乡村振兴、全域旅游规划相结合值得学习借鉴。', '考察组对我市悠久的历史文化、地域文化特色及申报国家历史文化名城与历史文化保护传承工作给予称赞，认为抚州市历史文化保护传承工作深入、细致，值得学习借鉴，希望今后能进一步密切联系，加强交流，实现两地名城保护工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>127</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>南昌市委宣传部一行来抚学习考察媒体融合工作</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F4%2F3%2Fart_11_3974949.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_3974949</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['4月1日，南昌市委常委、市委统战部部长饶绍清率南昌市委宣传部、南昌日报社、南昌广播电视台考察团来到我市，就市级媒体融合工作进行学习考察。市委常委、市委宣传部部长孙鑫出席座谈会。', '在市科技文化传媒综合体，饶绍清与项目负责人深入交谈，详细了解项目建设进程、协调推进和规划布局等情况。随后，饶绍清一行来到市融媒体中心、市属传媒集团察看了相关部室工作开展情况，了解市融媒体中心、市属传媒集团功能建设、平台应用、内容生产、深度融合及新媒体业务发展等情况。', '在学习考察座谈会上，双方就市级媒体融合工作进行了深入交流，围绕媒体融合体制机制、人才队伍、核心产品、市场经营等方面内容进行深入探讨。在听取我市市级媒体融合工作情况介绍后，饶绍清充分肯定我市工作成效，对我市在媒体平台建设、流程再造、内容生产等方面的好经验、好做法表示赞许。', '孙鑫表示，当前，昌抚一体化进程不断加快，南昌市在市级媒体融合工作上的谋划和举措，为我市接下来深入推进媒体融合带来了更多的启发。希望今后南昌能一如既往地向我市传经送宝，更多地分享宣传思想文化工作中的好经验、好做法；双方继续加强交流互鉴，互相取长补短，推动媒体融合工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>127</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>广东省东莞市考察组来抚学习国家历史文化名城申报工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F4%2F18%2Fart_13_3981593.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_3981593</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['考察组一行首先观看了抚州历史文化名城申报宣传片，而后就历史文化名城组织架构、任务分工和统筹运作机制、申报的程序、历史建筑和文物保护利用、工作亮点、经验等方面，与我市住建、文广新旅、文旅集团、文昌里管委会等部门进行了深入座谈交流。后深入汤家山、汝东园历史文化街区进行了实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>127</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>武汉市司法局来抚考察学习社区矫正和安置帮教工作</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F2%2F16%2Fart_3826_3958050.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3958050</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['2月15日至16日，武汉市司法局人民参与和促进法治处处长刘远雄一行五人来我市考察学习社区矫正和安置帮教工作，市司法局党组书记、局长陈振华会见考察组，市司法局党组成员、副局长余兵才及相关科室负责同志陪同考察调研。', '考察组一行先后实地参观考察了东乡区社区矫正安置帮教一体化基地（东乡区“新航驿站”）、东乡区邓家司法所、抚州市司法局，详细了解了我市社区矫正安置帮教一体化基地建设情况、基层司法所建设和工作开展情况以及江西省社区矫正和安置帮教信息化平台建设情况，并在东乡区新航驿站和抚州市司法局分别开展了座谈，双方就社区矫正和安置帮教工作进行了深度交流探讨。', '考察组对我市社区矫正安置帮教工作给予了充分肯定，表示抚州市社区矫正和安置帮教工作求真务实、开拓创新，特别是基地建设和信息化工作方面有很多先进经验做法值得学习借鉴，希望双方持续加强沟通交流合作，携手推进司法行政各项工作行稳致远。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>127</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>章建华带队赴黎川县学习考察冬闲田利用和村集体经济发展工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022-10-10</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F10%2F10%2Fart_13_3885448.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_3885448</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 章建华带队赴黎川县学习考察冬闲田利用和村集体经济发展工作', '月7日，市政府经济发展研究室副主任章建华带领市政府办驻村工作队深入黎川县熊村镇，学习考察冬闲田利用和村集体经济发展工作。他强调要提高思想认识，积极主动作为，做好长期和全局规划，大力盘活冬闲田资源，高质量完成目标任务，助农增收致富。黎川县副县长罗燕陪同调研。', '熊村镇下街村村级集体经济公司与福建客商合资创建长豆角产业基地，探索出一条“党支部+村办企业+公司+农户”的发展模式。在长豆角种植现场，章建华仔细查看长豆角长势，了解种植成本、合作模式、销售渠道等情况，他表示黎川县熊村镇以市场为导向，紧扣群众增收致富目标，大力发展长豆角种植产业，不仅发展壮大村级集体经济，还起到良好的示范带动作用，发展经验值得学习借鉴。', '在随后召开的座谈会上，双方进行了深入交流。黎川县副县长罗燕对调研组一行到来表示热烈欢迎，并从“一个理念、两个模式、三个步骤”等三方面介绍了黎川县发展设施蔬菜产业的经验和做法。', '章建华表示，发展壮大富民产业是巩固拓展脱贫攻坚成果同乡村振兴有效衔接的关键，驻村工作队要提高政治站位，深化思想认识，树立干就干好、干就干成的意识，采取有力措施，推进设施蔬菜等富民产业发展壮大。', '章建华强调，要持续优化农业产业结构，全力扩大冬闲田种植规模，做大做强特色产业，促进群众持续增收。要提前谋划，加快推进，引导群众做好今年冬闲田种植马铃薯地块预留，指导群众错峰种植上市，力创更大效益。要做好技术服务指导，加强对马铃薯、油菜等农作物种植、施肥、浇水、病虫害防治等各环节的管理，助农增产增收。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>127</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>我市赴赣州学习考察社区矫正监管中心建设</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2013-08-26</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F8%2F26%2Fart_3826_847530.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_847530</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['８月１５日至１６日，市政法委副书记万锦、市司法局长蔡菁率领各县（区）政法委、司法局主要领导共３０余人赴赣州学习考察社区矫正监管中心建设。考察组先后考察了瑞金市、南康市的社区矫正监管中心，听取了监管中心的建设与运行情况的介绍。通过学习考察大家发现了我市与赣州相比在社区矫正监管中心建设方面存在的不足和差距，对下一步加快我市社区矫正监管中心建设的认识有了进一步提高。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>127</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>市林业局赴江苏浙江考察学习毛竹产业发展</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2012-05-11</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F5%2F11%2Fart_3826_862360.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_862360</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['为了全面提升我市毛竹产业的发展水平，更好地培育毛竹资源，促进竹产业经济的持续快速发展，近日,市林业局组织乐安、宜黄、南丰、资溪、黎川县等重点毛竹县的林业局长及部分毛竹加工企业代表对江苏、浙江等地的毛竹产业发展进行考察学习。', '中国工程院院士、浙江农林大学名誉校长、浙江农林大学国家木质资源综合利用工程技术中心主任、南京林业大学教授张齐生就如何加快我市毛竹产业发展请教。张院士对抚州市人民政府加快推进毛竹产业发展的意愿表示赞赏，并就当前我国毛竹产业的现状、存在问题和发展趋势提出了具体的看法。', '张院士指出，一是抚州毛竹资源丰富，发展毛竹产业具有得天独厚的地利条件。二是毛竹产业要发展，要把现有企业做强，在竹产品类型上要有多样性，要考虑到对毛竹的综合利用，避免资源浪费；三是积极研发毛竹新产品，加大产品创新的研发力度。四是未来毛竹加工发展方向是整竹利用，提高了竹子资源的利用率。五当今林业产业发展的总方向是在生物化工和生物能源方面，作为政府部门应在这方面多多考虑，包括多引进和扶持政策应向其倾斜。', '在浙江安吉，考察学习组听取了该县林业局及竹产业发展局在毛竹产业发展方面的经验介绍以及县政府出台的对毛竹产业发展扶持政策，特别是对毛竹的一产培育、二产加工利用、三产发展情况进行了详细了解。考察组一行还参观学习了安吉县毛竹高产示范基地、竹子博物园，在浙江大庄实业集团有限公司参观了先进的加工工艺和全国竹产品的开发领先产品。通过实地学习考察，对安吉毛竹产业的发展和竹制品的开发，竹产品附加值的提升有了进一步的了解。考察组认为，加快推进毛竹产业发展，要从提高对毛竹林的培育认识、推广毛竹先进科学经营技术、毛竹专业合作社建设、提升企业技术和产品开发创新能力、各级财政的扶持力度、放开毛竹经营等方面着手，才能充分利用丰富的毛竹资源为地方经济发展增速，切实增加林农收入，才能实现市委、市政府提出的建设幸福抚州之目的。', '在浙江安吉，考察学习组听取了该县林业局及竹产业发展局在毛竹产业发展方面的经验介绍以及县政府出台的对毛竹产业发展扶持政策，特别是对', '考察组一行还参观学习了安吉县毛竹高产示范基地、竹子博物园，在浙江大庄实业集团有限公司参观了先进的加工工艺和全国竹产品的开发领先产品。', '通过实地学习考察，对安吉毛竹产业的发展和竹制品的开发，竹产品附加值的提升有了进一步的了解。考察组认为，加快推进毛竹产业发展，要从', '、推广毛竹先进科学经营技术、毛竹专业合作社建设、提升企业技术和产品开发创新能力、各级财政的扶持力度、放开毛竹经营等方面着手，才能', '充分利用丰富的毛竹资源为地方经济发展增速，切实增加林农收入，才能实现市委、市政府提出的建设幸福抚州之目的']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>127</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>抚州市统计局赴赣州市统计局学习考察</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2013-06-09</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F6%2F9%2Fart_3826_849069.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_849069</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['近日，抚州市统计局局领导和部分科长、县（区）统计局长一行赴赣州市统计局学习考察统计业务、统计管理方面的先进工作经验。', '赣州市统计局党组书记、局长卢述银就局机关内部管理、化解统计任务增加与统计工作人员不足矛盾、专业人员配备、统计专项经费安排、“企业一套表”工作开展情况和实施“企业一套表”后统计数据质量评估及监控方法等方面的主要做法作了介绍。抚州市统计局学习考察组成员分别就有关工作与赣州市统计局进行了交流和探讨。', '抚州市统计局党组书记、局长陶雪华表示，此次来赣州市统计局考察学习收益颇多，启发很大，回去后将认真学习借鉴赣州市统计工作当中的好经验和好做法，并希望双方今后进一步加强互动，优势互补，共同提高统计工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>127</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>上饶深化农信社改革考察学习组来抚考察</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2012-06-15</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F6%2F15%2Fart_11_93530.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_93530</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['6月14日上午，上饶市委常委、副市长韩平率深化农村信用社改革考察学习组一行9人来我市考察。市委常委、副市长周小平出席座谈会。', '座谈会上，周小平对上饶考察学习组一行的到来表示欢迎，并简要介绍了我市农村合作金融机构改革发展的基本情况，进一步深化改革的整体思路等。周小平说，农信社改制组建为农商行，组建属于抚州人民自己的商业银行，是上级的政策要求，也将更好地为中小企业、市域经济和“三农”服务，同时将极大地增加我市的财政收入，对抚州经济发展的作用不可低估，政府给予了全力支持。', '随后，上饶考察学习组一行与我市相关单位主要负责人进行了座谈交流，并就改制组建农商行工作中股金管理、法人治理、清产核资等方面的重点问题进行了深入了解与充分沟通。韩平对我市农信社改革以来取得的成绩表示祝贺。他说，抚州在深化农村信用社改革方面有很多成功的经验和做法，值得考察学习组成员学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>127</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>蔡菁局长赴萍乡学习考察律师和司法鉴定工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2013-11-05</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F11%2F5%2Fart_3826_849575.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_849575</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['10月29日，抚州市司法局党组书记、局长蔡菁,党组成员、调研员吴明辉一行6人赴萍乡市考察律师和司法鉴定工作，学习借鉴该市好经验好做法。', '考察组一行在萍乡市司法局局长胡自国、副局长王学良、糜婧等陪同下，先后参观了江西建辉律师事务所、江西吴楚司法鉴定中心，查看了工作资料和办案案卷，详细询问了萍乡律师工作和建辉律师事务所的发展状况，司法鉴定工作的发展沿革、管理模式和下一步的发展方向。', '在座谈交流中，蔡菁表示，萍乡整合司法鉴定资源，做强做大有权威性、示范性的鉴定机构以及开展“法企业联姻”、“整合高校人才”等做法值得借鉴，我们一定要把这些好的做法带回去，认真学习和借鉴，推动我市律师和司法鉴定工作上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>127</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>天津市公证考察团来抚州市考察交流学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2012-03-26</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F3%2F26%2Fart_3826_855601.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_855601</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['月25日下午，天津市司法局公证考察团一行17人由天津市司法局公管处处长杜丽萍带队，来到抚州市赣东公证处进行考察学习。', '座谈中，王主任对我市公证机构概况及近年来公证发展进行了介绍，并谈了我市的公证亮点特色、优秀经验案例、外出学习心得体会等，同时拿出部分公证案卷与考察团共同学习交流，考察团成员认真听取了王主任的介绍，同时针对办证过程中遇到的问题，双方进行了相互交流，现场讨论气氛轻松活跃。抚州市司法局局长蔡菁也到公证处看望了考察团成员，并对他们的到来表示了热烈的欢迎，同时希望他们能多来传经送宝、互相交流、共同进步，推进我市公证事业更好地发展。', '最后，杜处长感谢我处的热情接待，表示抚州是个文化底蕴深厚，人杰地灵的好地方，抚州公证不论思想理念还是办证方面都有很多先进经验值得他们学习和借鉴，同时欢迎抚州公证同仁们有机会去天津考察学习交流。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>127</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>临川区赴余干婺源上饶县等地考察学习</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2010-04-20</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2010%2F4%2F20%2Fart_3826_869625.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_869625</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['为了加快发展水产健康养殖，推进现代渔业建设力度，以提高基层水产技术干部科学管理水平。临川区农业局在省水产局水产技术推广站戴银根站长的精心安排下，组织区水产技术推广站全体人员、乡镇水产技术员、有关水产场负责人、典型专业户共计32人。于2010年3月25-27日前往余干县黄鳝养殖基地、婺源县荷包红鲤原良种场、上饶县田生泥鳅养殖有限公司考察学习。 在这次考察学习过程中，学员们受益匪浅，初步学到了黄鳝、荷包红鲤、泥鳅三条鱼的养殖技术及“用项目带动基地建设，基地建设成规模，打造无公害特色品牌，高效服务为保障，产供销一条龙”的管理经验。通过借鉴外地成功经验，有利提高发展本地特种水产，实现渔业产业化经营。 2010年临川区水产站将协助抚州市鹏鑫畜牧水产综合开发有限公司实施“美国青蛙健康养殖新技术示范”科技项目；积极帮助绿川农业专业合作社申报“大闸蟹繁育基地建设项目”；在临川区鱼种场进行泥鳅繁殖养殖试验，总结经验向全区推广；借鉴余干县黄鳝养殖成功经验，引导大岗镇的农户养殖黄鳝，避免走弯路。造成不必要的经济损失。 总之，用项目建设为动力，以“农业增收，农民增效”为目标，全面推进临川区水产养殖健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>127</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>河南省焦作市审计局领导来抚考察学习</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2010-04-30</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2010%2F4%2F30%2Fart_3826_850212.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_850212</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['近日，河南省焦作市审计局副局长范景致一行来我市考察学习经济责任审计工作。市审计局局长曾龙昌、副局长李兆龙陪同考察。', '范景致一行认真听取了抚州市审计局经济责任审计工作情况汇报。范景致对抚州市经济责任审计工作所取得的成绩给予了高度赞扬，他说，抚州经济责任审计工作成绩斐然、影响力大，充分发挥了经济责任审计工作在加强干部监督管理中的作用。', '向范景致一行不远千里为我们传经送宝表示热烈欢迎和衷心感谢。曾龙昌指出，在省审计厅和兄弟地市的关心支持下，2009年，', '抚州市审计机关共对212名党政领导干部进行了经济责任审计，并首次开展了县长任中经济责任审计和村委会书记主任的离任审计。此外，我市还出台了《抚州市党政领导干部经济责任审计结果运用办法（试行）》（抚办发【2009】45号），为今后进一步规范好全市经济责任审计工作提供了有力政策依据。近年来，', '抚州审计工作得到了长足发展，取得了显著成绩，为抚州市赶超发展作出了积极贡献。全局上下将以范景致局长一行来抚考察为契机，进一步做好各项工作，不断开创我市审计工作新局面。(抚州审计局 人秘科)']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>127</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市慈善总会赴上海浙江学习考察慈善工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2012-02-01</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F2%2F1%2Fart_3826_878808.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_878808</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['赴上海、浙江学习考察。每到一个地方，学习考察组与当地慈善组织、爱心企业和家乡成功人士广泛接触，感谢他们对我市慈善工作的大力支持，学习先进经验，拓展慈善资源，共叙友情，共谋发展。', '一行应邀赴上海市慈善基金会学习考察，该会副理事长兼秘书长方国平、常务副秘书长马仲器、办公室主任庄严、救助部部长刘淑英接见了学习考察组成员。', '上海市慈善基金会成立于1994年，始终秉持“安老、扶幼、助学、济困”宗旨和“依靠社会办慈善，办好慈善为社会”方针，广泛开展慈善救助活动。十多年来，该会累计筹募慈善款物50多亿元，累计支出30多亿元，资助各类困难群众200万人次。现在的上海市慈善基金会是一个规范有序、公信度很高的社会组织，推动了上海乃至全国慈善事业的蓬勃发展。', '“海纳百川”慈善助学基金，是上海市慈善基金会设立资助外地在沪就读有困难大学生完成学业的助学项目。该基金资助外地在沪就读有困难的大学生每人每年2500元，同时资助外地在沪就读有困难大学生回家路费每人每次500元，对在沪就读有困难大学新生还增加困难补助1000元。凡符合条件的在沪就读有困难的大学生，由本人提出申请，经户口所在地慈善组织证明和就读学校审核，报上海市慈善基金会审批并实施。', '“共享阳光”——来沪务工人员子女教育就业援助行动，是上海市慈善基金会和汇丰银行慈善基金等单位共同发起的，上海市慈善教育培训中心具体组织实施。培训对象是具有初中学历，年龄17至22周岁，有积极求学和就业愿望，在上海工作满一年且家庭生活困难，身体健康，并办理了上海市居住证件，无业及失业来沪务工人员的子女。“共享阳光”项目每年培训学员400名，所学专业主要有机电一体化，旅游服务与管理，物流管理，会展实务与管理等。毕业后，由上海市教委颁发成人中专学历文凭，并获得职业资格证书，有关部门推荐就业。', '马仲器说：他曾经作为上海知青在赣南工作过5年，对江西有着特别感情。他还是上海振兴江西促进会副会长兼秘书长，为江西经济发展和慈善事业作出了很大贡献。他答应一定到抚州看看，并要以慈善作平台，为抚州争资金、争项目尽力，促进抚州慈善事业快速发展。', '一行拜访了衣恋时装（上海）有限公司，韩国衣恋集团中国区社会事业部总代表高宽卓、经理袁飞热情地接待考察组成员。衣恋集团于1980年在韩国创立，1994年进驻中国，该企业在快速发展的同时，没有忘记回馈社会，每年拿出10%的利润做慈善事业，我市临川二中“衣恋慈善阳光班”就是衣恋集团资助的项目之一。', '向衣恋集团介绍了慈善阳光班学生的学习生活情况，感谢衣恋集团对我市慈善事业的支持。高宽卓先生说：我已经两次到江西抚州才子之乡，亲身感受抚州各级领导对教育事业和慈善事业的高度重视，这次', '一行又亲临衣恋并带来这么多资料，你们做法让我们很感动。衣恋集团在中国资助100个慈善阳光班，今后衣恋集团还要加大慈善助学力度，我们期待有更多的合作机会。', '，学习考察组来到浙江宁波。江西省政府驻宁波办事处主任陈盛华（崇仁人）、江西甬赣经济促进会常务副秘书长肖书辉（乐安人）等与考察组一行就在甬抚州企业家为家乡慈善事业作贡献进行热烈讨论。学习考察组会见了宁波部分老乡，并介绍了家乡的有关情况，邀请他们常回家看看。', '近几年，我市慈善事业发展很快，但与上海、浙江相比仍有较大差距，因此，建议要在以下几方面继续努力。', '上海市慈善基金会有各种慈善基金20多亿元，每年增值率几亿元。前不久，我市建立了1000万元的银圣王留本付息冠名慈善基金，是一个很好的开始。我们要继续采取“冠名”、“留本付息”等筹募办法，吸引更多的企业和企业家建立慈善基金，以扩大慈善基金规模。', '近两年，我市积极实施慈善项目，如“慈善爱心超市”、“慈善阳光班”、“慈善夏令营”等，这些慈善项目深受群众欢迎。我们还要在助残、助老、助困、助学、助医等慈善项目上不断创新，树立品牌。要加强与上海慈善基金会的合作，认真做好“海纳百川”慈善助学和“共享阳光”慈善援助项目，让更多困难群众得到资助。', '为了扩大慈善影响，我们不仅要在本地加大宣传力度，还要走出抚州，争取在全省乃至全国树立抚州慈善新形象。要经常到中华慈善总会和省慈善总会去汇报，争取支持。继续采取走出去，请进来的办法，加强与经济发达和慈善工作先进地区的联络，学习先进经验，拓展慈善资源。', '近年来，慈善组织的公信力越来越受到社会关注，我们要把打造透明慈善作为重要任务，在组织筹募、资金使用、项目实施等方面，及时主动披露信息，自觉接受群众查询和社会监督。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>127</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>张勇率团在山西长治学习考察造林绿化工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2009-11-26</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2009%2F11%2F26%2Fart_11_103219.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_103219</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['11月23日至25日，市委副书记、市长张勇率领以各县区党政主要负责人为团员的市造林绿化“一大四小”工程建设学习考察团到山西省长治市学习考察。考察团通过听介绍和实地参观考察，开阔了眼界，增长了见识。张勇强调，各地要统一思想，学以致用，扎实推进全市造林绿化“一大四小”工程建设，进一步改善生态环境。市委常委熊云鹏、副市长黄赛荣参加了考察。', '在长治市，长治市委副书记、市长张保，副市长许霞会见张勇一行。张勇简要介绍了我市市情和经济社会发展情况，希望通过此次考察，抚州和长治两市进一步加强联系沟通，不断增进友谊，不断加强合作。张保对考察团的到来表示热烈欢迎，并介绍了长治市情和经济社会发展情况。', '张勇一行先后到长治市城市规划展示厅和该市屯留县、长子县、郊区下秦生态园林村、壶关县实地参观考察，认真听取了有关情况介绍。长期以来，长治市发扬太行精神，全社会办林业，通过身边增绿、山上固绿，打造绿色家园。近年来，该市更是加大力度，加大投入造林绿化，山上建体系，丘陵建基地，平原建网络，乡村建园林，林下搞开发，造林绿化硕果累累。在屯留县，生态公园和绿色路网让考察团成员大开眼界。该县以平川造林绿化为主，山水田林路同步规划，乔灌花果草合理配置，坚持造林与造景、城市与乡村相结合，是精细施工的现场、整体推进的典型。长子县按照“近城搞园林，远城搞森林”理念建设的优美人居环境让考察团成员赏心悦目。而壶关县坚持攻坚克难绿化荒山，挖起石头种树，垒起石墙护林，更是令考察团成员惊叹不已。目前，长治市以城市绿化为中心、通道绿化为轴线、环城绿化为框架、荒山绿化为屏障、农田绿化为网络、森林公园为节点，远近呼应，山川平原相衔接的城乡一体化绿化新格局已形成，被评为全国十大魅力城市、国家园林城市、国家卫生城市和山西省环保模范城市。', '初冬的三晋大地，到处是积雪，但是道路两边宽阔的绿化带和绿化块中一行行一排排的树木笔挺地站立，在空旷的原野上异常突出。“人要文化，山要绿化”、“小孩要读书，山上要种树”，长治的路边不时可看到宣传造林绿化的标语。长治市创新思路搞绿化，重规划，大投入，坚持谁造林谁受益，造林与造景、城市与乡村统筹，生态与经济结合，因地制宜，不同区域进行不同的规划，做到面上有规划、片上有布局、点上有特色。张勇强调，全市各地要认真学习吸收长治造林绿化工作的先进经验，统一思想，学与致用，高起点搞好规划，一任接着一任干，高标准打造以高速公路、国省道为重点的通道绿化，切实抓好城乡结合部、城区、园区和村庄的绿化和美化工作，进一步推动全市造林绿化“一大四小”工程建设上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>127</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>抚州市统计局赴泉州市赣州市考察学习统计基层基础工作</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F6%2F21%2Fart_13_4188282.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4188282</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['6月17日-6月19日，抚州市统计局党组书记、局长郑海文率队赴泉州、赣州开展统计基层基础调研，其间先后与泉州、赣州两地市统计局进行座谈交流。', '日，抚州市统计局党组书记、局长郑海文率队赴泉州、赣州开展统计基层基础调研，其间先后与泉州、赣州两地市统计局进行座谈交流。', '座谈会上，郑海文同志说明来意，简要介绍抚州经济社会发展现状和统计工作开展情况，泉州市统计局主要领导傅少明、赣州市统计局主要领导杨幸丽均对抚州考察组一行人员表示诚挚欢迎，并就统计工作进行深入探讨，充分交流工作经验，推动建立互访交流机制，并就其他事项达成共识。座谈会后，抚州市统计局一行先后赴相关统计基层基础建设示范点及工业企业现场观摩。', '本次考察学习，拓宽了工作视野，提升了业务能力，达到了预期目标，为今后抚州统计拾级而上，迈步前进，奠定了基础。我们将持续加强沟通联系，取长补短，全力推动抚州统计工作、统计事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>127</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>甘肃省白银市发改委来抚开展生态产品价值实现机制学习考察</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-03-22</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2021%2F3%2F22%2Fart_3826_3662707.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3662707</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 甘肃省白银市发改委来抚开展生态产品价值实现机制学习考察', '月16－18日，甘肃省白银市发改委副主任、市能源局局长高扩工一行来我市开展“生态产品价值实现机制”专题学习考察。', '月16、17日，考察组一行深入我市资溪、金溪两县，实地调研了中国（资溪）竹科技创新中心、资溪县“两山银行”、“真相乡村”旅游带、金溪县生态产品交易中心、竹桥古村及大坊荷兰创意村，详细了解了我市自开展生态产品价值实现机制试点工作以来取得的成效、生态产品交易的主要方法和思路、古村落市场化运营机制等，并对我市的试点工作表示了充分的肯定与赞赏。3月18日，考察组一行深入我市中心城区实地调研了我市规划展示馆、数字街区展示馆、生态云平台项目、三翁花园、文昌里历史文化街区等，详细了解了我市的人文概况、历史文化、经济运行情况等，并召开了座谈会。座谈会上，考察组和我市相关部门围绕生态产品的内涵、范围，生态产品价值核算的主要方法和思路，生态产品实现路径和考核机制的形成进行了积极有益的探讨和交流。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>127</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>市国资委主任黄有盛同志随市考察团赴广东省国资国企考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2021-10-12</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2021%2F10%2F12%2Fart_3826_3745848.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3745848</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 市国资委主任黄有盛同志随市考察团赴广东省国资国企考察学习', '月9日下午至10月11日，抚州市委副书记、代市长高世文带队赴广东省国资委考察学习，抚州市政府党组成员汪华辉、市政府副秘书长、办公室主任李慷、商务局局长胡会华、国资委主任黄有盛、市政府驻广东联络处主任祝毅思、招商引资中心副主任李进、文旅投集团董事长付武彪、抚垦集团董事长吴伟军随同参加考察座谈。', '月9日下午，考察团与广东省属部分主要国有企业进行座谈交流，广东省国资委党委书记、副主任范中杰主持座谈，广东省国资委党委委员、副主任王晓昀、广东省国资委办公室主任吕宁、广东省国资委规划发展处处长林晓庆及广东省属部分主要国有企业负责人参加座谈。', '会上，广东省属旅游控股集团、农垦集团、恒健控股集团、南粤集团、建工集团、粤海控股集团、能源集团等大型国有企业负责人分别就各自主营业务和投资方向进行了介绍。高世文表示，广东作为粤港澳大湾区的主力军，国资实力雄厚，抚州将充分发挥资源与地缘优势，紧密对接粤港澳大湾区', '月10日上午，抚州市国资委主任黄有盛、抚垦集团董事长吴伟军一行赴深圳交易集团有限公司，与深圳交易集团总经理、深圳联合产权交易所董事长刘庆云洽谈合作事宜。', '深圳交易集团是一家全要素大型综合性公共资源交易机构和全国公共资源交易领域的先行示范标杆。抚垦集团将依托我市丰富的生态资源，基于抚州市国资国企要素交易需求，融合深圳交易集团公共资源交易头部企业优势、要素交易领域先进经验、创新发展理念及行业先进的数字化交易工具，结合抚州本地属地特征，运用市场化的服务手段，形成国资国企要素和生态产品交易服务板块为主，绿色产业产品开发、绿色产业拓展运营板块不断延伸的“三大”业务板块。', '双方就在抚州合资成立交易集团有限公司达成一致意见，并针对合资公司的注册登记、股权结构、业务模式、管理运营等内容开展了深入的沟通与交流。下一步双方将成立工作专班，拟定组建方案和工作清单，共同推进项目尽快落地。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>127</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>副市长薛强率团在南昌考察学习装配式建筑发展工作</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F3%2F4%2Fart_3826_3801272.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3801272</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['市发改委、市财政局、市工信局分管领导，各县（区）分管领导及当地住建部门主要负责同志，市城建集团、中阳建设集团、玉茗建设集团负责人参加考察。', '南昌市政远大建筑工业有限公司、江西绿建城投杭萧科技有限公司、中恒建设集团有限公司、', '，现场感受装配式建筑标准化、智能化、工厂化的流水生产线，深入了解装配式建筑企业技术水平和生产能力，并观摩装配式建筑示范项目。', '薛强指出，近年来，南昌县建筑业发展和千亿建筑科技产业园取得辉煌成就，园区内装配式建筑生产基地系统化的生产方式、现代化的管理模式', '要认真贯彻新发展理念，聚焦装配式建筑领域，不断提升项目建设的新技术应用和整体管理水平', '南昌县在新的市场形势下，通过绿色建造实现县域建筑产业的转型升级，逐渐从建筑大县发展至建筑强县的发展之路']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>127</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>宜春市林业局局长李苏荣一行来我市学习考察林长制工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2021%2F1%2F28%2Fart_3826_3642567.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3642567</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['1月27日，宜春市林业局局长李苏荣一行5人，来抚州市、临川区就林长办制度建设；“智慧林长”大数据平台建设；“一长两员”网格化管理等方面进行学习交流。抚州市林业局党组书记、局长杨皓，局党组成员傅家科，四级调研员钱江华等同志陪同。', '李苏荣一行参观了我市林长制智慧平台指挥室，听取了平台建设情况介绍，现场演示了如何查看护林员巡山轨迹、管护范围界线、管护面积以及护林员向平台上传的问题信息，直观地了解了我市市级林长制智慧管理平台建设和运行情况。', '随后，考察组参加了座谈会。会上，市林业局局长杨皓对我市林长制工作情况进行介绍，提出我市林长制工作按照“五级林长抓监管（市、县、乡、村、组五级林长）、两支队伍齐上阵（护林员、监管员队伍）、七项机制促运行（组织领导机制、目标考核机制、奖惩激励机制、督察督办机制、信息通报机制、智慧森林监管机制、宣传教育机制）、两大行动抓落实（护绿提质行动、“四打”专项行动）”的总体思路，创新开展了“林长制”标准化建设、护林员优化整合、护林员“五统一”管理、“两清单一平台”履职管理等改革工作。', '局党组成员傅家科对我市林长制工作的发展历程进行汇报，2016年抚州市在全国率先实施了以各级党政领导履行森林资源保护管理责任为主要内容的“山长制”；2018年，根据省委、省政府的统一部署，我市开展了以保护和发展为中心的林长制工作。实施林长制以来，我市林长制工作得到领导支持，财政投入力度大，人员配备齐全，林长制工作取得了初步的成功。', '最后，宜春市林业局局长李苏荣对抚州市在林长制的探索和实践中取得的成绩给予了高度评价。李苏荣谈到抚州市林长制基础工作扎实，制度建设和平台建设完善，特别是“一长两员”责任的压实为森林防火和森林督查工作提供了重要的抓手。并表示此次调研得到很多宝贵经验和启示，希望两地今后加强联系沟通，相互学习交流，共同促进双方林业发展。', '1月27日下午，李苏荣一行参观临川区林长制智慧管理平台现场，先后考察了临川区的林长制智慧管理平台、区级林长办和乡级林长制建设。在林长制智慧管理平台考察中，李苏荣对临川区先行先试给予了充分肯定，他表示，该管理平台对“一长两员”的管理非常实用、简洁明了、统计方便、反馈事件迅速。随后考察组考察了临川区林长办“7866”建设、桐源乡林长办建设及了解护林员“五统一”、巡护情况。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>127</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市政务服务管理局赴福建省福州市漳州市考察学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020-05-27</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F5%2F27%2Fart_3826_3412440.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3412440</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['5月19——21日，李文庆同志带队、组织市民政局、东乡区、金溪县、宜黄县行政服务中心赴福建省漳州市、福州市学习考察政务大厅规范化管理、政务服务事项下放乡镇（街道）社区（村）社区政务服务综合管理平台建设和基层政务公开标准化规范化以及“放管服”改革等方面的好做法。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>127</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>市园林绿化局组织一线管理干部赴周边城市考察学习</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2020-08-17</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F8%2F17%2Fart_3826_3797608.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3797608</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['随着城市建设的快速发展，城市绿化已经成为市民关注的重要内容，一个城市的园林绿化水平代表了这个城市的风貌，也反映了城市的精神面貌，因此搞好城市园林绿化关乎市民的幸福指数，必须高度重视。当前我市城市化建设进程加快，城市规模逐步扩大，在全体园林工作者的努力下，我市的园林绿化水平也有了较大的提升，但仍不能适应当前的城市建设进展，远未达到一、二线城市的园林绿化标准。', '为进一步提升我市园林绿化养护水平，经局党组研究决定，安排一线管理干部，分两个组分别前往兄弟地市进行考察学习。8月初，一组考察团在局四级调研员桂晓华同志的带领下赴鹰潭、景德镇参观学习。', '通过此次学习，干部职工对城市绿地养护外包（向社会购买服务）的模式，管护人员定员、定岗、定薪的做法，开放式公园管理经验，有了更直观的认识与深入的了解；同时，考察学习成功的案例，将运用到今后管护中，进一步提升整体管护水平，进一步提高市民的幸福指数！']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>127</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>南城县统战干部及宗教界代表人士赴东乡区考察学习</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2020-10-27</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F10%2F27%2Fart_3826_3568783.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3568783</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为进一步提高依法管理宗教事务能力，提升宗教场所规范化管理水平，10月23日，南城县组织各乡镇统战委员及部分宗教界代表人士共20余人赴东乡区考察学习。', '考察组先后考察了东乡区陈揭村新时代文明实践中心和王桥村清湖寺，学习了东乡区在宗教场所合理布局及规范化建设等方面的经验和做法。通过考察学习，使大家进一步树牢了理想信念、感', '党恩跟党走的意识更加坚定，也为转变观念，创新宗教工作方式，推进南城县宗教场所规范化建设提供了借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>127</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>抚州市乡村振兴局学习考察团赴吉安市学习考察</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2022%2F7%2F26%2Fart_13_4186935.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4186935</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['7月22日至23日，抚州市乡村振兴局局长黄晓红率局班子成员、科室负责同志和县（区）乡村振兴局主要负责同志赴吉安市学习考察巩固拓展脱贫攻坚成果同乡村振兴有效衔接，深入了解兄弟市工作现状，学习巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作经验，为推动乡村振兴“解困惑”“找方法”。吉安市乡村振兴局', '“七天快速认定”、省定重点帮扶村建设；深入井冈山市拿山镇江边村考察产业联盟基地建设，柏露乡柏露村考察红色旅游建设和研学基地，茅坪镇神山村重温习近平总书记踏访神山村的情景以及谆谆嘱托，茅坪镇马源村乡村振兴示范村建设。', '每到一地，黄晓红就相关工作与当地干部深入交流讨论，详细了解工作运行情况、项目资金投入情况、取得的工作成效以及存在的困难等，并对学习考察团提出要求。', '抚州市正在建设的巩固脱贫成果智慧平台，要充分学习借鉴吉安大数据防返贫监测和帮扶平台经验，利用信息化、数字化赋能助力预警监测帮扶，将', '吉安市在重点帮扶村、乡村振兴示范村建设方面作出了积极探索，各地要把吉安市的好经验、好做法、好模式与本地实际相结合，开拓思路，创新工作；井冈山市全域全乡镇开展乡村振兴规划值得学习，重点帮扶村特别是以', '“百县千乡万村”乡村振兴示范创建为目标的县、乡镇和村，要科学规划编制方案，合理布局基础设施、公共服务，完善乡村配套功能，满足群众需求，要根据地理位置和资源禀赋，突出产业特色、文化特色、生态特色、地域特色和民俗特点，做好差异化、个性化设计。', '要因地制宜发展乡村产业，推进一二三产业融合发展，要加快农业结构调整，延伸农业产业链，强化', '”作用，积极开展农业招商引资和跑项争资，重点引入有技术、有品牌、有实力的经营主体发展乡村产业；要贯彻落实市委、市政府“农业立市”战略，深耕特色农业，实施“百亿产业、十亿企业”龙头引领工程，将产业发展与“培育壮大4个百亿产业、6个50亿产业和推进现代种业振兴”有机结合，健全完善联农带农机制，引导群众积极参与产业长期发展，有效壮大集体经济。', '神山村脱贫致富的蝶变，是中国共产党始终把人民立场作为根本立场、把为人民谋幸福作为根本使命的一个缩影，体现了新时代中国共产党人与人民群众之间的血肉深情，与脱贫攻坚战相比', ',全面推进乡村振兴时间跨度更大、覆盖范围更广、承载任务更重、实施难度更大,各级乡村振兴干部要弘扬脱贫攻坚精神，聚焦“守底线、抓发展、促衔接、勇争先”，苦干实干、久久为功，以奋斗成就乡村振兴伟业，让农业成为有奔头的产业，让农民成为有吸引力的职业，让农村成为安居乐业的美丽家园', '学习考察团一行还走进井冈山革命烈士陵园，敬献花圈、默哀吊唁，深切缅怀在井冈山革命斗争中牺牲的革命先烈，追寻红色记忆，重温入党誓词，进一步坚定理想和信念，激发责任感和使命感。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>127</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>鹰潭市应急管理局赴我局考察学习救灾物资储备库建设工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-11-29</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F11%2F29%2Fart_13_3231396.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_3231396</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['2019年11月28日鹰潭市应急管理局局长桂峰率队一行4人赴我局考察学习救灾物资储备库建设工作。', '在抚州市应急管理局局长邹节华、副局长黄国华的陪同下，考察组一行实地查看了我市救灾物资储备库。详细了解物资储备管理、制度建设、调拨使用、物资采购等相关工作情况，对我市救灾物资储备库建设给予了高度评价。', '救灾物资储备的基本情况。双方就如何做好机构改革后物资储备管理工作进行了深入交流，并表示将继续加强交流，']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>127</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>福建省林业局考察组莅临我市学习林长制经验做法</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-07-26</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F7%2F26%2Fart_3826_2566686.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_2566686</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['座谈会上，傅家科向考察组一行详细介绍了我市林长制基本情况、林长制进展、智慧平台建设情况，并与考察组一行进行交流。', '座谈会上，傅家科向考察组一行详细介绍了我市林长制基本情况、林长制进展、智慧平台建设情况']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>127</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>九江市林科所总支书记丁健一行到抚州市林科所考察学习</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2019-08-08</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F8%2F8%2Fart_3826_2629222.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_2629222</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['科所考察学习，市林业局党委委员、总工程师傅家科同志，市林科所副所长徐辉同志、总工程师邓章文同志陪同。市林科所对九江市林科所总支书记丁健一行的到来表示热烈欢迎。', '九江市林科所总支书记丁健一行冒着酷暑参观了市林科所省级保障性苗圃、珍贵树种容器苗精细化培育示范区，并听取邓章文同志的详细介绍，丁健对我所培育的苗木、项目建设等方面给予了高度的评价。', '随后，在市林科所二楼会议室召开座谈会，双方就各自单位的科研项目、科技创新、科技推广、科技合作、科技服务、队伍建设等方面进行了深入地交流，提出以后要加强市级林科所的交流与合作，同时要互相借鉴好的经验与做法。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>127</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>抚州市林业局组织人员赴丽水市学习考察林业改革工作</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2019-08-08</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F8%2F8%2Fart_3826_2629016.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_2629016</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['8月5-6日，抚州市林业局总工程师傅家科带领局有关科室及资溪县、宜黄林业局分管领导等一行七人赴浙江丽水市学习考察林业生态价值实现体系建设及林业金融服务工作。', '在8月6日召开的座谈会上，丽水市自然资源局副局长黄文松、市生态林业发展中心法规处负责人就力足于盘活森林资源资产，增加农民财产性收入，着力把“绿水青山”变为“金山银山”，着重介绍了丽水市开展创新林权证抵押贷款、破解森林资源抵押变现难题，创新林地经营权流转证制度、开创经营权抵押贷款先河，创新公益林收益权质押贷款、推进融资从实物抵押向权利质押拓展等三个方面开展集体林权制度改革的主要做法、取得的工作成效和存在的问题以及下一步工作思路。同时，双方还就做好林业改革工作进行了交流和探讨，并搭建了今后工作相互沟通的方式方法。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>127</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>安徽省黄山市林业局考察学习我市林长制经验做法</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019-07-25</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F7%2F25%2Fart_3826_2556112.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_2556112</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['7月24日，安徽省黄山市林业局佘宏远副局长、市司法局陈志贤副局长、黄山风景区园林局桂剑峰副局长一行9人，专程到抚州考察学习我市林长制经验做法。市林业局党委委员、总工程师傅家科向考察组详细介绍了我市林长制做法，双方进行了友好交流。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>127</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>甘肃省司法厅学习考察我市社区矫正信息化建设</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-07-02</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F7%2F2%2Fart_3826_853424.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_853424</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['6月26日下午，甘肃省司法厅社区矫正工作处处长李建设成率领考察组一行9人到抚州市学习考察社区矫正信息化建设。', '考察组冒着酷暑学习考察的精神值得学习。首先，参观了市局指挥中心，市局矫正管理局就社区矫正指挥系统建设情况进行了简要介绍，并就社区矫正中心视频联网进行了现场演示，双方还就建设有关情况进行了交流探讨。其次，考察组还深入东乡区进行学习考察。在东乡区，参观了区社区矫正中心，对区社区矫正指挥联网建设情况进行了学习，并参观了东乡区社区矫正安置帮教一体化基地（新航驿站）。在基地，观映了东乡区一体化基地建设录像片，对各类场所和库室进行了察看并进行了座谈交流。考察组一行对我市社区矫正信息化建设给予了高度肯定，指出：抚州市社区矫正信息化建设标准水平高，场所设置规范，标识明显到位，功能实用性强，值得我们甘肃省学习借鉴。', '省厅社区矫正管理局副局长康志文、东乡区常委、政法委书记王繁凡、市司法局副局长江木根、东乡区司法局局长乐志伟陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>127</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>我局局长许萍乡率队赴南昌市昌北防洪排涝工程管理处学习考察</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F11%2F26%2Fart_3826_915691.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_915691</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 我局局长许萍乡率队赴南昌市昌北防洪排涝工程管理处学习考察', '月24日下午，我局党委书记、局长许萍乡率副局长刘勤耕、总工黄永尧，局建管科、市城防局有关同志到南昌市昌北防洪排涝工程管理处就水工程标准化管理进行学习考察。考察组参观了前湖电排站（昌北防洪排涝工程管理处的中心站）的管理房、值班室、泵房、信息中心及院内环境，并与昌北防洪排涝工程管理处负责同志进行了座谈交流，南昌市水务局总工唐明陪同。', '昌北防洪排涝工程管理处是国家级水管单位，院内环境整洁、干净，优美，工程管理规范，尤其是智能信息化管理较高。许萍乡要求，要将他们好做法和好经验带回去，认真加以学习，要将城西排涝站按照标准化管理进行打造，在推进全市水利工程标准化管理起到引领示范带动作用。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>127</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>蔡青副市长率团赴新余景德镇考察学习居家养老和社区建设</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2019-03-14</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F3%2F14%2Fart_13_1779928.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_1779928</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['在新余市，考察组对新余市居家和社区养老智慧指挥平台、西街社区、电工厂社区、北湖社区、陈香颐养智慧社区、光明新村颐养之家等居家养老和社区建设情况进行了考察,并进行了交流探讨。在景德镇市，考察组参观了汪王庙社区长者之家、五龙山社区、马鞍山社区、三宝村农村社区建设等。经过实地考察和交流探讨，大家一致认为新余和景德镇两市在社区管理体制创新、社区文化建设、社区标准化建设以及社区智慧养老、社区居家养老建设等方面的先进经验非常值得借鉴学习，为加强和完善我市社区治理工作、打造社区居家养老试点提供了很好的经验。', '蔡青强调，开展好社区治理工作，一是要做好调查摸底，各地要对本辖区社区用房情况进行一次摸底调查，摸清家底，做到心中有数。二是要抓好社区建设，要按照“先试点、后铺开”的思路，规划建设社区配套设施，要求新建社区要达到600至1000平方米；要结合学习考察的先进经验，探索公建民营的社区嵌入式养老模式，打造一批以党建为引领、融合多项社区服务功能的试点社区；要结合“三城同创”、城市“双修”等，整合资源、整合资金，解决有钱办事。三是选好人员，社区是城市治理的一个细胞，要提升社区服务水平，人才是关键。借鉴新余、景德镇两市做法，通过公开招聘，选拔一批高素质的社区干部，提高干部待遇，真正让事业留人、待遇留人，重点是要选拔一批优秀社区书记和主任，配强社区班子和队伍。四是抓好农村养老，要学习借鉴新余农村党建+养老模式，与农村卫生院相结合，打造农村社区养老模式。', '就如何推进我市居家养老和社区建设工作，傅志雄提出合理布局选点、整合力量打造、配强班子运营的具体要求。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>127</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>抚州市林业局赴鹰潭市学习考察无源偶极雷达火情预警系统</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-09-13</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F9%2F13%2Fart_3826_849477.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_849477</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市林业局赴鹰潭市学习考察无源偶极雷达火情预警系统', '9月7日下午，抚州市林业局长谭海波带领森林防火办等相关人员，赴鹰潭市江西鹰视觉科技有限公司进行学习考察。鹰潭市林 业局长胡斌陪同考察。 学习考察期间，听取了江西鹰视觉科技有限公司相关负责人的业务介绍，重点了解了无源偶极雷达火情预警系统运用森林防火的工作原理、方法、特点等介绍。 江西鹰视觉科技有限公司成立于2017年9月，是由鹰潭市政府重点引进的高新技术企业。公司以三维空间火源探测为核心技术，以物联网智能传感器的应用研发、生产、销售、服务、平台开发为主业，以打造安全监控平台。公司开发的无源偶极雷达火情预警系统，运用雷达监测、光谱电磁波智能传感技术，通过4、5G网络传输，适时传至手机APP，自动识别报警，探测火源点实施定位，然后运用无人机挂载云台，将现场情况通过4G网络适时传输至各级森林防火指挥室，为组织指挥扑救森林火灾提供科学依据。 根据省林业厅要求，准备将其列入全省抚河流域东部森林火灾高风险区综合治理项目中，预计建设雷达监测点5 个。可行性研究报告待国家林草局批复后，由抚州市先行先试。观其监测效果，结合各地财力情况，稳步推进。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>127</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>湖北省荆门市公安局来抚考察学习警务改革工作</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-03-30</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2018%2F3%2F30%2Fart_3826_848590.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_848590</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['月28日，湖北省荆门市公安局党委副书记、常务副局长王文忠一行6人，到抚州考察学习公安“大部制”警务改革工作，指出：抚州市公安机关市县同步，以“自我革命”的精神进行结构性的警务改革，有效解决了制约公安发展的瓶颈性问题，提升了警务效能，激发了队伍活力，推动了公安工作全面转型升级，改革符合中央和公安部深化改革精神，符合新时代对公安工作的新要求，方向正确，措施有力，成效明显，改革模式和经验，非常值得我们学习和借鉴。', '王文忠一行先后实地考察了东乡区公安局情报指挥部、侦查实战部，临川分局上顿渡派出所和市局治安防控部、综合管理部、国内安全保卫部、侦查实战部、执法规范部、科技信息部和情报指挥部。每到一处，考察团成员通过听取PPT介绍、观摩演示、观看汇报片等形式，边看边听边交流，详细了解了抚州公安机关警务改革情况。', '座谈会上，市局党委副书记、常务副局长、改革办主任罗会明围绕“改革背景、改革目标、改革内容、改革做法、改革推进、改革成效、改革方向”等七个方面介绍了抚州公安“大部制”警务改革工作情况，双方就“如何破解改革难题、提升警务效能、激发队伍活力”等问题进行了深入探讨、交流。', '王文忠指出，在公安部改革办的推荐下，专程前来学习抚州公安警务改革工作，之前在《人民公安报》、公安部《公安工作简报》上对抚州公安“大部制”改革有了初步了解，今天通过实地参观，感觉百闻不如一见，考察时间虽短，收获很多，感受深刻。抚州公安以“自我革命”的精神，勇于创新、敢于担当，市县同步在精简机构、压缩层级、职能整合、下沉警力、机制创新等方面作了有益探索和实践，有效解决了信息壁垒、资源浪费、警力分散等制约公安发展的瓶颈性问题，做了我们多年来想做没做成、多年来想做没做好的事情，改革成效明显。尤其是以党建带队建，常态化绩效考核、合成作战、街面巡逻防控等工作，非常有特色有亮点。荆门公安之前在街面防控、重点人管控、联合情报作战中心等方面作了改革探索，在分局试点了“大部制”警务改革，我们在改革中遇到的问题，在抚州找到了答案，抚州公安的改革经验对荆门深化公安改革有着非常好的启发和借鉴作用，回去后将认真总结借鉴抚州“大部制”改革经验做法，推动荆门公安警务改革深入发展。希望抚州公安继续探索创新，树立标杆、勇立潮头，打造警务改革“抚州模式”，为我们创造更多可复制可借鉴的改革经验。同时，希望进一步加强交流合作，推动两地公安工作长足发展。', '市局党委委员、副局长、临川分局局长黄国平，市局党委委员、政治部主任周样兴等分别陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>127</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>抚州市农科所科技人员到九江学习考察稻鳖综合种养技术</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2017-11-24</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F11%2F24%2Fart_3826_854056.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_854056</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['11月22日，市农科所水稻原种场技术人员到九江市永修县稻鳖共生综合种养技术示范基地，学习发展“稻-渔”综合种养技术及其先进经验和做法。', '技术人员实地考察云山集团畜牧良种公司及永修县稻渔综合种养专业合作社的稻鳖共生综合种养技术示范基地，详细了解了基地目前的模式及存在问题。技术人员通过边学边问，开阔了视野，增长了见识，为推进“稻-渔”综合种养技术研发的提供参考样本。', '永修县稻鳖共生种养基地占地500亩，采取“公司+合作社+农户”的经营模式，亩产稻谷550公斤，全生态甲鱼（中华鳖）75公斤，每亩产值1.3万元，实现了稳粮增效、以渔促稻、生态环保、质量安全的效应。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>127</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>市城管执法局赴景德镇市学习考察城市管理工作</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2017-12-13</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F12%2F13%2Fart_3826_856045.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_856045</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['12月9日，抚州市城管执法局党委书记、局长尚江黎率领局班子成员、局属单位及机关科（室）主要负责人共20余人赴景德镇市城管执法局考察学习。考察以现场学习和座谈交流的形式进行。景德镇市城管执法局党委书记、局长林益真热情接待并全程陪同。 考察组一行首先来到蟠龙岗社区学习背街小巷提升改造经验。该社区按照“路平、水通、墙美、灯亮”的要求，对基础设施进行了大力改造和提升。小区宣传栏的一张张前后对比照片，让人看到了社区焕然一新的来之不易，也感受到了基层党组织的战斗力和凝聚力。看着规范的店招，适宜的生态停车场，餐饮店油烟净化外机的围挡，垃圾分类桶的设置，以及“党建+互联网”的智慧小区管理模式，尚江黎一边走一边看，并不时提醒有关单位人员用手机将与自己工作有关的内容拍照留存下来，以便在今后的工作中学习和借鉴。 大家还到老城区智能停车场进行了学习。该停车场位于老城区次干道，主要解决老城区市民逛街购物的停车需求，一共两层，外观与周围建筑融为一体，在停车费用的支付上采用了便捷的微信、支付宝等形式，同时可以通过停车场内的终端显示屏快速找到自己的车。尚江黎现场强调，法制科、分局要对接学习该停车场的选点建设和运行监管经验，力争探索出破解抚州市中心城区老城区停车难问题的方法。 为学习景德镇市的“城市双修”工作先进经验，考察组还现场考察了该市的地下综合管廊建设、运行和管理情况，尚江黎表示，景德镇的地下管廊建设走在抚州的前面，将为抚州市地下综合管廊试点路段的各类管线入廊运作提供有益的参考。 大家还现场观看了该市各类环卫设施的展示；参观了景德镇市数字城管指挥中心，观看了该中心的宣传视频。 现场调研结束后，双方召开了座谈会。会上，景德镇市城管执法局党委书记、局长林益真介绍了该局的工作情况，尚江黎同志代表抚州市城管执法局考察组向景德镇城管执法局的热情接待表示了衷心的感谢。双方人员就城管执法体制改革、环卫保洁外包、管线入廊管理、“两违”监管、数字城管运行和管理等方面广泛开展了学习交流。积极踊跃的提问，不厌其烦地回答，彰显了学习的认真，接待的热忱，也开启了两地城市管理经验交流的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>127</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>黑龙江省绥化市公安局来抚考察学习警务改革工作</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2017-08-30</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F8%2F30%2Fart_13_109149.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_109149</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['抚州市公安局“大部制”警务改革效果好、力度大、进度快、市县两级同步推进，已走在全国前列，具有很强的前瞻性和可操作性，改革的经验值得学习，改革的勇气令人钦佩！——黑龙江绥化市公安局考察组', '8月29日，黑龙江省绥化市青冈县县政府党组成员、公安局长赵东宁，绥化市公安局调研室主任朱学斗率考察组一行5人，到抚州考察学习公安警务改革工作。', '考察组一行首先在市局党委委员、政治部主任、综合管理部主任周样兴的陪同下，参观了市局科技信息部、侦查实战部、综合管理部、治安防控部，每到一处，考察组成员都认真听取PPT情况介绍，仔细查看资料台帐，边看边听边记，全面系统了解抚州公安警务改革的做法和成效。随后，考察组一行在市局党委委员、国内安全保卫部主任林旺前的陪同下，到金溪县公安局，听取观看了各部PPT、视频演示，详细了解了各部机构设置、资源整合、运行机制、科技支撑、绩效考核等工作情况。', '通过实地参观，考察组一致认为抚州“大部制”警务改革经验具有很强的前瞻性和可操作性，改革整合了警务资源、压缩了指挥层级，最大限度把警力摆上街面，提高了见警率和管事率；把由多个部门审核的公安行政审批变为一站式办理，方便了群众办事；以科技信息化为支撑，贯通平台、共享资源，推动了信息流、业务流、管理流“三流合一”；运用绩效考评，挖掘民警潜能，充分调动了民警的积极性和创造性。', '参观结束后，赵东宁同志指出，《人民公安报》头版头条推广了抚州的“大部制”警务改革经验，因此慕名前来学习。抚州市公安局“大部制”警务改革效果好、力度大、进度快、市县两级同步推进，已走在全国前列。特别是面对改革涉及公安体制性、机制性问题，触及到深层次利益调整，抚州市公安局勇于探索、大胆创新，这种迎难而上的改革勇气和担当更加令人钦佩。看了抚州公安警务改革的做法，不仅增强了我们的信心，更为我们提供了可供借鉴的经验做法。回去后将认真吸收消化抚州警务改革经验，加快推进我局警务改革力度和进度。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>127</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>宜春市人大来抚学习考察城市建设管理立法工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2017-11-03</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F11%2F3%2Fart_11_100154.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_100154</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['11月1日，宜春市人大常委会副主任黄渭高一行来到我市学习考察城市建设管理立法工作，并召开座谈会。市人大常委会副主任余建平出席座谈会并陪同考察。', '座谈会上，市人大法制委、市人大常委会法工委及市政府相关部门简要介绍了《抚州市立法条例》制定审议过程和《抚州市住宅小区物业管理条例&lt;草案&gt;》前期起草工作、一审情况；双方就相关立法工作的热点、难点问题进行了深入探讨。', '近年来，我市在立法工作上努力创新，积极探索，形成了一些好的工作机制。去年我市出台了第一部政府规章《抚州市人民政府拟订地方性法规草案和制定规章程序规定》，为规范政府立法活动提供了标准依据；以“五个一”的方式指导起草单位开展立法工作；法制办提前介入立法工作，全程指导起草和调研工作，凝聚立法合力；建立了立法项目月调度机制，及时掌握立法工作方向；出台了一系列有关委托第三方立法、规范公开征求意见、成立政府立法资金委员会等制度。', '黄渭高一行认为，抚州市扎根实际，找准方向，在城市建设管理立法工作上考虑完善、职权分明、可操作性强，为宜春做好相关立法工作提供了可借鉴的经验和做法，并期待今后继续加强交流。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>127</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>市果业局局长黄国锐带队赴浙江学习考察柑桔产业发展</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2017-02-23</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F2%2F23%2Fart_3826_865865.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_865865</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['为了加快推进我市柑桔产业发展，1月11日—1月13日，市果业局黄国锐局长带领部分市、县（区）农（果）业部门主要负责人、技术骨干及柑桔种植大户一行17人赴浙江省台州、衢州等地就柑桔产业发展进行学习考察。', '月13日，市果业局黄国锐局长带领部分市、县（区）农（果）业部门主要负责人、技术骨干及柑桔种植大户一行17人赴浙江省台州、衢州等地就柑桔产业发展进行学习考察。', '期间，考察队一行先后参观了浙江柑桔研究所及其柑桔种植资源圃和育种基地；临海市特产技术推广总站、涌泉新了不得、忘不了等柑桔专业合作社、柑桔产业技术协同创新中心试验基地；衢州市柑桔信息化示范基地、柑桔精品园、现代农业科技示范基地等地，实地了解当地柑桔产业的种植、生产和销售情况。并进行了座谈，认真听取了浙江柑桔研究所科研、临海市涌泉专业合作社等情况介绍，听取了有关负责人关于气候条件、栽植品种、栽培经验和管理技术、营销模式的介绍。', '期间，考察队一行先后参观了浙江柑桔研究所及其柑桔种植资源圃和育种基地；临海市特产技术推广总站、涌泉新了不得、忘不了等柑桔专业合作社、柑桔产业技术协同创新中心试验基地；衢州市柑桔信息化示范基地、柑桔精品园、现代农业科技示范基地等地，实地了解当地柑桔产业的种植、生产和销售情况。并进行了座谈，认真听取了', '临海市涌泉专业合作社等情况介绍，听取了有关负责人关于气候条件、栽植品种、栽培经验和管理技术、营销模式的介绍。', '学习考察中，考察队一行边看边听边问，实地观摩学习了当地现代柑桔产业发展取得的成果，深入了解在建设过程中以及品牌打造的主要做法和成功经验。并就柑桔产业结构的调整、柑桔高品质化栽培技术的推广、柑桔产业化基地建设、品种改良和市场营销、柑桔设施技术的研究与人才的合作交流进行了深入沟通交流、广泛探讨。', '考察后，市果业局黄国锐指出：这次外出学习考察针对性强，特别是对当地以科技为支撑，大力实施品牌战略，重视政策扶持，标准化生产，规模化经营，品质与品牌有机结合，全方位的营销大力发展柑桔产业，取得的显著成效印象深刻，深受启发。他强调，此次参观考察，我们既要看到不足，也要看到自己的优势，要在科学分析本地自然条件的基础上，学习和借鉴外地先进技术，在学习中找差距，在借鉴中促发展，要树标杆、创典型，学习先进经验，创新理念，开阔思路；要加强科研院校合作，引进优良品种；要提升总体规划，做好项目整合，完善基础设施；要拓宽销售渠道，营造良好宣传氛围，努力把我市柑桔产业提升到一个新水平。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>127</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>市民政局组织赴吉安学习考察社区建设先进经验</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F6%2F8%2Fart_3826_881816.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_881816</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['随后，在江南御景园小区就社区建设进行了座谈交流。着重围绕社区物业管理的新模式，社区管理创新发展的新经验和社区自治新思路，进行了互动交流，拓展了视野，开阔了思路，收效明显。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>127</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>抚州市统计局关于组织人员外出考察学习的通知</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2017-04-28</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F4%2F28%2Fart_321_835692.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_321_835692</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['为进一步加强统计工作交流，更好的学习借鉴外地统计业务、统计管理方面的工作经验。经研究，拟决定由市局领导带队，组织部分科长、县（区）统计局局长，赴安义县、进贤县考察学习。现将有关事项通知如下：', '企业入库工作、工业、投资、贸易统计数据质量管理、化解统计任务增加与统计工作人员不足矛盾办法等方面的先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>127</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>抚州市统计局赴浙江省湖州市学习考察自然资源负债表编制工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2016-04-25</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2016%2F4%2F25%2Fart_3826_848120.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_848120</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市统计局赴浙江省湖州市学习考察自然资源负债表编制工作', '人赴浙江省湖州市学习考察自然资源负债表编制试点工作。湖州市统计局总统计师钱中勇就该市开展自然资源负债表编制试点工作背景、开展情况和下一步工作安排等方面作了详细介绍。通过考察学习，对开展自然资源负债表编制试点工作有了更深更全面的认识，并就我市下一步工作将进行初步安排。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>127</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>抚州市住房公积金管理中心考察组赴兄弟市公积金中心学习调研</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-05-22</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F5%2F22%2Fart_3826_851342.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_851342</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市住房公积金管理中心考察组赴兄弟市公积金中心学习调研', '为制定《精细化管理实施方案》、改进完善《岗位责任制》、《年度工作目标考核管理办法》，做好“精细化管理年”活动的前期准备工作。市中心于4月11日至19日，由班子成员李世林同志带队，组织相关业务科室人员赴上饶、宜春、萍乡、益阳、长沙等五个兄弟市中心，就强化绩效考评，内部稽核审计，干部交流、档案管理、信息化系统“双贯标”建设等内容进行学习调研，并将学习到的好做法、好措施、好经验，充分借鉴吸收到市中心今年开展的“精细化管理年”活动的实施方案中。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>127</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>黑龙江省黑河市林业局来抚州市考察学习国有林场改革</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2015-09-21</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2015%2F9%2F21%2Fart_3826_862875.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_862875</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['7月14日黑龙江省黑河市林业局副局长高裕民一行4人赴我市南丰、崇仁县考察学习国有林场改革经验，省改革办吴长飞副站长及市林业局党委委员、调研员傅明等陪同考察。', '7月14日黑龙江省黑河市林业局副局长高裕民一行4人赴我市南丰、崇仁县考察学习国有林场改革经验，', '座谈会上，考察组一行分别听取了我市及南丰、崇仁二县国有林场改革情况介绍，市林业局党委委员、调研员傅明介绍了我市国有林场改革的重点、难点、要点及取得的成效，并针对黑河市考察团提出的问题一一予以答复。考察组一行详细了解我市推进国有林场改革的主要做法后，表示要把抚州市好经验好做法带回去，为黑龙江省黑河市国有林场改革提供参考与借鉴。', '介绍了我市国有林场改革的重点、难点、要点及取得的成效，并针对黑河市考察团提出的问题一一予以答复。', '考察组一行详细了解我市推进国有林场改革的主要做法后，表示要把抚州市好经验好做法带回去，为黑龙江省黑河市国有林场改革提供参考与借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>127</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>广昌县农业局领导赴泰和县学习考察牛人工授精站建设</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2014-08-22</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F8%2F22%2Fart_3826_864865.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_864865</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['2014年8月19日广昌县农业局、畜牧兽医局主要领导，在省农业厅畜牧技术推广站娄佑武站长的指导和联系下，赴我省泰和县学习考察牛人工授精站站房建设和冷配站的管理与运作联系落实了牛人工授精人员跟班培训等情况。', '这次考察得到了泰和县畜牧兽医局的大力支持，同时泰和县畜牧兽医局同意为我县分三批共计12人进行跟班培训牛人工授精员。在考察的同时，县畜牧兽医局在全县11个乡镇对愿意参加牛人工授精培训班人员进行摸底登记,据统计全县已有46人报名参训。', '12人进行跟班培训牛人工授精员。在考察的同时，县畜牧兽医局在全县11个乡镇对愿意参加牛人工授精培训班人员进行摸底登记,据统计全县已有46人报名参训。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>127</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>抚州市林业局赴福建考察学习营造林林木良种培育推广工作</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2014-08-11</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F8%2F11%2Fart_3826_859233.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_859233</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市林业局赴福建考察学习营造林、林木良种培育推广工作', '8月5日至6日，抚州市林业局党委委员、调研员傅明率市林业局总工傅家科，市林科所所长陈文和全市11个县（区）林业局局长，局营林、种苗相关科室负责人赴福建省南平市顺昌县和洋口林场考察学习营造林、林木良种培育推广工作。', '个县（区）林业局局长，局营林、种苗相关科室负责人赴福建省南平市顺昌县和洋口林场考察学习', '考察组先后实地考察了福建省顺昌县埔上林场林下套种红豆杉基地，洋口林场育苗示范基地、杉木组培生产车间、杉木定株经营示范基地、大径材培育示范基地、国家木材战略储备杉木速生丰产林建设基地，并在抚州市黎川县召开座谈会。', '通过此次考察，全体考察组成员收获颇丰、感触颇深。认为顺昌县国有林场营造人工复层异龄林，开展林下套种珍稀树种，推广不炼山造林、保留伐区异龄阔叶树的经营模式及福建在林木良种使用推广、洋口林场在森林资源培育采取集约化经营等方面的成功经验，值得我们学习和推广。', '认为顺昌县国有林场营造人工复层异龄林，开展林下套种珍稀树种，推广不炼山造林、保留伐区异龄阔叶树的经营模式及福建在林木良种使用推广、洋口林场在']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>127</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市园林绿化局赴赣州市就园林绿化管护工作进行学习考察</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2014-04-16</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F4%2F16%2Fart_3826_3797359.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3797359</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['为进一步提高我局园林绿化管护水平，巩固创建国家园林城市工作成果和有效提升我市城市形象及综合竞争力，4月9日至11日，市园林绿化（风景名胜管理）局业务科室及局属各管护中心考察组一行18人在胥保华副局长的带领下前往赣州市园林绿化局', '4月10日上午，赣州市园林绿化局分管领导分别介绍了近年来赣州市园林绿化管理模式和具体运作情况，并就园林绿化、城市道路及公园管理模式、养护管理经验及养护标准等与我局考察组一行进行了共同探讨和实地考察']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>127</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>南丰县组团赴泰和县考察学习林业科技推广项目</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2014-04-02</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F4%2F2%2Fart_3826_870063.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_870063</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['为进一步做好林业科技推广工作，学习和借鉴好的经验和做法，南丰县林业局于3月26日至28日，组织县林业技术推广站、傅坊林场技术人员和县林业科技推广示范基地及林业科技推广示范户代表一行8人，赴吉安市泰和县考察学习林业科技推广项目管理和标准化林业科技推广示范基地建设，通过实地考察学习和参观座谈，使参加考察学习者进一步开阔了眼界，增长了见识。', '此次考察主要参观学习了泰和县林业技术推广站能力建设和标准化林业科技推广楠木培育示范基地建设，详细了解了楠木栽培及繁育技术，并与泰和县林业技术推广站马站长及楠木培育示范基地负责人进行了技术交流和座谈。考察学习结束后，南丰县林业局及时开展了以“送政策、送科技、送种苗”为主题的林业科技下乡活动，投入3万元购买了1.5万株2年生容器楠木苗无偿提供给1家林业科技推广示范基地及2户林业科技推广示范户，专题推广楠木栽培及繁育，将林业科技和政策法规送到企业和林农家门口，将此次考察学习到的外县先进经验和做法，贯彻落实到实际工作中，齐心协力，使林业科技推广项目管理和能力建设水平再上新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>127</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>黄赛荣副市长一行赴永康市等地学习考察城市建设工作</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2012-10-31</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F10%2F31%2Fart_3826_839725.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_839725</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['至24日，市政府副市长黄赛荣率领市建设局、市国土局、市规划局、市房管局、市工商联等有关单位负责同志，先后赴浙江省永康市、绍兴县、杭州市以及南昌市等地学习考察总部经济中心建设、城市规划管理、重点项目推进、征地拆迁安置等工作。市政府副秘书长黄武平陪同考察。', '如何学习借鉴外地总部经济中心规划设计、开发模式、管理方法、入驻企业激励政策的成功经验，是此行学习考察的重点。永康市与绍兴县虽然都是县级城市，但都在2007年前后启动了总部经济中心建设，提升了城市综合功能，改善了城市形象，成为城市一道亮丽的风景线，尤其在吸引企业入驻总部经济中心方面，两地均取得了很好的成效，经验值得借鉴。考察组一行边听边看边问，仔细参观了已建成部分的总部大楼及在建的人才公寓、酒店等项目建设情况，并与入驻企业进行了深入交谈，受益匪浅。', '在杭州，考察组参观了杭州市规划展示馆、钱江新城区建设及仿古建筑一条街，听取了杭州市政府关于项目建设的有关情况及征地拆迁方面的工作经验介绍。在南昌，考察组重点考察了总部经济中心建设，实地参观了博能中心、万达广场等项目建设，并进行了座谈交流。', '上午，黄赛荣副市长主持召开学习考察总结会，对外地好的做法和成功经验进行了认真的归纳梳理，力争把各地的先进经验有效的结合到我市今后的城市建设工作中。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>127</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>金溪县民宗局组织人员到资溪县新月畲族村学习考察</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2011-01-18</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2011%2F1%2F18%2Fart_3826_877570.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_877570</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['为了学习借鉴资溪县新月畲族村新农村建设的先进做法和经验，稳步推进该县唯一的少数民族村—兰家畲族村小组的新农村建设进程。8月12日，金溪县民族宗教事务局组织局机关干部、对桥乡驻村干部、太坪村干部、兰家新农村建设点理事会成员一行共8人到资溪县新月畲族村学习考察，学习考察人员在新月畲族村村主任的陪同下，先后参观考察了新月村的新建、新红、月山、猪场四个村小组新农村建设点，并与当地干部座谈交流，学习经验。“他山之石，可以攻玉”，通过这次参观和考察，大家受益匪浅，开阔了眼界，获得了宝贵经验和有益启示。学习考察团村干部纷纷表示，回去后将结合自己的实际，学习借鉴好新月村饱含独特民族风情的新农村建设风格，努力把兰家畲族村小组建设成为饱含浓郁民族文化气息的新农村建设示范村。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>127</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>我市赴湖南益阳长沙两市考察学习国家森林城市创建工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2013-06-08</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F6%2F8%2Fart_3826_862222.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_862222</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 我市赴湖南益阳、长沙两市考察学习国家森林城市创建工作', '为加快推进“森林抚州”创建步伐，6月3日至5日，我市创建“森林抚州”活动领导小组组织市直有关部门分管领导、各县（区）林业局主要负责人及市创森办工作人员共27人赴湖南益阳、长沙两市考察学习国家森林城市创建工作的成功经验。', '考察组实地参观了两市创建国家森林城市评估点现场，涉及城市绿化、森林公园、湿地公园、森林村庄、生态文明建设等项目。益阳市2005年市启动国家森林城市创建工作， 2010年底市委、市政府作出加快创建国家森林城市的重要决策，2012年初国家林业局组织检查组到益阳市检查验收，同年7月获得“国家森林城市”称号。长沙市2002年启动国家森林城市创建工作，2006年成功创建国家森林城市，是全国第三个成功创建国家森林城市的城市，2012年被评为全国国土绿化突出贡献单位。两市通过高起点规划、高标准实施、各单位联动齐抓共管等措施扎实有效推动了国家森林城市创建工作的经验做法给考察团留下了深刻印象，对指导我市创建工作具有很强的借鉴意义。', '城市绿化、森林公园、湿地公园、森林村庄、生态文明建设等项目。益阳市2005年市启动国家森林城市创建工作， 2010年底市委、市政府作出加快创建国家森林城市的重要决策，2012年初国家林业局组织检查组到益阳市检查验收，同年7月获得“国家森林城市”称号。长沙市2002年启动国家森林城市创建工作，2006年成功创建国家森林城市，是全国第三个成功创建国家森林城市的城市，2012年被评为全国国土绿化突出贡献单位。两市通过高起点规划、高标准实施、各单位联动齐抓共管等措施扎实有效推动了国家森林城市创建工作的经验做法给考察团留下了深刻印象，对指导我市创建工作具有很强的借鉴意义。', '对照《国家森林城市评价指标》五大体系、40项指标，下一步我市将有针对性地找差距、思对策，加大我们创建的工作力度。一要加强生态文化教育基地建设，如在全市各类公园设立各具特色的宣传栏。二要加大宣传力度，要在中国绿色时报、中国绿色画报等主流媒体做专题宣传。三要组织自查，查漏补缺，准备迎检料，制作自查材料。', '对照《国家森林城市评价指标》五大体系、40项指标，下一步我市将有针对性地找差距、思对策，加大我们创建的工作力度。', '一要加强生态文化教育基地建设，如在全市各类公园设立各具特色的宣传栏。二要加大宣传力度，要在中国绿色时报、中国绿色画报等主流媒体做专题宣传。三要组织自查，查漏补缺，准备迎检料，制作自查材料。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>127</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>九江市林业局赴我市学习考察国家森林城市创建工作</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2013-11-07</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F11%2F7%2Fart_3826_849455.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_849455</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['11月5日，九江市林业局党委书记、副局长曾宪奎率队赴我市学习考察国家森林城市创建工作，实地考察了抚州市汝水森林公园、名人雕塑园、梦湖，并与我市林业局领导及相关科室负责人进行了座谈交流。', '座谈会上，市林业局局长帅歌柳详细介绍了我市创建国家森林城市工作的主要经验、做法，局相关负责人就我市创建森林城市情况作了一一介绍。双方就如何做好创建国家森林城市工作进行了交流和探讨。曾宪奎书记表示抚州创建森林城市的经验和做法非常值得学习，此次考察启发大、收获大，为九江市创建国家森林城市提供了可以借鉴的宝贵经验。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>127</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>临川温泉建领导小组赴宜春安福温泉考察学习</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2011-11-23</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2011%2F11%2F23%2Fart_7_557685.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_7_557685</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['为全面促进我区日月温泉项目建设的开展，推进我区重点项目建设工作，在临川区副区长黄强同志的带领下，我区温泉旅游开发相关部门同志于2011年11月17-18日对宜春明月山温泉及安福县武功山嵘源温泉进行了专项考察学习，重点了解景区管理委员会的机构设置情况、景区管理体制、管理模式及管理经验、旅游开发优惠政策、拆迁安置情况等。听取当地旅游局、温泉管委会负责人的有关工作介绍后进行了热烈的讨论，提出下一步温泉建设的合理化建议。', '通过此次考察学习，收获较多。成功的经验可以借鉴，失败的教训要避免重蹈覆辙，少走弯路。对于我区温泉建设有重大现实指导意义。我们要用发展的眼光解决前进中的问题，抢抓机遇，提高效率，争取政策、用好政策，搞好公共关系，让临川人民早日目睹温泉壮景，为加快建设幸福抚州作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>127</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>抚州市农业局组团赴山东寿光学习考察蔬菜产业发展</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2010-12-16</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2010%2F12%2F16%2Fart_3826_866993.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_866993</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['为了加速我市农业产业结构调整的进程，着力培育蔬菜主导产业，构建农民增收的长效机制。根据市政府主要领导的指示，由市农业局周跃飞局长带队，组织临川、崇仁、金溪、资溪和东乡五县（区）农业局主要负责同志，于10月27-30日，分别赴山东寿光蔬菜集团种苗基地实地、山东省寿光市寿光农产品物流园、山东（寿光）洛城农发有限公司、寿光蔬菜科技博览园、寿光市农业局和潍坊市农业局学习蔬菜产业发展的经验。', '寿光蔬菜种植有悠久的历史, 是世界上第一部农学巨著《齐民要术》作者贾思勰的故乡，是全国冬暖式蔬菜大棚的发源地，是中国最大的蔬菜生产基地,也是国家最早命名的 “中国蔬菜之乡”。 先后与30多个国家加强了科技交流，引进推广了800多个蔬菜新品种，成为享誉海内外的“蔬菜生产联合国”、“中国一号菜园子”。', '近年来，寿光大力推行蔬菜产业化、抓好标准化、产品国际化的生产，对蔬菜生产进行全程质量控制，创出了企业连基地、基地带农户的产加销一条龙模式，“欧亚特”蔬菜、“乐义”蔬菜、“洛城”特菜等30多个品牌蔬菜走红市场，畅销全国200多个大中城市并出口海外。2009年全市实现财政收入44.1亿元，其中地方财政收入25.1亿元，农民人均纯收入8274元，农民人均纯收入的70%来自蔬菜产业。', '考察组的同志一致认为，学习考察时间虽短，但山东寿光之行让大家身临其境地看到农业发达地区的成就，使大家亲身感受到现代农业、创汇农业、板块农业在创新中领跑着我国农业的发展，他们的经验值得大家认真地学习，他们的发展给了大家很多有益的启示，对加快我市蔬菜产业发展具有重要的借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>127</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>市政府组团学习考察南昌县农业产业化经营工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2009-08-25</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2009%2F8%2F25%2Fart_3826_869924.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_869924</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['5月4日上午，以抚州市政府副市长黄赛荣为团长、市长助理赵元泰为副团长的市农业产业化考察团率各县（区）分管农业县长，市、县（区）农业（畜牧）局长和部分龙头企业负责人共40余人赴南昌县蒋巷镇学习考察农业产业化经营工作，考察了江西国旺实业有限公司、江西国鸿集团有限公司、湖光山舍田园农庄和国鸿农庄，听取了南昌县农业产业化工作经验介绍，考察内容丰富，取得了圆满成功。近年来，南昌县加快推进农业农村现代化，突出产业集聚，打造新型农业产业化示范区，着力抓好“两园一廊”建设，即南昌现代农业科技产业园区、蒋巷现代农业示范园和黄马“两江”生态农业走廊；重点扶持了煌上煌集团、国旺实业、国鸿集团、汇仁集团等带动能力较强的龙头企业，龙头企业迅速做大做强。 从南昌县学习考察返回后，我市即在抚州召开座谈会，谈体会、找差距、谋发展。黄赛荣指出：南昌县农业产业化发展有很多特点和创新，我市在发展农业产业化进程中，要借鉴其成功经验，又立足自身优势，进一步解放思想，更新发展观念，增加投入，加快推进我市农业产业化又好又快发展。一是解放思想，更新发展观念。各级政府和有关部门要进一步解放思想，优化农业产业化发展环境，以工业理念抓农业，树立农业产业化就是抓工业，抓龙头企业就是抓加工业的理念。二是立足市情，完善发展思路。制定全市农业产业化发展规划；建设抚州现代农业科技产业园区；各县（区）选准1—2个项目，集中投入，做强做大。三是增加投入，创新融资机制。增加财政投入；成立抚州市农业产业化龙头企业信用担保有限责任公司；推动政策性农业保险业务的开展。四是整合资源，做优做强精品。整合各类农业项目和资金到二至三个项目区内，建设好抚州中国现代农业城、抚州蔬菜标准化示范基地、八达米业集团万亩高产创建示范基地和深加工项目。五是内外结合，培育龙头企业。继续抓好全省“双十双百双千”工程；依托资源优势，引进一批产业关联度大、辐射带动面广的农产品加工龙头企业。六是重视流通，抓好市场建设。培育农产品专业市场；抓好抚州农产品物流中心建设；参与和举办农产品展示展销活动，进一步提升抚牌农产品的市场竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>我局传达学习胡锦涛总书记考察江西时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2009-02-24</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2009%2F2%2F24%2Fart_3826_858832.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_858832</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['月1日，春节后上班第一天，我局传达学习胡锦涛总书记考察江西时所作的重要讲话精神。局长周跃飞主持会议并作讲话，局领导班子及科级干部参加会议。', '周跃飞局长指出：全局上下要认真学习、深刻领会胡总书记讲话实质，掀起学习贯彻热潮，把思想和行动统一到胡锦涛总书记的重要讲话精神上来，进一步深入贯彻落实科学发展观，以贯彻、落实胡锦涛总书记在江西考察工作时的重要讲话精神为强大动力，认真履行工作职责，以昂扬的斗志，切实做好各项工作，为我市实现赶超发展作出贡献。', '强调全局要紧抓水利事业发展的机遇，以人水和谐为宗旨，以改善民生为主线，结合工作实际，做到月初有安排，月终有总结，不断积累工作经验，发扬“献身、负责、求实”的水利精神，全面推进各项水利事业发展，为在新的起点上把抚州赶超发展推向新阶段而努力奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>市司法局赴武汉黄山两市学习考察社区矫正工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2009-12-31</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2009%2F12%2F31%2Fart_3826_854480.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_854480</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['为了积极准备在全市开展社区矫正工作、学习借鉴外地好的经验做法，12月21日至26日，我市社区矫正考察团一行14人在市司法局党组成员、副局长崔勇健同志的带领下赴武汉、黄山两市学习考察社区矫正工作。 在武汉市，考察团一行参观了汉阳区洲头街司法所心理咨询室、社区矫正帮教安置工作信息化管理系统等，并就社区矫正队伍建设、心理矫治的开展、矫正对象日常管理、信息化平台的建设等方面与武汉市司法局、汉阳区司法局工作人员进行了交流。在黄山市，考察团与黄山市司法局、屯溪区司法局就社区矫正工作机制、矫正对象帮扶、矫正基地建设等情况进行了座谈，并参观了屯溪区阳湖镇司法所，对该区基层司法所的机构设置、人员配备等情况进行了了解，并就基层司法所在社区矫正工作方面的职能发挥进行了探讨与交流。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>127</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>抚州市农业局组团赴山东学习考察农业产业化管理工作</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2008-08-20</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2008%2F8%2F20%2Fart_3826_847303.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_847303</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['为促进我市农业产业化的发展，实现农业结构战略性调整，增加农民收入，推动农业经济的持续健康快速发展。11月25日—11月1日，抚州市农业局副局长胡龙辉带队，组织各县区农业局负责同志一行10人，先后到山东省潍坊市、烟台市、威海市学习考察有关蔬菜产业、农产品深加工、发展出口型农业方面的先进经验。', '大家对三地农业产业化发展中的龙头企业规模大、带动作用强、产业链条长、联系基地农户紧，政府引导有力，服务组织健全均留下了很深的印象。', '通过这次学习考察，大家进一步开阔了视野，拓宽了思路，明确了目标，纷纷表示要创新思路，创新工作，将农业产业化作为农业发展和增加农民收入的主要抓手，以市场为导向，以科技为支撑，以壮大龙头企业为突破口，以优质农产品生产基地为依托，以品牌为战略，全面推进我市的优质农产品和特色产业的壮大发展，构筑农业产业化发展的新格局。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>127</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团集中宣讲综述</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F12%2F22%2Fart_23717_4123631.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_23717_4123631</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['抚州市人民政府 深入学习贯彻习近平总书记在江西考察时的重要讲话精神 学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团集中宣讲综述', '冬季的赣抚大地，宣讲学习热潮涌动。从各县（区）到市直机关、从国资系统到卫健系统……近段时间以来，学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团集中宣讲持续开展，市委宣讲团成员以宏大视角和鲜活事例，对习近平总书记考察江西重要讲话精神进行生动阐述，在我市持续引发热烈反响。', '“热气腾腾”的宣讲、贴近基层的解读，让全市广大党员干部群众深受教育鼓舞。大家纷纷表示，要准确把握习近平总书记考察江西重要讲话的重大意义和丰富内涵，将其转化为推动改革发展的强大动力和担当实干的具体行动，凝聚起奋进新征程、建功新时代的磅礴力量。', '市委高度重视习近平总书记考察江西重要讲话精神学习宣传贯彻工作。市委书记魏晓奎率先垂范，深入东乡区和东临新区，向基层干部群众宣讲习近平总书记考察江西重要讲话精神。他强调，要深刻领会总书记考察江西的重大意义和赋予江西发展的新定位新使命，牢记嘱托、感恩奋进，扎实做好各项工作，推动习近平总书记考察江西重要讲话精神不折不扣落实到位。', '10月17日，市委常委会（扩大）会议召开，要求全市各级各部门把学习宣传贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务和头等大事，精心组织实施，迅速掀起学习宣传贯彻热潮。', '11月17日，学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团动员会召开，强调要务求宣讲实效，创新宣讲方式，以通俗易懂、深入浅出的方式推动习近平总书记考察江西重要讲话精神在全市各地落地生根、开花结果。', '市委组建学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团，17位市委宣讲团成员从12月上旬开始奔赴各县（区）、市直机关、国资系统、教育系统、卫健系统等地，采取群众喜闻乐见的形式，用心用情用力宣讲，让广大党员干部群众在春风化雨中领悟习近平总书记考察江西重要讲话精神的精髓要义、丰富内涵、实践要求。', '“要聚焦‘走在前、勇争先、善作为’的目标要求，以更高的政治站位、更强的责任担当、更实的工作举措，推动学习宣传贯彻工作走深走实、见行见效。”在临川区，市委宣讲团成员、市委副秘书长、市委办公室主任付红星从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的新的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求五个方面作了系统全面的宣讲报告，为临川更加深入学习贯彻总书记考察江西重要讲话精神提供了精准有力的指导。', '一场场“干货”满满的宣讲报告，犹如“及时雨”，扎实有效地推动习近平总书记考察江西重要讲话精神走进基层、走进群众。', '习近平总书记强调，确保老区人民共享改革发展成果，过上幸福生活，是推进全体人民共同富裕的底线任务。市委宣讲团围绕持续保障和改善民生开展宣讲，引导党员干部深入践行以人民为中心的发展思想，持续增进民生福祉，推动发展成果惠及民生、凝聚人心，提升人民群众的获得感和幸福感。', '市妇幼保健院党委书记万文华表示，将聚焦“走在前、勇争先、善作为”的目标要求，真抓实干、开拓进取，改善群众就医体验，提升医疗服务质量，提升临床专科能力，助力我市卫生健康事业高质量发展。', '市国资委党委书记、主任黄有盛说，未来将深入学习宣传贯彻习近平总书记考察江西重要讲话精神，紧密结合市属国有企业功能定位，积极指导国企发挥服务保障民生的职能作用，使国企改革更好对接战略所需、发展所向、群众所盼。', '市委宣讲团成员用接地气、冒热气的宣讲，把习近平总书记重要讲话重要指示精神讲全讲准、讲清讲透，让广大干部群众倍感振奋，凝聚了基层的磅礴干劲。', '理解逐步加深。“宣讲报告振奋人心，让我对习近平总书记考察江西重要讲话精神有了更深的理解。”市财政局副局长周鹏祥表示，作为一名财政系统干部，要牢记总书记殷殷嘱托，以打造财政模范机关为抓手，主动融入全市发展大局，积极靠前服务，全力推动财政事业高质量发展。', '共识正在凝聚。“作为文旅战线上的工作者，将把习近平总书记考察江西重要讲话精神全面落实到文旅工作中。”乐安县文广新旅局局长赵晶表示，接下来将深挖县域内红色、古色、绿色等文旅亮点，加强文物保护和文艺精品创作，激活文旅市场活力，促进文旅产业融合；积极采取“文旅+”模式，强化旅游体验，整合推出多条精品旅游线路，进一步拓展市场，全面提升乐安旅游品牌影响力。', '方向愈加明晰。“宣讲使我们在新时代新征程的奋斗目标更加清晰。”抚州高新区城西街道党工委书记徐胜来表示，作为一名基层党员干部，在今后的工作中，将深刻领会习近平总书记考察江西重要讲话精神的丰富内涵和实践要求，切实把习近平总书记考察江西重要讲话精神全面贯彻落实到日常工作中，真正做到下沉社区，发挥专业能力促进基层社区治理，设身处地服务一线群众。', '干劲更加充足。“习近平总书记重要讲话重要指示精神让我们的方向更清晰，干事创业的步伐更坚定。”崇仁县委党校专职教师徐欣欣表示，要充分发挥党校理论宣讲主阵地作用，深入机关、学校、村（社区）、企业开展宣讲，让习近平总书记考察江西重要讲话精神“飞入寻常百姓家”。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>127</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>市知联会学习贯彻习近平总书记考察江西重要讲话精神座谈会召开</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F10%2F27%2Fart_11_4095382.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4095382</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['抚州市人民政府 抚州要闻 市知联会学习贯彻习近平总书记考察江西重要讲话精神座谈会召开', '10月26日，市知联会学习贯彻习近平总书记考察江西重要讲话精神座谈会召开。副市长、市知联会会长蔡青出席并讲话。', '会议传达学习了习近平总书记考察江西重要讲话精神、在进一步推动长江经济带高质量发展座谈会上的重要讲话精神和全省、全市领导干部会议精神。与会代表围绕学习贯彻习近平总书记考察江西重要讲话精神作了交流发言。', '蔡青指出，要从习近平总书记系列重要讲话精神中找遵循，在深学笃行中彰显矢志追随的思想自觉，通过专题教育、理论宣讲、现场教学、座谈讨论、调研实践等方式，在全市党外知识分子中迅速兴起学习宣传贯彻热潮。要从习近平总书记系列重要讲话精神中找方向，在融会贯通中体现服务发展的行动自觉，不断提升市知联会围绕中心、服务大局的水平。要从习近平总书记系列重要讲话精神中找定力，在自身建设中提升强基固本的政治自觉，为推动抚州高质量发展凝聚智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>127</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团深入东临新区和市国资系统宣讲</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F12%2F21%2Fart_23717_4123329.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_23717_4123329</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['抚州市人民政府 深入学习贯彻习近平总书记在江西考察时的重要讲话精神 学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团深入东临新区和市国资系统宣讲', '近日，学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团报告会在东临新区和市国资系统举行，市委宣讲团成员、赣东学院马克思主义学院院长邹志坚和市委宣讲团成员、市国资委党委书记、主任黄有盛分别作宣讲报告。', '报告会从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西的重要实践要求等方面作了全面系统的宣讲和阐述，报告主题鲜明、内容丰富、深入浅出，既有深刻的理论内涵，又有生动的阐述说明，对广大党员干部进一步深刻理解和把握习近平总书记考察江西重要讲话精神，具有很强的指导意义。大家纷纷表示，在今后的工作中，将切实把习近平总书记考察江西重要讲话精神转化为具体工作思路和举措，聚焦“走在前、勇争先、善作为”的目标要求，积极履职尽责，主动担当作为。', '东临新区七里岗乡党委书记戴华俊表示，报告会让我们更加深入地学习和理解了习近平总书记考察江西重要讲话精神，更加坚定了干事创业的信心和决心。我们要坚持以习近平新时代中国特色社会主义思想为指引，将学习成果落实到实际工作中，不断开拓工作思路、创新方法举措，紧紧围绕中心、服务大局，积极履职尽责，带头深入一线，认真听民声、察民情、解民忧、聚民心，切实解决好人民群众的急难愁盼问题，不断增强人民群众的获得感、幸福感、安全感。', '市国资委党群工作科干部黄慧表示，作为一名国资系统青年干部，要自觉从坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，切实把习近平总书记考察江西重要讲话精神贯彻落实到国资国企改革发展和党的建设等工作各方面、全过程，不断提高政治判断力、政治领悟力、政治执行力，提升业务能力，锤炼过硬本领，在奋斗中践行初心使命，将学习成果转化为助推国资国企高质量发展的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>127</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>抚州市律师行业党委召开专题会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F1%2Fart_3826_4097399.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4097399</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市律师行业党委召开专题会议传达学习习近平总书记考察江西重要讲话精神', '10月23日下午，抚州市律师行业党委召开专题会议。会议传达学习了习近平总书记在江西考察时重要讲话精神，并就全市律师行业深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育作进一步部署安排。市律师行业党委书记谢荣生主持会议并讲话，市律师行业党委委员出席会议并逐一交流发言。', '会议指出，习近平总书记对江西革命老区发展的关心关怀、高度重视和殷切期望，是今后推进司法行政和律师行业高质量发展的根本遵循和行动指南。学习习近平考察江西重要讲话精神是当前和今后长期坚持的首要政治任务，是主题教育理论学习的重要内容。', '会议要求，律师协会、律师事务所党支部和全市律师要深入学习领会习近平总书记在江西考察时的重要讲话精神，反复学习，深学细悟，并贯穿到律师行业主题教育全过程，落实到律师行业政治学习的第一议题，笃定前行，切实用习近平考察江西重要讲话精神武装头脑，指导推动工作。', '会议强调，全市律师必须明确在全省律师行业的“定位”，找准差距，务实举措，推进高质量发展。必须牢牢把握让群众过上幸福生活，共享改革发展成果这个“底线任务”，诚信执业，进一步提高法治体检、律师公益普法等实效，落实好法律援助法，满足群众的法律需求。必须紧盯行业定位，选准“发展模式”，着力在发挥律师队伍、规范律师执业、拓展律师服务等方面抢位发展，实现工作提质增效；必须深入推进学习贯彻习近平新时代中国特色社会主义思想主题教育，强化理论学习，加强行业调研，转化调研成果，确保用“实实在在”成效来检验主题教育。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>127</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神省委宣讲团报告会举行</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F7%2Fart_11_4099383.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4099383</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['抚州市人民政府 抚州要闻 学习贯彻习近平总书记考察江西重要讲话精神省委宣讲团报告会举行', '11月6日，学习贯彻习近平总书记考察江西重要讲话精神省委宣讲团报告会在我市举行。市委书记魏晓奎主持并讲话。他强调，全市上下要深入学习宣传贯彻习近平总书记考察江西重要讲话精神，坚定拥护“两个确立”、坚决做到“两个维护”，聚焦“走在前、勇争先、善作为”的目标要求，牢记嘱托、感恩奋进，以更高的政治站位、更强的责任担当、更实的工作举措，推动学习宣传贯彻工作走深走实、见行见效，奋力谱写中国式现代化抚州篇章。', '省委宣讲团成员、省委宣传部分管日常工作的副部长傅云作宣讲报告。市人大常委会主任王宏安、市政协主席贺喜灿等市四套班子领导，省委第三巡回督导组副组长徐志鸿及督导组成员参加。', '傅云从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的新的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面作了系统全面的宣讲报告，并围绕抚州中心工作提出指导性建议。傅云指出，要深入学习贯彻习近平总书记考察江西重要讲话精神，全面落实省委十五届四次全会部署，聚焦“走在前、勇争先、善作为”的目标要求，以奋起赶超的雄心壮志，以真抓实干的责任担当，加快建设现代产业新区、生态康养名城、文化创新强市，努力为谱写中国式现代化江西篇章贡献抚州力量。要结合自身特色，深入推进国家生态产品价值实现机制试点市和全省生态文明先行示范市建设。要加快推进农业产业化，做强做大广昌白莲等“赣”字品牌。要利用好丰富的红色资源，发挥好电影《浴血广昌》和电视剧《大道薪火》等传播优势，大力传承红色基因。', '就抓好学习宣传贯彻习近平总书记考察江西重要讲话精神工作，魏晓奎强调，要切实把习近平总书记对江西一以贯之的关心关怀转化为拥护“两个确立”、做到“两个维护”的坚定自觉，充分认识习近平总书记考察江西的重大意义，进一步增强贯彻落实习近平总书记考察江西重要讲话精神的思想自觉、政治自觉和行动自觉，以更加优异的成绩回报总书记对江西发展的关心、对老区人民的厚爱。要切实把习近平总书记对江西改革发展的殷切期望转化为“走在前、勇争先、善作为”的强大动力，坚定“走在前”的信心、增强“勇争先”的志气、扛起“善作为”的担当，加快推动抚州原中央苏区高质量发展，努力在推动中部地区崛起上展现抚州更大作为，在推进长江经济带高质量发展上作出抚州贡献。要切实把习近平总书记为江西擘画的宏伟蓝图转化为推动抚州高质量发展的生动实践，着力构建体现抚州特色和优势的“一核多极”现代化产业体系，积极融入南昌都市圈和共建“一带一路”，毫不动摇抓好粮食生产，做强做大农业特色产业，唱响“文化抚州、梦想之舟”品牌，持续增进老区人民福祉，用实干实绩向群众交出写满幸福的“民生答卷”。要切实把习近平总书记提出的三个“实实在在”重要要求转化为高质量开展主题教育的实际成效，在深化、内化、转化上下真功求实效，实实在在抓好理论学习和调查研究；在即改、真改、实改上下真功求实效，实实在在检视整改突出问题；在答题、解题、破题上下真功求实效，实实在在办好惠民利民实事，真正用实干推动发展、取信于民。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>127</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团动员会召开</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023-11-19</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F19%2Fart_23717_4105551.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_23717_4105551</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['抚州市人民政府 深入学习贯彻习近平总书记在江西考察时的重要讲话精神 学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团动员会召开', '11月17日，学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团动员会召开。市委常委、市委宣传部部长孙鑫出席并讲话，市委宣讲团成员，各县（区）委常委、宣传部部长参加会议。', '孙鑫指出，学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神，是当前和今后一个时期全市上下的首要政治任务和长期任务。市委宣讲团成员要充分认识开展习近平总书记考察江西重要讲话精神宣讲工作的重大意义，全面深入贯彻落实习近平总书记考察江西重要讲话精神，紧密结合抚州发展实际，把习近平总书记为江西擘画的宏伟蓝图变成现代化抚州生动实践的重要举措。', '孙鑫强调，要提高政治站位，把准导向宣讲，充分认识集中宣讲的重大意义，把习近平总书记的关心厚爱转化为精神力量与强大动力，因地制宜、解疑释惑，用习近平总书记考察江西重要讲话精神武装头脑、指导实践、推动工作。要领会精髓要义，紧扣主线宣讲，全面系统深入把握宣讲内容。要把握精髓要义，全面系统深入把握宣讲内容，努力把广大党员干部和社会各界群众的思想和行动统一到习近平总书记考察江西重要讲话精神上来，转化到担当实干的具体行动中去。要务求宣讲实效，创新宣讲方式，用好事实数据、故事案例，紧密联系抚州发展实际、群众生产生活，以通俗易懂、深入浅出的方式推动习近平总书记考察江西重要讲话精神在全市各地落地生根、开花结果。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>127</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>走在前勇争先善作为抚州市林业局深入学习贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F10%2F23%2Fart_3826_4093976.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4093976</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 【走在前 勇争先 善作为】抚州市林业局深入学习贯彻习近平总书记考察江西重要讲话精神', '抚州市林业局召开党组理论学习中心组（扩大）集体学习研讨会议 专题传达学习习近平总书记考察江西重要讲话精神。', '10月22日，抚州市林业局召开党组理论学习中心组（扩大）集体学习研讨会议，专题传达学习习近平总书记考察江西重要讲话、在进一步推动长江经济带高质量发展座谈会上的重要讲话、省委常委会（扩大）会议、全市领导干部会议精神。市林业局领导班子成员紧扣学习主题，紧密结合自己分管领域工作，谈认识、谈体会、谈打算、市林业局党组书记、局长吴开发主持并讲话。', '会议指出，习近平总书记时隔四年再次亲临江西考察并发表重要讲话，这是全省人民政治生活中的大事、喜事，充分体现了习近平总书记对江西的巨大关怀，对老区人民的深情厚爱，对江西发展一以贯之的关心关怀和殷切期望。习近平总书记在上饶市婺源县秋口镇王村石门自然村，详细了解湿地公园和蓝冠噪鹛保护等情况时指出，优美的自然环境本身就是乡村振兴的优质资源，要找到实现生态价值转换的有效途径，让群众得到实实在在的好处。习近平总书记在听取江西省委、省政府工作汇报时强调，要', '“发展林下经济，开发森林食品，培育生态旅游、森林康养等新业态。”习近平总书记的重要讲话，让林业工作者深受鼓舞、倍感振奋，为全市林业系统坚定不移做好建设好、保护好、利用好绿水青山三篇文章，突出抓好林业产业高质量发展指明了前进方向、提供了根本遵循、注入了强大动力。', '会议强调，学习宣传贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期全局上下的首要政治任务和头等大事。全局上下要提高政治站位，统一思想认识，结合工作实际，多措并举抓好学习宣传贯彻工作。', '要结合正在开展的第二批主题教育的部署安排，把学习习近平总书记考察江西重要讲话精神纳入学习研讨计划，要推动全局广大党员干部切实把思想和行动统一到习近平总书记考察江西重要讲话精神上来。', '“拼搏四季度、夺取全年胜”的关键时刻，我们要以习近平总书记考察江西为强大动力，全力抓好各项重点工作。在“林长制”考核上要“走在前”；在全国林业改革发展综合试点工作上要“勇争先”；在“千万资源变千亿产值行动”上要“善作为”。', '“九查九改”干部作风整顿活动，坚定克服作风漂移、形式主义等不良作风，大力发扬脚踏实地、埋头苦干的优良工作作风，真正把压实责任抓落实摆在第一位，把抓落实作为完成各项工作任务的第一要求。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>127</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>市公安局召开党委会扩大会议学习贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F10%2F20%2Fart_3826_4092749.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4092749</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 市公安局召开党委会（扩大）会议学习贯彻习近平总书记考察江西重要讲话精神', '10月19日上午，市公安局召开局党委（扩大）会议，认真传达学习习近平总书记考察江西重要讲话精神，研究贯彻落实意见。副市长、市公安局党委书记、局长韩潮主持会议并讲话。', '会议指出，在全党上下深入开展主题教育的关键时期，总书记时隔四年后再次亲临江西考察指导，这是江西人民政治生活中的大事、喜事，在开启中国式现代化建设江西实践进程中具有重要里程碑意义。全市公安机关要迅速行动，按照', '“走在前、勇争先、善作为”的新发展定位和新发展要求，全面掀起学习宣传贯彻习近平总书记考察江西重要讲话精神的热潮。', '“坚持和加强党的全面领导”的重要指示精神，充分发挥党建引领作用，着力强化公安机关党组织政治功能和组织功能，推动基层党建工作全面进步、全面过硬。', '“主动即自由”的工作理念，深入开展“三大专项行动”专项行动等系列活动，以打开路、以打促防，确保打出声威、治出成效，震慑违法犯罪。', '把学习贯彻习近平总书记系列重要讲话精神、弘扬革命传统、继承红色基因与主题教育相结合，坚决做好', '“三大活动”，大力实施“四项制度”，扎实走好新形势下专门工作与群众工作相结合之路，在新时代、新征程中全面展现抚州公安新作为。', '会议强调，要以即将开展的全市公安机关退赃活动为契机，严打经济金融犯罪，切实维护人民群众财产安全。要主动扛起护航绿色发展的重大使命。坚定推进长江', '“十年禁渔”，助力打好“蓝天碧水净土”保卫战，依法严厉打击各类破坏生态环境和生态资源违法犯罪活动以及自然资源领域黑恶势力。', '局党委班子成员，局机关各部门、局直各单位主官参加会议。各县区（分）局主要人员视频参会。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>127</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>财政局召开党组扩大会议专题传达学习习近平总书记在江西考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F10%2F19%2Fart_13_4092445.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4092445</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 财政局召开党组（扩大）会议专题传达学习习近平总书记在江西考察时的重要讲话精神', '10月19日，市财政局召开党组（扩大）会议，迅速传达学习习近平总书记在江西考察时的重要讲话精神。局党组书记、局长黄德明主持会议并讲话。', '会议以专题形式传达学习了习近平总书记在江西考察时的重要讲话精神，传达学习了习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，传达了全市领导干部会议精神，开展了交流研讨，要求结合当前财政工作实际，深入抓好贯彻落实。', '会议指出,在深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年，在深入开展主题教育的关键时刻，习近平总书记再次亲临江西考察调研，面对面指导我们走好高质量发展之路，饱含着对江西的巨大关怀', '对老区人民的深情厚爱，体现了习近平总书记对江西发展一以贯之的关心关怀和殷切期望，在开启中国式现代化建设江西实践进程中具有重要里程碑意义。', '，习近平总书记考察江西重要讲话，深刻阐述了事关江西长远发展的根本性、方向性、全局性重大问题，是指引我们一切工作的总方针、总纲领、总遵循。', '会议强调，要坚持问题导向，补齐工作短板，持续争先进位，助推财政工作高质量发展；要扎扎实实做好防范财政风险各项工作；要强化收入征管，严格控制预算支出关口，严肃财经纪律，全力以赴完成全年目标任务，抓实做细2024年预算；要坚持量力而行，统筹兼顾，有保有压，确保各项民生政策实施按照既定目标推进，持续增进民生福祉。', '会议强调，要坚持问题导向，补齐工作短板，持续争先进位，助推财政工作高质量发展；要扎扎实实做好防范财政风险各项工作；要强化收入征管，严格控制预算支出关口，严肃财经纪律，全力以赴完成全年目标任务，抓实做细', '学习宣传贯彻习近平总书记考察江西重要讲话精神，是首要政治任务、头等大事和长期任务。', '要深刻领会总书记对革命老区的深情关爱，深刻认识总书记赋予江西新的时代重任、寄予新的殷切期望，', '担当，真抓实干、攻坚克难，围绕唱响“一大品牌”、实施“六大战略”、推进“三大建设”战略目标，坚决扛起稳定经济大盘的政治责任，加力提效实施积极的财政政策', '要以落实总书记提出的任务要求为抓手，提振信心，迅速行动，奋力拼搏，做好当前工作，认真谋划好明年计划打算，', '切实把总书记视察江西重要讲话精神转化为推动财政事业高质量发展的工作思路、具体举措，奋力谱写中国式现代化']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>127</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>市审计局召开党组扩大会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F10%2F23%2Fart_3826_4093433.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4093433</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 市审计局召开党组（扩大）会议传达学习习近平总书记考察江西重要讲话精神', '10月20日下午，市审计局召开党组（扩大）会议，传达学习习近平总书记考察江西重要讲话精神。局党组书记、局长罗海清主持会议。', '会议指出，在全面贯彻落实党的二十大精神的开局之年，在全省上下奋力谱写全面建设社会主义现代化江西新篇章的重要时刻，习近平总书记再次亲临江西考察指导，发表一系列重要讲话，作出一系列重要指示，为江西改革发展精准把脉、擘画蓝图，充分体现习近平总书记对江西的深情厚爱、关心关怀和殷切期望。习近平总书记在江西考察调研期间发表的重要讲话高屋建瓴、思想深刻、鼓舞人心、催人奋进，具有很强的政治性、指导性和方向性，是江西实现中国式现代化建设新篇章的科学指引和行动指南。', '会议强调，全市审计机关要满怀忠诚感恩之心，牢记殷殷嘱托，按照市委、市政府部署要求，把学习领会、宣传贯彻习近平总书记系列重要讲话精神作为当前和今后一个时期的首要政治任务和头等大事。要把学习贯彻习近平总书记考察江西重要讲话精神与贯彻落实党的二十大精神和党中央决策部署及省委、省政府，市委、市政府工作要求结合起来，与深入开展主题教育结合起来，与“九查九改”干部作风整顿活动结合起来，切实增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉、思想自觉、行动自觉。要通过理论学习中心组学习会、“三会一课”、主题党日活动、个人自学等形式，开展集中研讨、交流互动，迅速在全市审计机关掀起学习宣传贯彻热潮，全力推动全市审计机关学习宣传贯彻工作往深里走、往实里走。要聚焦“构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”，紧扣市委提出的“唱响‘一大品牌’、实施‘六大战略’、推进‘三大建设’”战略部署，积极开展审计监督和保障，努力当好国家财产的“看门人”、经济安全的“守护者”、高质量发展的“护航员”，以高质量履职服务高质量发展，为谱写中国式现代化的抚州篇章贡献更多审计智慧和力量。（抚州市审计局办公室供稿）']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>127</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>抚州市统计局召开党组扩大会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F10%2F20%2Fart_13_4092947.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4092947</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 抚州市统计局召开党组（扩大）会议传达学习习近平总书记考察江西重要讲话精神', '日，抚州市统计局召开党组（扩大）会议，传达学习习近平总书记在江西考察时的重要讲话精神，研究贯彻落实意见。党组书记、局长郑海文主持会议并讲话。', '在江西考察时的重要讲话精神，研究贯彻落实意见。党组书记、局长郑海文主持会议并讲话。', '会议强调，一要强化思想，坚定理想信念。全市统计系统要把学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神作为当前和今后一个时期全市统计系统的头等大事和首要政治任务。要坚定捍卫“两个确立”，增强“四个意识”、坚定“四个自信”、坚决做到“两个维护”，认真学习领会习近平总书记考察江西重要讲话精神，把思想和行动统一到习近平总书记考察江西重要讲话精神上来，要坚持以总书记重要讲话精神为指导，推动抚州统计事业高质量发展。二要勇于担当，提升统计服务。要深刻领会总书记对江西发展的殷切期望和重点任务，聚焦“走在前、勇争先、善作为”的目标定位，紧紧围绕“努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”的重要要求，加强统计监测预警分析，充分发挥统计职能，以高质量统计服务助力抚州经济社会高质量发展。三要依法治统，筑牢廉洁防线。要深刻领会总书记对坚持和加强党的全面领导的重要要求，认真贯彻落实党的路线方针政策，打造一支作风过硬、能打胜仗、能打硬仗的统计铁军，坚持依法治统，严防“数字腐败”，齐力营造风清气正的抚州统计政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>127</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>抚州市住房公积金管理中心赴上饶市住房公积金管理中心学习考察</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F4%2F23%2Fart_22070_3983493.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_22070_3983493</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['抚州市人民政府 市公积金中心 抚州市住房公积金管理中心赴上饶市住房公积金管理中心学习考察', '“工作提质年”要求，进一步提升我市住房公积金服务质效，4月10日，抚州市住房公积金管理中心党组成员、副主任吴晓松带领调研组赴上饶市住房公积金管理中心学习考察“贷款不见面审批”业务的先进经验做法。', '“贷款不见面审批系统”的操作流程，双方围绕公积金具体业务开展情况、推进“放管服”改革工作的意见方面进行了探讨交流。通过此次学习考察，为我市住房公积金机构进一步深化“放管服”改革、优化营商环境提供了有益参考，也将助力推进我市住房公积金事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>127</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>关于组织赴福建省南平市顺昌县学习考察营造林林木良种培育推广的通知</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2014-12-26</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F12%2F26%2Fart_80_895993.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_80_895993</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门政策文件 关于组织赴福建省南平市顺昌县学习考察营造林、林木良种培育推广的通知', '为了提高我市森林质量、加快林木良种推广步伐，根据局领导指示，8月上旬，市林业局将组织有关科室和单位负责同志赴福建省南平市顺昌县，学习考察营造林、林木良种培育推广等方面的经验和方法，现将有关事宜通知如下：', '、局领导（3人）：市林业局党委委员、调研员傅明，市林业局党委委员、总工程师傅家科，市林业局党委委员、市林科所所长陈文。', '、相关科室和单位参加考察人员于8月5日上午8点30分前到市林业局大院内集合，统一乘车，其他费用自理。', '、请各单位和县（区）林业局于7月31日下午下班前填写将参加考察人员名单（见附件）报市局营林科。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>127</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>市统计局国家统计局抚州调查队联合赴景德镇市统计局考察学习</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2015-08-14</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2015%2F8%2F14%2Fart_3826_844819.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_844819</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 市统计局、国家统计局抚州调查队联合赴景德镇市统计局考察学习', '8月7日，抚州市统计局与国家统计局抚州调查队联合赴景德镇市统计局学习统计工作思路、统计数据质量、统计基层基础建设、统计服务等方面的先进经验。座谈会上，景德镇市统计局局长周镇清详细介绍了“1+2+3”的总体工作思路，一是坚持依法治统；二是加强工作作风建设和干部队伍培训；三是做好为党政决策、科学发展提供优质服务，推进在地统计改革，构建大服务业统计格局。交流中就进一步深化统计改革，夯实统计基础、如何做好统计文化等方面进行了学习讨论。抚州市统计局局长陶雪华表示，这次学习收获不浅，特别是机关管理、统计服务等方面的经验先进，对今后改进工作有很大启示和帮助。学习结束后参观了部分陶瓷企业。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>127</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>新疆维吾尔自治区国有林场改革学习考察组到我市考察国有林场改革试点工作</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2015-10-19</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2015%2F10%2F19%2Fart_3826_859011.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_859011</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 新疆维吾尔自治区国有林场改革学习考察组到我市考察国有林场改革试点工作', '8月20日，新疆维吾尔自治区党委农办副巡视员张纯带队，会同自治区编办、林业厅一行6人在省林业厅副巡视员毛赣华的陪同下到抚州市学习考察了解国有林场改革试点相关工作。并在广昌县与抚州市林业局、广昌县有关部门和国有林场场长座谈交流。座谈会上抚州市和广昌县林业局分别介绍了国有林场改革工作情况，并就有关问题进行了交流和探讨。', '座谈会上抚州市和广昌县林业局分别介绍了国有林场改革工作情况，并就有关问题进行了交流和探讨。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>127</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>抚州市档案局赴鹰潭市考察学习农村土地确权档案收集整理验收工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2017-03-13</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F3%2F13%2Fart_3826_873451.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_873451</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市档案局赴鹰潭市考察学习农村土地确权档案收集整理验收工作', '为保证农村土地承包经营权确权登记过程中档案资料完整、真实、准确和规范，有效推进我市土地确权档案验收工作，3月9日，我局业务指导科同志随同市农业局熊瑞进副局长及其农经站负责同志一行10余人，到鹰潭市考察学习农村土地确权档案收集整理验收工作。考察学习期间，听取了鹰潭市农业局同志关于农村土地确权档案收集整理和验收工作情况介绍，实地参观了月湖区土地确权档案室，察看了村级、乡镇级、县级的综合管理、确权登记等各类档案资料收集整理情况，交流了对一些具体问题的操作处理方法。通过考察，掌握了鹰潭市在农村土地确权档案整理验收工作中的好做法、好经验，对找准重点、注意细节，为我市做好确权档案验收工作积累了宝贵经验、确保该项工作圆满完成。', '为保证农村土地承包经营权确权登记过程中档案资料完整、真实、准确和规范，有效推进我市土地确权档案验收工作，']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>127</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>我市赴赣州市兴国县学习考察深化小型水利工程管理体制改革工作</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2015-12-01</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2015%2F12%2F1%2Fart_3826_860290.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_860290</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 我市赴赣州市兴国县学习考察深化小型水利工程管理体制改革工作', '为进一步加快推进我市小型水利工程管理体制改革工作，11月19日至20日，我市组织市、县两级水利、财政部门负责同志赴赣州市兴国县进行了学习考察。', '好做法、好经验，参观了该县改制试点现场，并与赣州市、兴国县相关部门进行了深入交流和探讨。20日，我市在广昌县召开了全市小型水库管理体制改革工作动员会。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>127</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>关于组织赴福建省南平市顺昌县学习考察营造林林木良种培育推广的通知</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2014-09-17</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F9%2F17%2Fart_321_839061.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_321_839061</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['抚州市人民政府 通知公告 关于组织赴福建省南平市顺昌县学习考察营造林、林木良种培育推广的通知', '为了提高我市森林质量、加快林木良种推广步伐，根据局领导指示，8月上旬，市林业局将组织有关科室和单位负责同志赴福建省南平市顺昌县，学习考察营造林、林木良种培育推广等方面的经验和方法，现将有关事宜通知如下：', '、局领导（3人）：市林业局党委委员、调研员傅明，市林业局党委委员、总工程师傅家科，市林业局党委委员、市林科所所长陈文。', '、相关科室和单位参加考察人员于8月5日上午8点30分前到市林业局大院内集合，统一乘车，其他费用自理。', '、请各单位和县（区）林业局于7月31日下午下班前填写将参加考察人员名单（见附件）报市局营林科。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>127</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>傅志雄率团赴武汉九江学习考察儿童福利及养老服务体系建设工作</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2014-09-05</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F9%2F5%2Fart_3826_879461.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_879461</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 傅志雄率团赴武汉、九江学习考察儿童福利及养老服务体系建设工作', '至9月1日，市民政局局长傅志雄、副局长何儒辉与局福利科、市社会福中心、广昌、东乡、黎川三县民政局局长及福利院的同志赴九江、武汉两市学习考察儿童福利和养老服务体系建设工作。', '学习考察团一行首先在九江市民政局局长邓君安、副局长王小军的陪同下，参观考察了九江市儿童福利院、社会福利院。随后赴武汉学习考察了江汉区社会福利院、阳光医疗养护院，并与其负责人进行了座谈。每到一处，考察团成员都认真听取介绍，详细了解养老机构的管理，老人养护、医疗及精神文化生活，孤残儿童的康复、教育等方面的做法和政策措施，仔细考察院内建设、规章制度、管理特色等情况。大家边看、边议、边思考，一致认为，这次考察活动针性对强，虽然时间紧，但考察内容丰富，收获很大、启发很大、受教育很大。', '九江市和武汉市在孤残儿童及老年人服务事业的发展上立足自身实际，规范化、精细化、科学化的成功探索和实践，给我们提供了很多有益的借鉴和经验。大家纷纷表示，一定要好好学习、认真思考，解放思想、大胆创新，把先进城市的经验借鉴运用到各自工作中，切实提高我市儿童福利和养老服务事业发展的境界和水平。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>127</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>宜黄县农业局率蔬菜基地大户到南丰县青源蔬菜专业合作社学习考察</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2013-12-12</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F12%2F12%2Fart_3826_846998.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_846998</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 宜黄县农业局率蔬菜基地大户到南丰县青源蔬菜专业合作社学习考察', '2013 年10月17日， 宜黄县农业局书记吴启平带领本局经作站工作人员和蔬菜基地大户，一行五人在南丰县农业局书记和经作站站长的陪同下，到南丰县青源蔬专业合作社学习考察。首先学习了南丰县蔬菜产业扶持政策；其次学习了南丰县青源蔬菜专业合作社连栋钢架大棚、基地设规划、技术操作规程、种菜技术模式、蔬菜加工、保鲜、销售等 ；再次学习了该社今后的发展目标和方向——打造光观农业和休闲农业。通过考察学习对我们的启发极大，受益匪浅，为打造宜黄县无公害蔬菜基地有了明确的构思。', '年10月17日， 宜黄县农业局书记吴启平带领本局经作站工作人员和蔬菜基地大户，一行五人在南丰县农业局书记和经作站站长的陪同下，到南丰县青源蔬专业合作社学习考察。首先学习了南丰县蔬菜产业扶持政策；其次学习了南丰县青源蔬菜专业合作社连栋钢架大棚、基地设规划、技术操作规程、种菜技术模式、蔬菜加工、保鲜、销售等 ；再次学习了该社今后的发展目标和方向——打造光观农业和休闲农业。通过考察学习对我们的启发极大，受益匪浅，为打造宜黄县无公害蔬菜基地有了明确的构思。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>127</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>南城南丰广昌县人防办考察团来我区学习考察人防进街道乡镇社区等工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2014-08-29</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2014%2F8%2F29%2Fart_3826_870038.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_870038</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 南城、南丰、广昌县人防办考察团来我区学习考察人防进街道（乡镇）、社区等工作', '2014年8月27日下午，南城、南丰、广昌县人防办组织县人武部及有关乡镇负责同志来我区学习考察人防进', '日下午，南城、南丰、广昌县人防办组织县人武部及有关乡镇负责同志来我区学习考察人防进', '（乡镇）、社区等工作，先后参观了六水桥街道办人防办公室、六水桥街道办利民社区人防工作站、正在建设中的我区人防应急救援指挥中心，并在区行政中心人防办会议室举办了工作交流会，共同探讨了人防工作进', '（乡镇）、社区、LED多媒体警报器建设、人防规划方案等工作，对今后人防工作的发展提出了建设性的建议和意见，取得了共同促进、共同提高的效果。', '多媒体警报器建设、人防规划方案等工作，对今后人防工作的发展提出了建设性的建议和意见，取得了共同促进、共同提高的效果。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>127</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>月日至日市城管执法局局长吴建华随省住建系统考察团赴上海学习考察</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2013-07-05</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F7%2F5%2Fart_3826_854522.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_854522</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 6月25日至29日，市城管执法局局长吴建华随省住建系统考察团赴上海学习考察', '主要学习考察垃圾分类发电、城管进社区等城市管理工作，上海市城市管理机制已趋成熟，城管执法与街办已融为一体；垃圾分类采取干湿分类，已在近70%社区铺开。通过考察学习，进一步开阔了眼界，开拓了城管工作思路。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>127</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>关于深入学习贯彻孙晓山厅长考察广昌水土保持重要讲话精神的通知</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2012-11-30</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2012%2F11%2F30%2Fart_80_886409.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_80_886409</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门政策文件 关于深入学习贯彻孙晓山厅长考察广昌水土保持重要讲话精神的通知', '5月17日，省水利厅厅长孙晓山率厅水保处李学红副处长，在抚州市委副书记、市长张和平，市政府副市长魏建新，市政府秘书长喻大荣，副秘书长张沪玉，市水利局局长周希平、副局长聂平太的陪同下，专程到我市广昌县考察水土保持工作，在广昌县政府召开座谈会并发表重要讲话。', '孙厅长对我市水保工作的考察，充分体现了省水利厅对我市水土保持工作的高度重视和大力支持，也是对我市水土保持干部职工的鼓励与鞭策。现将孙厅长的讲话精神印发给你们，各地水利水保部门要认真学习、深刻领会，结合各县区工作实际，制订切实可行的水保工作“三权一方案”和“三同时”的举措，全面贯彻落实好孙厅长的重要讲话精神，把抚州水土保持工作推上一个新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>127</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>走进花境苗圃感受千年古村设计院赴南昌安义考察学习</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2020-08-04</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F8%2F4%2Fart_3826_3797569.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3797569</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 走进“花境苗圃”，感受千年古村——设计院赴南昌安义考察学习', '为提高对花境植物的全面认识及学习美丽乡村的建设经验，加强人才培养，促进设计院精品园林景观设计，七月底，设计院考察团在杨建国院长的带领下赴南昌安义森湖苗圃及古村群参观学习。', '夏日里，安义森湖苗圃生产有序、生机盎然。苗圃地块划分明确，有排列整齐的连栋大棚、露天苗场、宽阔平坦的道路，现代的管理用房，且喷灌覆盖整个苗圃，便于灌溉。苗圃中花境种类繁多，黄的亮晶女贞、粉的香彩雀、紫的千鸟花、藤蔓的花叶络石……争相开放，热闹异常。', '安义古村开基于唐代，距今已有1400多年历史，由罗田、水南、京台三大自然村连缀而成，三村相距约300米，村间有长寿大道、祈福古道和丰禄大道相连通。古村群背倚西山，紧靠逍遥湖，双溪长流，良田万亩，翠竹丛丛，果林片片，构成了一个巨大的天然生态园。安义古村群景保存较好的明清古宅100余栋，有大量的文物古迹散布村中，唐代始建的巨石牌坊，宋元开凿的排污暗道，遮天蔽日的千年古樟，花岗岩铺成的古街古道，以及清代建筑的古戏台、古私塾、古祠堂、香火堂等等。', '通过此次学习，设计院全体员工对花境植物的品种、习性、运用有了更直观的认识与深入的了解；同时，考察学习成功的美丽乡村案例，取其精华，并运用到今后的美丽乡村景观规划设计中，为进一步提升团队整体设计水平、加强团队凝聚力作出“添砖加瓦”的贡献！']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>127</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>借他山之石促比学赶超市科技局联合相关单位赴赣州实地考察学习</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F3%2F13%2Fart_3826_3967373.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3967373</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 借他山之石 促比学赶超—市科技局联合相关单位赴赣州实地考察学习', '为深入实施人才强市、科技强市和创新驱动发展战略，扎实推进“创新主体双百行动”，共谋“政产学研用”协同创新，深化科技交流合作，2月24日，市科技局党组成员、市科技项目服务中心主任曾爱民联合市委人才办、市工信局和抚州高新区经科局等领导组成的交流学习团赴赣州市学习考察，考察学习当地科技创新工作的科学理念、先进做法和典型经验，探寻下一步紧密合作的新路径。', '在江西理工大学考察时，江西理工大学党委常委、副校长廖春发，科学技术处处长唐云志等陪同考察并座谈，双方就科技合作落地事项进行深入洽谈，并围绕有色金属产业经济发展需求就高层次人才交流、科研平台共建、科技成果转移转化等重点问题展开了深入交流讨论。', '在赣南创新与转化医学研究院、赣州市智能产业创新研究院考察时，深入学习了赣州市在科技交流合作、科技平台搭建的有效做法，特别是围绕产业链部署创新链、围绕创新链布局产业链、以科技创新推动延链补链强链的生动案例，同时详细了解当地在扶持培育各类平台、载体方面取得的成效和经验。', '曾爱民在考察后表示，赣州“两院”立足本地优势特色产业实际，建设集科学研究、成果转化和人才培养功能于一体的科技合作平台，其成功经验对抚州具有很好的借鉴意义。下一步，将结合抚州实际，不断加强科技创新协同合作，助推科技合作再上新台阶，为抚州经济建设全面提速提供了强有力的科技支撑。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>127</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>市城管局召开赴赣州考察学习创国卫经验总结暨创国卫决战冲刺布置会议</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F9%2F11%2Fart_3826_3553826.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3553826</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 市城管局召开赴赣州考察学习创国卫经验总结暨创国卫决战冲刺布置会议', '8月30日上午10点,市城管局党委书记、局长主持召开了赴赣州考察学习创国卫经验总结暨创国卫决战冲刺布置会议，全局副科以上干部，创国卫环境资料组全体人员共计90多人参加会议。尚江黎同志介绍了赣州的成功经验，并作了对比分析，吸收学习成果，并结合实际作了工作布置。', '冲刺布置会议上，还组织学习观看了赣州市创国卫相关视频，介绍相关工作经验做法；局属各单位、机关科室负责人汇报8月24日创国卫决战再动员再部署会以来工作开展落实情况；分管领导结合分工作了工作布置。', '尚江黎指出，8月27日－29日，市创卫办组织我局等市直部门、“三区”，到赣州市实地考察学习创卫迎检工作经验。赣州市创国卫成绩突出，城市街道市容秩序井然有序、120多万辆电动车停放有序、整齐划一；城市环境优美整洁，市容市政基础设施完好无缺、干净，内业资料制作装订精美，让人耳目一新。创国卫群众工作深入细致，老百姓支持创卫、融入创卫氛围浓厚，无论是外业还是内业都值得我们认真学习。', '尚江黎要求，全局上下要认真学习赣州市的创国卫成功经验，借鉴其好的做法，对照创国卫技术评审标准，找准差距，正视存在的问题，切实做好资料收集归档、严格执法管理、市政设施修复、农贸市场管理、市容环境卫生管理、“六车”整治等创国卫各项工作，认真补缺补差，狠抓督查整改，短时间内迅速提升，确保创国卫迎检顺利通过。', '尚江黎强调，要夯实责任，要层层分解任务、责任到人，做到创国卫工作人人有责。局属各单位主要负责同志是第一责任人，市局分管领导是分管单位的责任领导，机关各科室按照挂点局属单位的安排，全力推动、督促挂点单位的创国卫各项工作落实，科室负责同志是落实责任人。如因履责不力、工作不落实、整改不到位，被通报问责，或严重影响全局创国卫工作的，要严肃追究相关单位和个人的责任。', '尚江黎最后强调，全局要再提高政治站位，要再提高思想认识，特别是副科以上干部，作为市城管局创国卫的中坚力量，一定要克服麻痹、疲惫、松懈的思想，要率先垂范，带领全局干部职工，全力以赴，全身心投入，不怕苦、不怕累，再战一个月，确保顺利完成创国卫各项工作任务，完成市委、市政府、全市人民交给我们的任务。会议还布置了做好疫情防控常态化、安全生产、环保督察整改、重点工程建设、党建、党风廉政建设、信访维稳等重点工作。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>127</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>市园林绿化局组织人员前往南昌象湖杭州西湖考察学习柳树生长状况</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F8%2F26%2Fart_3826_3797573.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3797573</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 市园林绿化局组织人员前往南昌象湖、杭州西湖考察学习柳树生长状况', '为进一步了解柳树的生长状况，提升我市柳树的景观效果，8月17日，局四级调研员桂晓华同志带领园建科、道路绿地管护中心及设计院的人员，前往南昌象湖和杭州西湖考察学习柳树生长状况、种植技术和养护技巧等。', '通过此次考察学习，更深刻地了解了柳树品种的选择、栽植技术及病虫害防治等，为今后柳树在抚州市更好的运用提供参考。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>127</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>抚州市民政局组织人员赴吉安市考察学习社会救助综合改革等工作</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2020-11-12</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F11%2F12%2Fart_3826_3581781.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3581781</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市民政局组织人员赴吉安市考察学习社会救助综合改革等工作', '为全面推进我市社会救助综合改革，切实落实低保审批权限下放等工作。11月10日，由抚州市民政局四级调研员熊萍率市、县级社会救助工作人员，并邀请市纪委市监委派驻市委组织部纪检组二级主任科员肖立同志一行共21人，赴吉安市考察学习社会救助综合改革等工作。', '上午，考察组听取了吉安市民政局关于社会救助综合改革工作和城镇贫困群众脱贫解困工作情况介绍，并就低保审批权限下放、借助纪检力量强化救助工作监督管理和城镇脱', '下午，考察组一行人深入吉安市青原区河东街道办事处实地察看了低保审批权限下放的业务办理流程，熟悉了低保审批权限下放的工作程序和方法，掌握了开展工作的基本思路，找准了抓工作落实的有效途径。', '考察组一行表示，通过此次实地考察学习，开阔了视野，增长了见识，亲身体会到了吉安市社会救助综合改革取得的成果，为我市下一步全面开展社会救助综合改革工作提供了良好的借鉴和参考。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>127</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>他山之石可以攻玉谭赣明率考察团赴上饶学习全域旅游经验</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2020-03-07</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2020%2F3%2F7%2Fart_3826_3366065.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_3366065</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 他山之石，可以攻玉——谭赣明率考察团赴上饶学习全域旅游经验', '为进一步开阔眼界，创新思路，切实提升抚州文化旅游发展品质，3月4至5日，抚州市政府副市长提名人选、党组成员谭赣明带领市文广新旅局、市住建局、文昌里管委会、市文旅投等部门主要负责同志以及乐安、金溪、资溪县政府分管负责同志到上饶市考察学习全域旅游发展、景区精致化建设、精准营销、市场化运营管理等方面的成功经验。', '3月4日上午，谭赣明一行参观考察了广信区灵山工匠小镇，并认真了解灵山工匠小镇的规划建设、运营管理、文化业态、传统工艺等方面情况。谭赣明表示，灵山工匠小镇作为上饶市一个新的文化休闲旅游目的地，不靠门票创收，坚持发展差异化的餐饮、服务、娱乐、民宿等业态，并做到精致化建设，以人气带动产业发展，从而达到产业盈利的模式，这就是“无中生有”的典范，我们要把学到的新理念新思想充分运用到今后的实际工作中去。', '3月4日下午，谭赣明一行现场考察了三清山地质博物馆、金沙游客广场、逍遥谷古街、逍遥谷森林公园等，认真听取了三清山风景名胜区主要负责同志就景区运营管理、宣传营销以及开展境外游、研学游等方面情况的介绍，双方还共同分享了两地好的经验和做法，希望双方能够进一步加强合作交流，形成优势互补，不断为两地经济社会发展创造更多的价值。当晚，谭赣明主持召开学习考察交流座谈会，在听取考察团成员对白天学习考察的体会和感受后，他指出，下一步我市要在整合资源、品牌打造、典型示范、宣传促销等方面进一步加大力度；要学习借鉴外地的先进经验，吸收接纳新思想、新理念；要突出特色优势，强化文旅融合，为推动全市文化旅游产业深度融合发展、加快建设文化旅游强市提供有力支撑。', '3月5日上午，谭赣明一行来到婺源县篁岭、李坑等地考察，详细了解婺源县积极践行新发展理念，大力发展全域旅游，推动经济社会高质量发展的成功经验。谭赣明指出，婺源生态环境优美、文化底蕴深厚，“中国最美乡村”品牌响亮。近几年来，婺源县以乡村旅游为抓手，坚持保护与开发相结合，将资源优势转化为发展优势，找准了绿色发展的突破口和科学发展的引爆点。婺源县发展乡村旅游的经验做法值得我们学习借鉴。', '每到一处，谭赣明带领考察团成员边看边听边交流，不断总结景区在品质提升、精细化运营管理、多样性宣传营销等方面的成功做法。', '谭赣明指出，抚州有着深厚的历史文化底蕴和丰富的旅游资源，我们要认真学习借鉴上饶市全域旅游建设的先进理念，结合抚州实际，转化为思路对策；要深度挖掘景点的文化资源和背后的故事，确保景点有内容、有内涵、有故事，让游客去体验、去品味；要用全域旅游目的地的理念、概念和市场化思维，来规划、建设旅游产业，善于妙笔生花，化腐朽为神奇；要有适应产业发展、市场开拓的方法，建立旅游产业经营体制和经营机构，充分发挥市场主体的积极性，以市场手段推动旅游产业的发展，引进企业投资参与景区项目建设，让旅游项目在市场运作中不断做大做强；要善于谋划，做好旅游项目的包装、策划和推介，充分利用传统媒体和新媒体手段进行宣传推介，尤其是要高度重视抖音、快手、斗鱼、手游以及各类网红等新媒体的运用，不断创新宣传思维，注重网红效益，借助一切有利于发展的力量和因素，全方位造势、立体化宣传，不断扩大抚州旅游的知名度和影响力。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>127</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>市应急管理局迅速兴起学习贯彻习近平总书记在江西考察时重要讲话精神热潮</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2019-06-19</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2019%2F6%2F19%2Fart_13_2275062.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_2275062</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 市应急管理局迅速兴起学习贯彻习近平总书记在江西考察时重要讲话精神热潮', '近期，市应急管理局通过召开局党委会，党委中心组（扩大）学习会议，以及结合“党员固定日”活动等形式，将习近平总书记视察江西时的重要讲话精神传达到每一名干职工。通过系列学习，市局广大党员干部迅速兴起了学习贯彻习近平总书记在江西考察时重要讲话精神的热潮，推动了学习往深里走、往实里走、往心里走。', '通过学习，市局广大党员干部纷纷表示，要坚定不移推动习近平总书记在江西考察时的重要讲话精神落地落实，把总书记重要要求转化为发展的行动，毫不放松抓好安全生产工作，全力以赴抓好重大灾害应对，群策群力加快提升应急管理整体水平。', '当前，市局正持续推进安全生产九大专项行动，全力以赴做好防汛救灾工作，努力为人民群众撑起平安幸福的“安全伞”，确保应急管理各项工作任务落细落实。', '当前，市局正持续推进安全生产九大专项行动，全力以赴做好防汛救灾工作，努力为人民群众撑起平安幸福的']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>127</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>抚州市考察组赴吉安市档案局学习办公自动环境中电子文件归档和电子档案管理工作</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2017-11-16</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F11%2F16%2Fart_13_106197.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_106197</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 抚州市考察组赴吉安市档案局学习办公自动环境中电子文件归档和电子档案管理工作', '为做好我市办公自动环境中电子文件归档和电子档案管理工作， 11月14日，市档案局副局长吴建新带领由市政务信息办、万户电子公文办公协同系统开发公司、市档案局组成的6人考察组赴吉安市档案局考察学习。', '吉安市档案局局长贺香文对考察组一行表示了热烈欢迎，详细介绍了吉安市办公自动化管理系统运行后电子文件归档和电子档案管理模式和进展情况。项目组相关人员系统介绍了数字档案管理系统的研发概况和主要功能，重点介绍了电子文件在线归档、数字档案室建设和数字档案馆三位一体同步建设的经验和做法，并对“吉安立档单位在线接收管理系统”“吉安市馆藏档案资料集成管理系统”的使用做了现场演示。双方就数字档案管理系统开发应用进行了广泛的交流。', '通过考察学习，为进一步完善我市电子公文办公协同系统功能，做好我市电子文件归档与电子档案管理积累了经验，有利于提高档案信息化建设水平，更好地服务市委、市政府中心工作。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>127</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>连心小分队组织北庄村干部及村民赴崇仁县考察学习扶贫产业</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2017-08-24</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F8%2F24%2Fart_3826_865735.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_865735</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 “连心”小分队组织北庄村干部及村民赴崇仁县考察学习扶贫产业', '2017年8月23日，由市农业局副调研员邱建斌带队，驻北庄村“连心”小分队组织了北庄村干部及村民一行赴崇仁县考察学习稻田养蛙以及麻鸡养殖。', '为搞好北庄村产业发展，增加贫困群众收入，推动北庄村扶贫开发工作取得新突破，“连心”小分队根据北庄村山地多、生态好的特点做了大量前期准备工作后，计划加大产业扶贫开发力度，增加短、平、快产业，成立1-2个专业合作组织，发展1-2个特色产业。一是围绕“农田”做文章，引进发展“稻田养蛙”产业，二是围绕“山地”做文章，引进发展“散养土鸡”产业。通过参观学习、开展试点示范，通过“合作社+村集体+农户”的发展模式，进一发展壮大村集体经济，带领村民致富奔小康。通过联系崇仁县有关人员，在市农业局副调研员邱建斌的大力支持下小分队组织了这次考察学习。考察队先后考察参观了崇仁县麻鸡科技博览中心，稻田养蛙基地以及崇仁县现代农业示范园。畜牧水产局黄勃局长全程陪同考察学习队，介绍讲解了麻鸡的历史、养殖麻鸡获得的荣誉、领导的关怀；参观了麻鸡养殖历程以及产品；观看了麻鸡养殖视频。当场就有村民述说了自己参观后的感想，表示了对养殖土鸡很感兴趣。然后参观了稻田养蛙基地，听取基地养殖户介绍讲解稻田养蛙的技术、成本、收益等。每到一处，考察学习成员都带着问题，虚心请教，边走边看、边看边学、边学边问，崇仁县的麻鸡养殖和稻田养蛙给考察学习队留下了深刻的印象，感受颇多，受益匪浅。', '1-2个专业合作组织，发展1-2个特色产业。一是围绕“农田”做文章，引进发展“稻田养蛙”产业，二是围绕“山地”做文章，引进发展“散养土鸡”产业。通过参观学习、开展', '+村集体+农户”的发展模式，进一发展壮大村集体经济，带领村民致富奔小康。通过联系崇仁县有关人员，在', '这次考察学习重点是专项考察学习稻田养蛙以及麻鸡养殖，即：这两产业发展如何运行，采取什么方式运作；技术难易，成本收益高低；北庄适不适合发展；如何带动贫困人口参与等。通过这次实地考察学习，“连心”小分队与北庄村干部村民都带着一股子劲回去，计划先建立几个示范点然后带动大伙参与；同时对北庄即将开展的扶贫产业充满了干劲和信心。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>127</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>集众家之长谋改革良策全市公安机关改革办赴贵阳昆明丽江考察学习</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2017-08-03</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F8%2F3%2Fart_3826_849217.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_849217</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 集众家之长 谋改革良策——全市公安机关改革办赴贵阳、昆明、丽江考察学习', '为学习借鉴兄弟地市先进的改革经验，进一步完善优化警务改革，按照市局党委警务改革工作部署，7月24日至28日，市局党委副书记、常务副局长、改革办主任罗会明率各县分局政委、改革办主任及市局改革办成员一行21人，先后分赴贵阳市公安局、昆明市公安局、丽江市公安局三地学习交流，并介绍了抚州市公安局“大部制”警务改革工作和成效，得到了热烈欢迎和高度赞扬，学习考察活动圆满结束。', '在贵阳市公安局，考察团一行先后参观了贵阳市公安局块数据演示大厅、块数据指挥中心、网格接处警等观摩点，考察中，大家边走边听边看边记，收获很大、感触很深，一致认为贵阳市公安局运用互联网和大数据技术推进社会治理体系和治理能力现代化的理念、思路、举措，是深化公安改革的有效举措，符合基层实际，符合实战需求，有利于提升实战能力、夯实基层基础。在座谈交流中，贵阳市公安局着重介绍了“块数据”在社会治理中的各项运用及取得的成效、执法勤务机构警员职务套改和主办侦查员制度的相关经验。考察团一行表示，这些经验为进一步完善抚州警务改革工作提供了很好的参考借鉴。', '在昆明市公安局，考察团一行参观了昆明市公安局出入境管理局、昆明市公安局心战支队、昆明市公安局法制支队、官渡分局政工处、昆明火车站PTU处突队等，大家每到一处都仔细了解相关经验及好的做法。通过交流学习，大家一致认同昆明市公安局抓队伍、抓业务有办法、有水平，昆明市公安局大力推动“放管服”改革，突出民警心理健康与犯罪心理研究，以改革促进公平公正，加强反恐维稳工作建设、建立民警诚信考核制度，这些经验和做法值得抚州公安学习借鉴。', '在丽江市公安局，考察团一行来到丽江市公安局旅游警察支队、情报指挥中心等。丽江市公安局旅游警察支队在云南全省率先组建，以涉旅案件为重点，为丽江的旅游事业发展做出了较大贡献；在看到丽江市公安局先进的可视化警务指挥调度平台，实现多系统资源融合，一张图调度、全过程跟踪，警情“端到端”流转，指挥调度效率大幅提升。考察团成员纷纷表示，这真是公安机关的司令部和作战室！', '在参观学习的同时，罗会明同志大力宣传我市“大部制”警务改革工作，在交流座谈会上，罗会明同志围绕深化公安改革主题，从打破壁垒整合机构、一警多能挖掘潜力、压缩层级优化警力、信息支撑提升效能、强化考核激发活力等方面生动介绍了抚州公安“大部制”警务改革经验做法，引起了三地市公安局的浓厚兴趣。纷纷表示，抚州市公安局党委以强有力的决心、意志和胆魄整体推进市县两级全方位、全警种、全过程的“大部制”警务改革，有勇气、有魄力、有担当，短期内实现这样深层次改革非常不容易、改革经验值得学习。希望抚州公安在警务改革中闯出一条新路子，形成可复制、可借鉴、可推广的样板经验，并表达了来抚州交流学习的愿望。考察结束后，罗会明要求，在回单位后，考察团同志要认真总结好、消化好此次考察学习经验，在最短的时间内将各地经验转化为市县两级改革的动力，在继续巩固现有改革经验和成果的基础上，着力摸索创新机制固化的有效路径，积极构建现代警务运行机制，当好抚州公安警务改革的“操盘手”。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>127</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>抚州市住房公积金管理中心领导带队赴兄弟公积金中心考察学习综合柜员制工作</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2017%2F6%2F20%2Fart_3826_848449.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_848449</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市住房公积金管理中心领导带队赴兄弟公积金中心考察学习综合柜员制工作', '为进一步推进我市住房公积金事业的发展，更好地学习借鉴兄弟市综合柜员制先进经验，为制定我市《综合柜员制实施方案》、开展综合柜员制试点提供参考。', '日，市中心副主任吴晓松率部分县（区）办事处主任及业务骨干赴上饶、宜春、湖州三地公积金管理中心考察学习综合柜员制经验。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>127</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>抚州市统计局组织人员赴玉山县考察学习乡镇首席统计员制度先进经验</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2009-11-13</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2009%2F11%2F13%2Fart_3826_860690.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_860690</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 抚州市统计局组织人员赴玉山县考察学习乡镇首席统计员制度先进经验', '11月5日，抚州市统计局会同市编办负责同志一行5人，赴玉山县就推行乡镇首席统计员制度进行了考察和学习。考察组认真听取了县统计局盛长青局长就玉山县开展乡镇首席统计员制度的经验介绍，参观了县政府对推行首席统计员制度工作下发的一系列文件、政府领导的批示以及整个首席统计员制度工作的运作过程。随后，考察组一行实地考察了玉山县冰溪镇基层统计工作的机构建设、基础设施和规范化管理等成功经验，为我市开展乡镇首席统计员制度推行工作提供经验借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>127</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>南昌市安监局来我市考察学习烟花爆竹生产企业提升整顿和管理情况</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2011-06-29</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2011%2F6%2F29%2Fart_3826_871381.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_871381</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 南昌市安监局来我市考察学习烟花爆竹生产企业提升整顿和管理情况', '，南昌市安监局局长邓建新带领南昌市安监局和进贤县安监局有关人员共计16人，来我市考察学习烟花爆竹生产企业提升整顿和现场管理有关情况，考察组到东乡县喜庆花炮有限公司、东乡县吉庆花炮有限公司、东乡县出口花炮厂进行了现场考察。考察组对我市烟花爆竹生产企业提升整改质量，推行电子监控系统、特派员制度和“三位一体”、“中转警示”管理等给予了肯定。', '抚州市安监局党组书记、局长雷东水，副局长王国荣，东乡县委常委、副县长葛斌，县安监局局长乐细根等到场陪同。雷东水对邓建新等的到来表示欢迎，希望以后要多相互交流、相互学习、共同提高安全管理水平。', '雷东水同时对东乡县提出要求：一是在提升整改的同时，要加强人本管理，以人为本，还要绿化企业。二是坚持特派员跟班作业制度，盯紧每个生产环节，防止违法违规行为，确保安全生产。三是加快监控平台建设，提高监管效率。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>127</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>九江市园林和市政设施管护中心到抚州市城市管理局园林绿化垃圾处理和资源化利用中心考察学习</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2024%2F4%2F28%2Fart_3826_4168819.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4168819</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 九江市园林和市政设施管护中心到抚州市城市管理局园林绿化垃圾处理和资源化利用中心考察学习', '2024年4月26日上午，九江市园林和市政公用设施管护中心副主任肖永宏和刘武同志带队到抚州市城市管理局园林绿化垃圾处理和资源化利用中心考察学习，肖永宏一行先后参观了生态覆盖物生产区、有机肥生产区、苗木花卉扦插育苗生产区及基地展厅，现场观看生态覆盖物制作，有机肥堆肥及苗木扦插情况，抚州市市政公用事业服务中心副主任杨建国同志详细介绍了抚州市园林绿化垃圾处理和资源化利用探索的过程及目前取得的成效。双方并就园林绿化废弃物资源化利用的三个主要途径（苗木扦插 生态覆盖物 有机肥）进行了交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>127</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>全市离退休干部学习宣传贯彻习近平总书记考察江西重要讲话精神暨经济社会发展形势报告会召开</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F30%2Fart_11_4109085.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_11_4109085</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['抚州市人民政府 抚州要闻 全市离退休干部学习宣传贯彻习近平总书记考察江西重要讲话精神暨经济社会发展形势报告会召开', '11月29日，全市离退休干部学习宣传贯彻习近平总书记考察江西重要讲话精神暨经济社会发展形势报告会召开。市委书记魏晓奎宣讲习近平总书记考察江西重要讲话精神，并作形势报告。市委常委、常务副市长漆海云主持，在抚地厅级老同志出席。', '魏晓奎指出，习近平总书记时隔四年再次亲临江西考察指导，在开启中国式现代化建设江西实践进程中具有重要里程碑意义。总书记对江西发展和老区人民有着特殊感情，每到关键时刻、重要节点，都及时为我们把脉定向、领航掌舵，对江西工作给予了特殊关怀和有力指导。总书记提出了新征程上江西工作的重点任务，赋予了江西发展新的战略定位，强调要解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。我们要切实把对总书记的感恩之情转化为干事创业的强大动力，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。', '魏晓奎指出，省委书记尹弘今年第三次来抚州考察调研，要求抚州以奋起赶超的雄心壮志、以真抓实干的责任担当，加快建设现代产业新区、生态康养名城、文化创新强市。今年以来，我们深入学习贯彻党的二十大精神和习近平总书记考察江西重要讲话精神，学思想铸忠诚，党的政治建设得到新提升；增信心谋要务，现代产业发展取得新突破；激活力优环境，深化改革开放增添新动能；抓试点促转化，生态文明建设实现新作为；兴文化树品牌，科教文化事业迈出新步伐；抓基层打基础，基本民生保障达到新水平；强党建转作风，干部担当作为展现新风貌。', '魏晓奎强调，成绩来之不易、成之惟艰，根本在于习近平总书记领航掌舵和习近平新时代中国特色社会主义思想科学指引，得益于上级领导和省委、省政府的亲切关怀，得益于全市广大党员干部群众的辛勤付出，得益于各位老领导、老同志的大力支持。希望全市广大老干部一如既往关心支持抚州发展，为推动抚州高质量发展贡献智慧和力量。各级党委、政府要坚持把习近平总书记关于老干部工作的重要论述作为根本遵循，带着感情和责任做好新时代老干部工作，为广大老干部颐养身心、发挥余热创造良好条件。', '魏晓奎指出，市委五届四次全会提出唱响“一大品牌”、实施“六大战略”、推进“三大建设”的总体思路和打好“八大攻坚战”的具体举措。我们将聚焦“走在前、勇争先、善作为”的目标要求，围绕构建现代化产业体系提优势、求突破，围绕全面深化改革开放闯新路、开新局，围绕全面推进乡村振兴强基础、促提升，围绕融入长江经济带发展作示范、当样板，围绕扎实推进共同富裕出实招、办实事，围绕加强党的全面领导强党建、转作风，加快推动抚州高质量发展，奋力谱写中国式现代化抚州篇章。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>127</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>感悟新思想奋进新征程抚州市审计机关学习宣传贯彻习近平总书记考察江西重要讲话精神二</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F8%2Fart_3826_4100273.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4100273</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 【感悟新思想 奋进新征程】抚州市审计机关学习宣传贯彻习近平总书记考察江西重要讲话精神（二）', '10月20日，抚州市审计局召开党组（扩大）会，传达学习习近平总书记考察江西重要讲话精神和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神。', '会议强调，全市审计机关要把学习宣传贯彻习近平总书记考察江西重要讲话精神与贯彻落实党的二十大精神和党中央决策部署及省委、市委工作要求结合起来，与深入开展主题教育结合起来，切实增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉、思想自觉、行动自觉。要通过党组理论学习中心组学习、“三会一课”、主题党日活动、个人自学等形式，积极开展集中研讨、交流互动，迅速在全市审计机关掀起学习热潮，全力推动全市审计机关学习宣传贯彻工作往深里走、往实里走。要聚焦“构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”重要要求，紧扣市委提出的“唱响‘一大品牌’、实施‘六大战略’、推进‘三大建设’”战略部署，依法履行审计监督职责，努力当好国家财产的“看门人”、经济安全的“守护者”、高质量发展的“护航员”。', '会议强调，要把学习宣传贯彻好习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务，要迅速掀起学习热潮，与贯彻党的二十大精神和党中央重大决策部署结合起来，与深入开展主题教育结合起来，依托党组理论学习中心组学习、主题党日活动等形式组织机关干部深入思考学、结合实际学，切实做到入脑入心。一要提高政治站位。面对新任务、新要求，党员干部、特别是领导干部要作真学真懂真信真用的表率，通过学习来增长知识、增强本领、提升素质。二要学以致用。要把学习贯彻习近平总书记考察江西重要讲话精神，与贯彻落实党的二十大精神和党中央决策部署以及省委、市委、区委工作要求结合起来，与深入开展主题教育结合起来，将学习成效转化为工作成效和工作能力。三要聚焦主责主业，抓好贯彻落实。对照习近平总书记考察江西重要讲话精神，思考谋划下一步工作打算，提出具体落实措施，结合审计实际工作，完成全年审计计划任务，强化审计监督，为临川高质量发展贡献审计力量。', '10月18日，东乡区审计局召开全体干部职工会议，传达学习习近平总书记考察江西重要讲话精神和习近平在主持召开进一步推动长江经济带高质量发展座谈会上的讲话精神。', '会议强调，要深入学习贯彻习近平总书记考察江西重要讲话精神，牢记嘱托，感恩奋进，将“走在前、勇争先、善作为”的标准和要求贯彻到东乡审计高质量发展的各方面。一要把握政治导向。要深刻领会习近平总书记考察江西重要讲话精神实质和实践要求，准确把握习近平总书记在二十届中央审计委员会上对审计工作的科学谋划和战略部署，完整、准确、全面理解和落实党中央对审计工作的部署要求，始终胸怀“两个大局”、心系“国之大者”。二要提升审计质效。要贯彻落实习近平总书记在考察江西时强调要构建现代化产业体系，深化重点领域改革，加强营商环境建设，坚持农业农村优先发展，加强基础性、普惠性、兜底性民生建设等要求，加强重大政策措施落实审计、涉企资金审计、乡村振兴资金项目审计、困难群众补助资金审计，真正当好国家财产的“看门人”、经济安全的“守护者”和人民利益的“忠诚卫士”。三要锻造过硬本领。要坚持以政治建设为统领，扎实开展主题教育和“九查九改”干部作风整顿，强化学习教育和岗位锻炼，提高政治能力和业务素质，锻造一支适应“三新一高”要求的“审计铁军”。', '10月23日，南城县审计局召开会议组织全体干职工深入学习习近平总书记考察江西重要讲话精神。', '会议强调，要充分认识习近平总书记系列重要讲话精神的重大意义，深入学习领悟，提高政治站位，把学习习近平总书记考察江西重要讲话精神与开展审计业务紧密结合起来，围绕“走在前、勇争先、善作为”目标要求，深刻把握审计工作定位和前进方向，紧盯重大政策落实、重大项目建设、重大风险防范、财政资金使用、保障改善民生、权力规范运行等方面强化审计监督，科学谋划2024年审计项目计划，积极履职尽责，主动担当作为，狠抓工作落实，推进审计工作高质量发展，全力推动习近平总书记系列重要讲话精神落地见效。', '10月17日，黎川县审计局召开党组扩大会议，专题学习贯彻习近平总书记考察江西重要讲话精神。', '会议强调，要紧紧围绕习近平总书记提出的“绿色生态是江西最大财富、最大优势、最大品牌”，积极做好领导干部自然资源资产离任（任中）审计工作，为打造美丽黎川做出审计新贡献；要紧紧围绕习近平总书记提出的全面推进乡村振兴和加快传统产业改造升级，积极谋篇布局，认真做好减税降费审计，为黎川经济社会健康稳定发展保驾护航，为县委县政府科学决策提供审计依据；要紧紧围绕习近平总书记提出的坚持以人民为中心的发展思想，持续做好教育、就业、公共卫生等各项民生审计，不断拓展审计监督的深度和广度，创新审计理念，加大审计力度，执审为民，更好地发挥审计促改革、促发展、促规范、促效能、促廉洁、防风险的重要作用，把习近平总书记系列重要讲话精神转化为工作思路、工作举措、工作成效，奋勇争先，奋力谱写好中国式现代化的黎川篇章。', '10月24日，南丰县审计局召开党组理论学习中心组（扩大）会议，传达学习习近平总书记考察江西重要讲话精神。', '会议强调，要提高政治站位，把握精神内涵。深刻领会习近平总书记对江西工作的充分肯定、目标定位、重要要求和指示，牢固树立审计机关首先是政治机关的理念，切实把习近平总书记考察江西重要讲话精神作为一切工作的总纲领、总方针、总遵循，转化为担当实干的具体行动，坚定不移沿着习近平总书记指引的方向砥砺前行。要聚焦中心工作，提升履职效能。聚焦宏观政策，紧盯教育、卫生、社保、保障性住房等与群众生活密切相关的领域，助推国家政策措施落地见效；聚焦营商环境，开展财政专项资金补助、减税降费、账款清欠等涉企政策落实专项审计，助推经济高质量发展；聚焦权力运行，不断深化领导干部经济责任审计和自然资源资产离任（任中）审计，助推全面从严治党走向纵深。要落实从严要求，培育务实作风。要以习近平总书记对江西的重要指示要求为动力，展现审计工作新作为，围绕“国之大者”，紧扣“县之要事”，科学谋划审计项目，全面依法组织实施，把习近平总书记重要指示要求落实到一个个具体审计项目和一件件具体工作上，用实实在在的工作举措，努力发挥审计监督的服务保障作用，为打造“抚州南部中心县城”贡献审计力量！', '10月20日，崇仁县审计局召开局党组会议和局党员干部大会暨学习贯彻习近平新时代中国特色社会主义思想主题教育专题学习讨论会，传达学习习近平总书记考察江西重要讲话精神。', '会议强调，要紧密结合实际，把习近平总书记考察江西重要讲话精神转化为奋力推动审计事业发展的强大动力。一要坚决贯彻总书记关于“坚持和加强党的全面领导”的重要指示要求，巩固发展风清气正的良好政治生态，在纵深推进全面从严治党，持续深化作风建设，一体推进不敢腐、不能腐、不想腐，不断净化、优化政治生态方面发挥审计监督作用，重点做好领导干部经济责任审计和协助巡视巡察等工作。二要坚决贯彻总书记关于“全面推进乡村振兴”的重要指示要求，加快农业农村现代化建设步伐，在基础性、普惠性、兜底性民生建设，完善社会保障体系，健全社会救助和慈善制度，提高基本公共教育服务水平，强化城乡卫生健康服务能力等方面发挥审计监督作用，真抓实干当好“经济卫士”。加强重大政策跟踪审计，让国家政策落地见效。三要完整、准确、全面贯彻习近平总书记关于“坚持共抓大保护、不搞大开发，坚持生态优先，绿色发展”重要要求，对领导干部任职期间对自然资源资产的利用、保护和管理职责的履行情况进行审计和评估，督促领导干部更好地履行自然资源资产管理职责，促进自然资源的合理利用和保护，防止资源浪费和环境破坏。', '10月23日，乐安县审计局召开全局干部职工会，传达学习贯彻习近平总书记考察江西重要讲话精神。', '会议强调，要深刻领悟习近平总书记考察江西重要讲话精神，牢记嘱托，砥砺奋进，为谱写中国式现代化乐安篇章贡献审计力量。一要深刻领会习近平总书记考察江西重要讲话的精神内涵。结合主题教育，全面深入学习宣传习近平总书记考察江西重要讲话精神，通过集中研讨、专题学习、“三会一课”、个人自学等方式，抓好学习培训、宣传宣讲，迅速掀起学习宣传贯彻热潮。二要深刻领会习近平总书记考察江西重要讲话的重大意义。习近平总书记考察江西是对革命老区的深情厚爱，为审计干部奋进新征程注入了强大精神动力。要牢牢把握“走在前、勇争先、善作为”的丰富内涵，把习近平总书记考察江西重要讲话精神转化为进一步做好审计工作的坚定决心和强大动力，坚决拥护“两个确立”、坚决做到“两个维护”。三要全力推动习近平总书记考察江西重要讲话精神落地见效。要围绕高质量发展这个首要任务，科学谋划2024年审计工作，切实把习近平总书记考察江西重要讲话精神贯彻落实到审计工作全过程，高质量完成各项审计任务。要坚持问题导向、目标导向和结果导向，将审计质量提升、审计整改提质、队伍建设强化等重点工作充分融入主题教育，不断增强审计监督力度，提升审计干部综合素质，推动主题教育走深走实。', '10月20日，宜黄县审计局召开局党组会议、局理论学习中心组会议和全体党员干部大会，及时传达学习贯彻习近平总书记考察江西重要讲话精神。', '会议强调，要满怀忠诚感恩之心，牢记殷殷嘱托，按照省委、市委和县委的部署要求，把学习领会、宣传贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期最重要的政治任务。一要深入学习领会习近平总书记考察江西重要讲话的深刻内涵和重要意义。要结合开展“三会一课”重点学习，牢牢把握习近平总书记考察江西重要讲话精神蕴含的重大政治意义、理论意义和实践意义，以“走在前、勇争先、善作为”的标准和要求，奋力开创审计事业发展新局面。二要学习宣传贯彻习近平总书记考察江西重要讲话精神。要从坚定拥护“两个确立”、坚决做到“两个维护”的高度，按照省委、市委和县委的总体部署，科学谋划安排，制定工作方案，迅速掀起学习贯彻的热潮。局领导班子成员和各股室（中心）负责人要切实发挥示范引领作用，先学一步、学深一层，带头贯彻、带头落实。三要以习近平总书记考察江西重要讲话精神为动力，展现审计工作新作为。围绕“国之大者”，紧扣中心工作，对照“努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”的重要要求，坚持“共抓大保护、不搞大开发”的战略导向，科学谋划审计项目，全面依法组织实施，把习近平总书记系列重要讲话精神要求落实到一个个具体审计项目和一件件具体工作上，用实实在在的工作举措，努力发挥审计监督的服务保障作用。', '会议强调，审计机关不仅是业务机关，更是党的政治机关，讲政治永远是第一位的要求。要深刻领会好、贯彻好习近平总书记考察江西重要讲话精神，切实从政治的高度做好审计监督工作。要突出政治建设在审计工作中的统领地位，围绕“国之大者”谋划和开展审计工作，做到党的中心工作部署到哪里、审计工作就跟进到哪里，切实把党的领导落实到审计工作全过程各环节，保证审计工作始终沿着正确方向前行。要善于从审计发现的倾向性、苗头性问题中发现政治问题的端倪，深入揭示重大政策措施落实、重大投资项目建设运营、重要岗位权力运行等方面存在的突出问题，深入揭示重大经济风险和重大廉政风险，不断增强审计监督效能，切实履行好“经济卫士”职责使命，提升审计的权威性和公信力，以审计工作实效彰显对党的绝对忠诚。', '10月25日，资溪县审计局组织召开党组（扩大）会，传达学习习近平总书记考察江西重要讲话精神。', '会议强调，要满怀忠诚感恩之心，牢记殷殷嘱托，把学习宣传贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务和头等大事，全方位、深层次、多角度做好解读阐释工作，迅速掀起学习热潮。要以开展第二批主题教育为契机，与“九查九改”干部作风整顿活动结合起来，以务实的作风担当作为，推动工作走深走实。一是牢固树立政治意识，坚定理想信念。深入学习贯彻习近平总书记考察江西重要讲话精神，汲取力量，纯洁思想，铸就政治忠诚。自觉用习近平新时代中国特色社会主义思想武装头脑，开展审计工作。二是立足岗位职责，主动担当作为。深刻领会习近平总书记考察江西的重大意义，聚焦“走在前、勇争先、善作为”的目标要求，鼓足干劲，真抓实干，充分发挥审计“治已病防未病”作用，推进审计服务质量提升。三是深入开展自我革命，提升党性修养。以主题教育和“九查九改”干部作风整顿为契机，强化审计意识，时常以正面典型激励自己，反面教材警示自己，不断提升自身修养，守住立身之本，筑牢信仰之基，做忠诚干净担当的审计干部。', '10月23日，广昌县审计局召开全局干部会议，传达学习习近平总书记考察江西重要讲话精神。', '会议强调，要从坚定拥护“两个确立”、坚决做到“两个维护”的高度，把学习领会、宣传贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期最重要的政治任务。要结合审计工作职责，围绕县委、县政府中心工作，立足经济监督定位，科学谋划审计项目，全面依法组织实施，以高质量审计监督服务广昌经济高质量发展，为建设“美丽莲乡·幸福广昌”提供审计坚强保障。', '10月24日，抚州高新区审计局召开专题会，传达学习习近平总书记考察江西重要讲话精神。', '会议强调，要深刻学习领会习近平总书记考察江西重要讲话精神，把学习成果转化为干事创业的不竭动力。一要坚持和加强党对审计工作全面领导。坚持政治引领，强化审计干部的思想淬炼、政治历练和实践锻炼，努力打造一支信念坚定、业务精通、敢于担当、为民服务、作风优良、清正廉洁的审计铁军，适应新时代新形势新要求的经济监督“特种部队”。二要坚持高质量发展主旋律，推动审计事业迈上新征程。紧紧围绕党工委、管委会“瞄准双一流目标，实施三千亿工程”战略部署，聚焦重大政策、重大项目、重大风险、重要民生、国资国企、权力运行等方面开展审计监督，当好国家财产的“看门人”，经济安全的“守护神”，护航高新区经济社会高质量发展。三要坚持统筹兼顾，扎实开展主题教育。将深入学习贯彻习近平总书记考察江西重要讲话精神与主题教育有机结合，走深走实，见行见效，学思想、强党性、重实践、建新功，感悟思想伟力，以奋勇争先姿态，推动全年各项工作目标高质高效完成，以实际工作成效检验学习贯彻习近平总书记考察江西重要讲话精神和主题教育的成效。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>127</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>感悟新思想奋进新征程抚州市审计机关学习宣传贯彻习近平总书记考察江西重要讲话精神三</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F15%2Fart_3826_4103027.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4103027</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 【感悟新思想 奋进新征程】抚州市审计机关学习宣传贯彻习近平总书记考察江西重要讲话精神（三）', '习近平总书记再次亲临江西这片红土圣地考察调研，为江西改革发展把脉定向、指路引航，强调江西要解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。我将牢记习近平总书记对江西的嘱托，将“走在前、勇争先、善作为”的标准和要求贯彻到东乡审计高质量发展的各方面。一是要把握政治导向。全面深刻领会习近平总书记考察江西的重要讲话精神实质和实践要求，切实把思想和行动统一到党中央的各项决策部署上来，始终胸怀“两个大局”、心系“国之大者”。二是要提升审计质效。贯彻落实习近平总书记在考察江西时强调的构建现代化产业体系，深化重点领域改革，加强营商环境建设，坚持农业农村优先发展，加强基础性、普惠性、兜底性民生建设等要求，加强重大政策措施落实审计、涉企资金审计、乡村振兴资金项目审计、困难群众补助资金审计，真正当好国家财产的“看门人”、经济安全的“守护者”和人民利益的“忠诚卫士”。三是要锻造自身本领。扎实开展主题教育和“九查九改”干部作风整顿活动，强化学习教育和岗位锻炼，提高政治能力和业务素质，锻造一支适应“三新一高”要求的“审计铁军”。', '习近平总书记考察江西的重要讲话，为推进新时代江西改革发展指明了前进方向、提供了根本遵循。作为审计战线的一名党员干部，我将以习近平总书记考察江西重要讲话精神为指引，紧紧围绕“走在前、勇争先、善作为”的标准要求，与全局审计干部一道，切实把习近平总书记的关心关怀转化为做好审计工作的强大力量和生动实践。一是在深学中进一步增强贯彻的真自觉。紧紧围绕习近平总书记提出的“绿色生态是江西最大财富、最大优势、最大品牌”，积极做好领导干部自然资源资产离任审计工作；紧紧围绕习近平总书记提出的全面推进乡村振兴和加快传统产业改造升级，积极谋篇布局，认真做好农业农村、扶贫资产和乡村振兴审计；紧紧围绕习近平总书记提出的坚持以人民为中心，持续做好教育、就业、公共卫生等各项民生审计，为县委县政府科学决策提供审计参考。二是在实干中进一步达成贯彻的好效果。坚持把上级的决策部署贯彻落实到具体审计工作中，坚持审计整改“下半篇文章”与审计揭示问题“上半篇文章”一体推进。及时梳理制定审计发现问题整改清单，明确整改措施、责任人和整改时限，实行挂牌督办、整改销号、动态管理整改清单，持续跟踪整改进展，确保整改落实到位。三是在自律中进一步展现贯彻的新气象。严格落实中央八项规定精神，带头遵守廉洁自律各项规定、审计“四严禁”工作要求和“八不准”工作纪律，做好廉洁从政的表率。', '时隔四年，习近平总书记再次考察江西并发表重要讲话，提出“走在前、勇争先、善作为”的目标和要求，体现了总书记对江西的高度重视和殷切期望。作为基层审计机关主要负责人，我将认真学习贯彻习近平总书记考察江西重要讲话精神，扎实做好自己的本职工作。一是要有钻劲，聚焦理论学习。全面落实“三会一课”制度、“主题党日”活动，持续强化思想武装，不断提高政治能力和专业本领，把上级意图和部署把握准、领会透、落实好。二是要有干劲，抓实调查研究。进一步做深、做实研究型审计，发扬斗争精神，增强斗争本领，打造经济监督的“特种部队”，把问题查准、查深、查透，有效发挥审计的监督作用。三是要有韧劲，做好检视整改。结合主题教育，始终坚持边学习、边对照、边检视、边整改，把问题整改贯穿主题教育始终，也要注重建章立制，确保主题教育走深走实。', '习近平总书记考察江西重要讲话，是习近平新时代中国特色社会主义思想的“江西篇章”，深刻阐明了事关江西改革发展的一系列问题，具有很强的政治性、思想性和指导性，为推动新时代依法全面履行审计监督职责提供了根本指引，是做好当前审计各项工作的根本遵循。一是要深刻领会精神。结合主题教育总体要求和具体目标，深刻领会习近平总书记考察江西重要讲话精神，做到学深悟透、融会贯通、笃信笃行。二是要坚持守正创新。聚焦主责主业，科学谋划2024年审计项目计划，切实提高审计项目质量和效率。创新审计工作方法，加强与其他部门间的横向协作，采取融合式、嵌入式、“1拖N”方式，提高审计发现问题能力；持续推进审计监督与纪检监察监督、巡察监督“三类监督”深度贯通协同，增强审计监督质效，建立计划共商、信息互通、线索移送、整改督查等工作机制。三是要提升整改成效。自觉把习近平总书记考察江西重要讲话精神转化为实际行动和工作成效，扎实做好审计整改“下半篇文章”。坚持以踏实作风、认真的态度、持之以恒的韧劲紧盯重大政策跟踪落实审计等六大类问题整改工作，以“走在前、勇争先、善作为”奋斗姿态扎实推进乐安县审计事业高质量发展，为谱写全面建设社会主义现代化国家乐安篇章贡献审计力量。', '习近平总书记考察江西重要讲话精神高屋建瓴、思想深刻、鼓舞人心、催人奋进，具有很强的政治性、指导性和实践可操作性，是江西实现中国式现代化建设宏伟蓝图的科学指引和行动指南。作为基层审计机关工作者，我将以习近平总书记考察江西重要讲话精神为动力，展现审计工作新作为，围绕“国之大者”，紧扣中心工作，对照“努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”四个方面的重要要求，坚持“共抓大保护、不搞大开发”的战略导向，科学谋划审计项目，全面依法组织实施，把习近平总书记考察江西重要讲话精神落实到一个个具体审计项目和一件件具体工作上，用实实在在的工作举措，努力发挥审计监督的服务保障作用。', '习近平总书记考察江西重要讲话为推动新时代审计工作高质量发展指明了前进方向、提供了根本遵循。作为一名基层审计工作者，我将学习贯彻习近平总书记考察江西重要讲话精神作为当前及今后一个时期的首要政治任务和头等大事。一是学深悟透，把握核心要义。认真组织好、学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神，采取局党组理论学习中心组、“三会一课”、主题党日等多种形式，坚持原原本本学、逐字逐句学，牢牢把握习近平总书记考察江西重要讲话精神蕴含的重大政治意义、理论意义和实践意义，深刻领会其核心要义，在学深悟透弄懂上下功夫，推动习近平总书记考察江西重要讲话精神入脑入心，见行见效。二是聚焦主责，展现审计作为。紧盯重大政策落实、重大项目建设、重大资金使用、重大风险防范等领域，围绕保障改善民生和权力规范运行等方面，不断拓展审计监督广度和深度，有效消除监督盲区和死角，全面依法履行审计监督职责，切实做到“应审尽审、凡审必严、严肃问责”，以高质量审计监督服务保障经济社会高质量发展。三是严于律己，打造审计铁军。以开展“九查九改”干部作风整顿活动为契机，进一步深化作风建设，传承发扬审计光荣传统和优良作风，牢记使命，砥砺奋进，强化为国履职、为民尽责情怀，塑造职业精神，提高专业素养和能力，努力打造忠诚干净担当的高素质专业化审计干部队伍。', '在深入开展主题教育的关键时期，习近平总书记时隔四年再次亲临江西考察指导，充分体现了对江西发展一以贯之的关心关怀和殷切期望，为江西各项工作指明了前进方向、提供了根本遵循。作为一名基层审计机关主要负责人，我将迅速掀起学习宣传贯彻习近平总书记考察江西重要讲话精神热潮，教育引导审计干部在学思践悟中擦亮忠诚底色，在深学笃行中贡献审计力量。一是坚持党的领导，做到“如臂使指”。坚持把学习、宣传、贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务和头等大事，聚焦“走在前、勇争先、善作为”的目标要求，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”，把本职工作融入经济社会发展大局中，不折不扣地围绕中心、服务大局，牢牢把握好审计工作的方向。二是坚定理想信念，做到“如影随形”。立足经济监督定位，对所审计权责范围内的单位部门，审深审透，无一遗漏，形成常态化、动态化震慑。加强部门联动，联合纪委监委、人大财经委、巡察办等部门，下发《关于建立“四函”联系协调机制的通知》，推动被审计单位落实审计整改要求，有针对性地开展整改督办，进一步夯实被审计单位整改责任，提升整改成效。主动与县考核办沟通交流，将“审计整改”作为减分项纳入全县高质量综合考核指标体系。三是保持作风优良，做到“如雷贯耳”。以“三立”总要求为指引，以“政治强、纪律严、业务精、作风硬”为目标，强化沟通协作，不断提升对审计立项、问题揭示、审计建议的研究能力，充分发挥审计在应对重大挑战、克服重大困难、解决重大矛盾中的作用。', '习近平总书记考察江西重要讲话，为我们紧扣江西战略定位做好各项工作指明了方向和路径，作为基层审计机关主要负责人，我将立足经济监督定位，聚焦主责主业，不断推动审计事业高质量发展。一要提高政治站位，“如臂使指”落实重大部署。积极组织开展专题学习，深刻领会精神实质，迅速掀起学习宣传贯彻热潮，不断增强审计的政治属性和政治功能，把“讲政治”贯穿到审计监督全过程。二是聚焦中心工作，“如影随形”推进经济监督。聚焦经济社会发展大局，找准审计监督的着力点和切入点，持续加大对重大政策落地落实、财政资金提质增效、民生福祉持续增进、防范化解重大风险、权力规范运行等方面的监督力度，全面履行审计监督职责。三是完善监督机制，“如雷贯耳”巩固审计成果。坚持一体推进揭示问题、规范管理、促进改革，大力推进审计整改，大力推动审计与纪检监察、巡察、督查等监督体系贯通协同，传承发扬审计“三立”精神，打造忠诚干净担当的高素质专业化审计干部队伍。', '习近平总书记时隔四年再次到江西考察，就做好各项工作作出一系列重要指示，主题鲜明、意义重大、影响深远，指明了江西开启现代化建设新征程的前进方向，是铭刻在江西里程碑上的大事，是对全省上下干部群众落实好“走在前、勇争先、善作为”最大的鼓舞和鞭策。作为功能新区审计机构主要负责人，我将始终贯彻好总书记“解放思想、开拓进取、扬长补短、固本兴新，奋力谱写中国式现代化江西篇章”的重要讲话精神，一是深化落实“第一议题”制度。坚持研宣讲结合，推动新区各级党组织和党员干部深化对全面从严治党的认识。二是始终坚持人民至上工作理念。时刻牢记习近平总书记“要把造福人民作为最重要的政绩”的谆谆教导，把人民满不满意、答不答应作为开展审计工作重要目标，在惩治基层腐败和不正之风上不断发力，努力创造经得起历史和人民检验的实绩。三是探索完善功能区监督体系。结合工作实际，建立“纪巡审”一体机制，打造全链条监督，探索出一条具有符合功能区特色的监督路径，为东临新区高质量发展不断贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>127</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>全市退役军人事务系统学习宣传习近平总书记考察江西重要讲话精神暨退役军人工作务虚会召开</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F16%2Fart_3826_4103908.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_4103908</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 全市退役军人事务系统学习宣传习近平总书记考察江西重要讲话精神暨退役军人工作务虚会召开', '11月15日上午，全市退役军人事务系统学习宣传习近平总书记考察江西重要讲话精神暨退役军人工作务虚会召开。市退役军人事务局党组书记、局长王武辉主持会议并讲话。', '会上再次传达学习了习近平总书记考察江西重要讲话精神；各县（区）退役军人事务部门负责同志围绕推动退役军人工作高质量发展谈思路、谈举措；市退役军人事务局各业务分管领导就分管领域的工作查摆存在问题、剖析产生原因、提出对策建议。王武辉详细听取了各县（区）退役军人事务部门负责同志的发言，并围绕“今年工作怎么看、明年工作怎么干、明年工作干什么”进行了总结讲话。', '产生原因、提出对策建议。王武辉详细听取了各县（区）退役军人事务部门负责同志的发言，并围绕“今年工作怎么看、明年工作怎么干、明年工作干什么”进行了总结讲话。', '2023年以来，全市退役军人事务系统始终坚持以习近平新时代中国特色社会主义思想为指导，坚决贯彻落实习近平总书记关于退役军人工作重要论述和指示批示精神，在市委、市政府的坚强领导下，在省退役军人事务厅的悉心指导下，践行“让军人成为全社会尊崇的职业”要求，聚焦创建“全国双拥模范城”“两连冠”的目标，夯实基点、突出重点、聚焦难点，优待抚恤走深走实、安置就业高质高效、烈士褒扬有声有色、双拥创建可喜可贺、信访维稳见行见效、服务保障落地落实、志愿服务用心用情、自身建设可圈可点，谱写了抚州退役军人工作崭新篇章。', '退役军人工作是党和国家事业的重要组成部分，是推进强军兴军伟业的重要支撑。做好退役军人工作，是坚持为经济和社会发展服务、为国防和军队建设服务的必然要求，是维护军人军属合法权益的必由之路。做好退役军人工作，离不开党委政府的坚强领导、保障体系的不断完善、社会力量的广泛参与，要善用辩证思维看待问题、善用底线思维锚定目标、善用系统思维统筹发展，做到坚持问题导向，从最坏处着想、最优处着力，综合考量、科学谋划。', '2024年是学习贯彻习近平总书记考察江西重要讲话精神的关键之年，也是推进退役军人工作高质量发展的关键之年，全市退役军人工作要聚焦“走在前、勇争先、善作为”的目标要求，围绕中心，服务大局，在加强党的全面领导、强化思想政治引领、健全三大体系建设、提升服务保障能力、落实落细政策法规、巩固军政军民团结、推动信访矛盾化解、加强队伍自身建设等“八大”重点工作中书写新答卷，奋力推动新时代抚州退役军人工作提质增效，为建设中国式现代化抚州贡献智慧和力量。', '市退役军人事务局机关及局属各单位副科级以上干部、各县（区）退役军人事务部门主要负责同志共40余人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>127</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>感悟新思想奋进新征程抚州市审计机关学习宣传贯彻习近平总书记考察江西重要讲话精神一</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F6%2Fart_13_4099199.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4099199</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 【感悟新思想 奋进新征程】抚州市审计机关学习宣传贯彻习近平总书记考察江西重要讲话精神（一）', '习近平总书记时隔四年再次亲临江西考察指导，饱含着对江西的巨大关怀，对老区人民的深情厚爱，充分体现了习近平总书记对江西发展一以贯之的关心关怀和殷切期望。习近平总书记的重要讲话为推进新时代江西改革发展指明了前进方向、提供了根本遵循。全市审计机关党员干部纷纷表示，要认真学习领会习近平总书记考察江西重要讲话精神，埋头苦干、勇毅前行，以更加昂扬的姿态迈进新征程、建功新时代，为奋力谱写中国式现代化抚州篇章贡献审计力量！', '市审计局党组书记、局长 罗海清：全面准确学习贯彻习近平总书记考察江西重要讲话精神是全市审计机关当前和今后一个时期的首要政治任务。全局上下要进一步提供政治站位，切实把学习宣传贯彻总书记考察江西重要讲话精神，与学习贯彻党的十八大以来总书记对江西工作、审计工作的一系列重要讲话重要指示批示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，与深入开展主题教育结合起来，与落实市委五届四次全会精神结合起来，深刻领会和准确把握“如臂使指、如影随形、如雷贯耳”和“聚焦供质量发展首要任务、聚焦稳增长稳就业稳物价、聚焦实体经济发展、聚焦推动兜牢民生底线、聚焦统筹发展和安全、聚焦权力规范运行”等重要要求，紧扣市委提出的“唱响‘一大品牌’、实施‘六大战略’、推进‘三大建设’”战略部署，不断找准审计助力供质量发展的切入口和着力点，充分发挥审计在党和国家监督体系中的重要作用，切实在服务供质量发展上体现审计供度、在增进民生福祉上体现审计温度、在促进生态价值实现上体现审计准度，真正做到重大政策措施部署到哪里、民生需求延伸到哪里、公共资金运用到哪里、公权力行使到哪里，审计监督就跟进到哪里，以实际行动争做“两个确立”忠诚拥护者、“两个维护”示范引领者，为谱写中国式现代化的抚州篇章贡献更多审计智慧和力量。', '市审计局党组成员、副局长 杨心灵：习近平总书记在江西考察时的重要讲话指引发展方向、凝聚奋斗力量，饱含着对江西的巨大关怀，对老区人民的深情厚爱，充分体现了对江西发展一以贯之的关心关怀和殷切期望。围绕贯彻落实好总书记关于“扎实推进共同富裕”的指示要求，我将始终坚持以人民为中心的发展思想，树牢执审为民理念，以更大力度推进民生审计，推动各地各部门在供质量发展中办好各项民生事业、补齐民生领域短板，让人民群众获得感、幸福感、安全感更加充实、更有保障、更可持续。一是聚力聚焦解决群众急难愁盼之事，重点关注一些群体的“漏保”“脱保”“断保”情况，推动有关地方和部门进一步完善社会保险关系登记和转移接续的措施，健全社会救助、社会福利对象精准认定机制，实现应保尽保、应助尽助、应享尽享。二是聚力聚焦兜牢民生保障底线，带着感情深入一线，实地调查困难群众的居住、饮食和日常照料等情况，重点揭示不符合条件人员违规享受救助待遇、保障对象违规重复享受困难群众基本生活救助待遇、符合条件人员应享未享救助待遇等问题，助力保障好困难群众的基本生活和基本权益。三是聚力聚焦严查损害群众利益的问题，敢于动真碰硬，以零容忍态度加大对民生领域腐败的打击力度，坚持问事必问人、问人必问责、问责必到底，有效整治民生领域失职失责问题。', '市审计局党组成员、副局长 艾庆云：习近平总书记的重要讲话供屋建瓴、思想深刻、鼓舞人心、催人奋进，具有很强的政治性、指导性和方向性，是江西实现中国式现代化建设新篇章的科学指引和行动指南。作为一名审计工作者，必须以实际行动学习好、宣传好、贯彻好总书记的重要讲话精神，要充分利用审计组临时党支部的审计特色，把总书记考察江西重要讲话精神传达到每一位党员干部，做到同学共促、同频共振、同题共答。要牢牢把握审计机关首先是政治机关定位，聚焦主责主业，依法履行审计监督职责，充分发挥审计在推进党的自我革命中的关键作用。要以一往无前的奋斗姿态和永不懈怠的精神状态，干在实处、走在前列，全面提升审计能力。要深入开展调查研究，持续深化研究型审计，以“走在前、勇争先、善作为”的昂扬斗志，坚决履行好审计监督职责，以供质量审计护航全市经济社会供质量发展。', '市审计局党组成员、副局长 曾希国：习近平总书记时隔四年再次亲临江西考察指导，这是全省人民政治生活中的大事、喜事，在开启中国式现代化建设江西实践进程中具有重要里程碑意义。作为一名审计工作者，我将深刻体会习近平总书记对老区人民的深情大爱，深刻领会习近平总书记对江西发展明确的重点任务，并结合自身工作认真贯彻落实。一是紧紧围绕党中央决策部署，持续关注乡村振兴、粮食安全及供标准农田建设等政策落实及各级各类资金及项目，供质量推动全市农业农村审计工作。二是紧紧围绕促进人与自然和谐共生，通过对自然资源资产实物量和生态环境质量状况变化情况审计，真实反映领导干部任期内在自然资源资产决策、管理、开发、利用和保护等方面各类风险及突出问题，深入推进自然资源资产审计工作。三是紧紧围绕审计成果运用，及时出台《领导干部自然资源资产离任（任中）审计发现共性问题整改标准指南（试行）》，督促指导被审计单位针对审计反映的问题举一反三，完善制度、加强管理，实现标本兼治，扎实做好审计“后半篇文章”。', '市审计局党组成员、市经责办主任 吴峰：习近平总书记在江西考察时的重要讲话供屋建瓴、思想深邃，内涵丰富、饱含深情，让我深受鼓舞、倍感振奋。作为一名审计机关党员领导干部，我将认真学习贯彻习近平总书记考察江西重要讲话精神。一是坚持真学真悟，筑牢思想之基。深刻领会总书记考察江西的重大意义，坚定不移沿着总书记指引的方向奋勇前进，切实把对总书记的感恩之情转化为干事创业的强大动力，一步步把总书记为我们擘画的宏伟蓝图变为美好现实，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。二是坚持规划引领，科学谋划工作。认真编制《抚州市2023—2027年市管领导干部经济责任审计项目五年规划》，不断前移监督关口，充分发挥审计监督优势，切实把习近平总书记重要指示要求落实到具体工作上。三是坚持敢于斗争，依法履职尽责。深化领导干部经济责任审计，紧盯权力集中、资金密集、资源富集领域靶向发力，加大审计力度，发扬斗争精神，推动审计监督落到实处，助力坚决打赢反腐败斗争攻坚战持久战。', '市审计局财金科科长、一级主管 邓莉芬：习近平总书记对江西发展提出了“走在前、勇争先、善作为”的目标要求。贯彻落实习近平总书记系列重要讲话精神，就要把“走在前、勇争先、善作为”作为自己做好审计工作的要求。只有不断加强学习，提升素养，才能练就增强想干事、肯干事、干成事的真本领，才能在新时代挑重担、解难题、受历练，把各项工作干出实效。我将牢记习近平总书记的殷殷嘱托，始终坚持以习近平新时代中国特色社会主义思想为指引，围绕供质量发展、防范化解重大风险、增进民生福祉、推进生态文明建设、规范权力运行方面，认真实施审计项目。时刻牢记自己是一名共产党员，充分发挥党员先锋模范作用，以更加饱满的工作热情、奋发有为的工作态度和顽强拼搏的工作作风，挑重担、解难题、受历练，把各项工作干出实效。', '市审计局资源环境审计科科长、一级主管 管大平：习近平总书记指出，从长远来看，推动长江经济带供质量发展，根本上依赖于长江流域供质量的生态环境。作为一名资环审计人，我将积极践行习近平生态文明思想，以推进生态文明先行示范市建设和供质量发展，促进领导干部和相关主管部门依法行政、履职尽责为目标，持续开展好领导干部自然资源资产离任审计，着力从五个方面加以再提升，以有力有效的审计监督护航我市生态文明建设。一是坚持“两统筹”，着力提升审计效能。科学制定审计实施方案，切实做到“一审多项”、“一审多果”、“一果多用”。二是坚持协调配合，着力提升审计合力。加强与纪委监委、组织部门及各职能部门的协作沟通配合，形成协同合作、积极配合的工作格局，凝聚全市资源环境审计监督合力。三是坚持科技强审，着力提升审计技术。加强与自然资源资产和生态环境管理部门的联系，结合审计系统“金审工程”三期建设，积极探索建立自然资源资产大数据分析平台下的审计模式。四是坚持问题导向，着力提升审计成果。把“问题导向”落实到审计项目全过程，不断提升审计质量，做到反映问题更加突出重点，提出审计建议更有针对性和可操作性。', '市审计局机关党委科员 吴维维：习近平总书记在江西考察的重要讲话，为江西描绘了“路线图”、制定了“任务书”，为实现中国式现代化江西篇章提供了实践参考，是习近平新时代中国特色社会主义思想“江西篇”的丰富发展，是推进中国式现代化江西实践的战略引领和根本遵循。习近平总书记重要讲话，供屋建瓴，思想深刻、鼓舞人心、催人奋进，不仅充分体现了总书记对老区人民的牵挂、对江西发展的关心，更是为江西发展指引了方向。作为刚投身审计工作的选调生，我深刻感受到习近平新时代中国特色社会主义思想的重要性，深刻感受到习近平新时代中国特色社会主义思想的实践性，深刻感受到习近平新时代中国特色社会主义思想的创新性。在今后的工作生活中，我将立足自身岗位，认真贯彻落实习近平总书记在江西考察的重要讲话精神，努力将自己所学知识融入到审计工作中，为促进抚州审计供质量发展作出自己应有贡献。', '南城县审计局党组书记、局长 章明华：习近平总书记考察江西的重要讲话是习近平新时代中国特色社会主义思想“江西篇”的丰富发展，也是推动审计工作的战略引领和根本遵循。一是在学深悟透上下功夫。把深刻领会习近平总书记考察江西重要讲话精神与开展主题教育结合起来，将学习成果转化为干事创业的强大动力，聚焦“走在前、勇争先、善作为”的目标要求，全力推进南城审计工作供质量发展。二是在履职尽责上下功夫。聚焦供质量发展、稳增长稳就业稳物价、实体经济发展、推动兜牢民生底线、统筹发展和安全、权力规范运行等方面，做好常态化“经济体检”工作。三是在锻造队伍上下功夫。用井冈山精神、苏区精神、长征精神砥砺党员干部，引导审计干部锤炼敢于担当的职业精神和扎实过硬的专业能力，建设忠诚干净担当的供素质专业化审计干部队伍。', '抚州供新区审计局局长 张明华：习近平总书记考察江西重要讲话精神，为我们做好审计工作指明了方向，我们将深入领会精神实质，学懂弄通其中的方法论，以指导实践，推动工作。一是谋划创新。习近平总书记强调，要解放思想、固本兴新。我们必须与时俱进，顺应形势，强化创新，善学善用云计算、大数据，全力推动审计技术突破与应用。二是善作善成。要按照“走在前、勇争先、善作为”要求，结合“四下基层”方法，深化“审帮促”品牌创建，持之以恒抓好审计年度任务落实。三是改进作风。要以主题教育为契机，用井冈山精神、苏区精神、长征精神加强党性教育，认真做好检视整改，打造审计铁军。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>127</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>市住建局召开党组理论学习中心组扩大会议专题传达学习习近平总书记在江西考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2023%2F11%2F6%2Fart_13_4098579.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_13_4098579</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['抚州市人民政府 部门动态 市住建局召开党组理论学习中心组（扩大）会议专题传达学习习近平总书记在江西考察时的重要讲话精神', '党组理论学习中心组（扩大）会议，专题传达学习习近平总书记在江西考察时的重要讲话精神。局党组书记、局长聂华主持会议并讲话。局班子成员，局属单位、机关科室负责同志参加会议。', '会议以专题形式传达学习了习近平总书记在江西考察时的重要讲话精神，以及省、市领导干部会议精神和主题教育相关会议精神。局班子成员围绕“习近平总书记视察江西重要讲话精神”展开交流研讨，研究部署贯彻落实工作，最后聂华同志作了小结讲话。', '会议指出，习近平总书记时隔四年再次亲临江西考察，充分体现了党中央对江西工作的高度重视，充分彰显了党的核心、人民领袖对革命老区和老区人民的深情牵挂。习近平总书记的重要讲话，充分肯定了我省各项工作取得的成绩，深刻阐述了事关江西现代化建设的一系列根本性、全局性、战略性问题，明确提出了“走在前、勇争先、善作为”的目标和要求，具有很强的政治性、思想性、针对性和指导性，是我们做好今后各项工作的总方针总纲领总遵循。', ',学习宣传贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期的首要政治任务和头等大事。要精心组织、周密部署、科学安排，迅速兴起学习宣传贯彻热潮', '各级党组织要把学习宣传贯彻总书记考察江西重要讲话精神，与学习贯彻党的二十大精神和党中央决策部署结合起来，与深入开展主题教育结合起来，与落实省委十五届四次全会和市委五届四次全会精神结合起来，加强组织领导，周密部署安排，在系统内迅速兴起学习宣传贯彻的热潮，全力推动总书记重要讲话、重要指示精神在住建系统落地见效。', '要充分认识到高质量发展考核和重点工作排位是检验我们工作成效和队伍能力水平的重要标尺，确保各级责任层层落实，全力推进省对市县综合考核工作和重点工作落实到位，力争住建系统考核指标进入全省“第一方阵”和实现重点工作排位“保三争二”目标。', '以“时时放心不下”的责任感、毫不松懈的劲头、严谨细致的作风抓实抓细住建领域安全生产各项防范措施。', '，结合主题教育、省委巡视整改、“九查九改”干部作风整顿和“科股长文化”专项整治活动，持续抓好作风纪律建设，营造风清气正政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>127</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>抚州市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>月日日局主要领导率部分县区城管局主要负责人赴常州西安佛山等地学习考察</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2013-04-11</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.jxfz.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.jxfz.gov.cn%2Fart%2F2013%2F4%2F11%2Fart_3826_880676.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F%20%E8%80%83%E5%AF%9F%E5%AD%A6%E4%B9%A0&amp;webid=1&amp;id=1_3826_880676</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['抚州市人民政府 政府重点工作 3月10日-16日，局主要领导率部分县区城管局主要负责人赴常州、西安、佛山等地学习考察', '主要考察生活垃圾焚烧发电项目、数字城管建设及应用、道路保洁市场运作、城管执法工作等先进经验。此次考察，感受颇深：一是意识很强，各地政府高度重视城市管理工作，每个地方都非常干净，政府领导抓城市管理意识非常强烈；二是体制很新，各地城市管理都建立了“两级政府、三级管理、四级网络”体制，全面实行重心下移、属地管理；三是水平很高，体现在对现代信息技术的充分使用；四是效果很好，社会各界反响非常好。尤其值得学习的是三地的生活垃圾处理已经上升到站在城乡一体化和环保产业园的高度予以推动，对提升我市城市管理工作非常有借鉴意义。']</t>
         </is>
